--- a/Japan J2League/Japan J2League.xlsx
+++ b/Japan J2League/Japan J2League.xlsx
@@ -41981,10 +41981,10 @@
         <v>0</v>
       </c>
       <c r="R466">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S466">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T466">
         <v>2</v>
@@ -42016,7 +42016,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>7630058</v>
+        <v>7630059</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42028,46 +42028,46 @@
         <v>45347.04166666666</v>
       </c>
       <c r="F467" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G467" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K467">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L467">
         <v>3.5</v>
       </c>
       <c r="M467">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="N467">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="O467">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P467">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q467">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R467">
+        <v>1.95</v>
+      </c>
+      <c r="S467">
+        <v>1.9</v>
+      </c>
+      <c r="T467">
+        <v>2.75</v>
+      </c>
+      <c r="U467">
         <v>2.025</v>
       </c>
-      <c r="S467">
+      <c r="V467">
         <v>1.825</v>
-      </c>
-      <c r="T467">
-        <v>2.5</v>
-      </c>
-      <c r="U467">
-        <v>1.975</v>
-      </c>
-      <c r="V467">
-        <v>1.875</v>
       </c>
       <c r="W467">
         <v>0</v>
@@ -42090,7 +42090,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>7630059</v>
+        <v>7630058</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42102,46 +42102,46 @@
         <v>45347.04166666666</v>
       </c>
       <c r="F468" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G468" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K468">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L468">
         <v>3.5</v>
       </c>
       <c r="M468">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="N468">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="O468">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P468">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q468">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R468">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S468">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T468">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U468">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V468">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W468">
         <v>0</v>
@@ -42286,10 +42286,10 @@
         <v>2</v>
       </c>
       <c r="U470">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V470">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W470">
         <v>0</v>
@@ -42434,10 +42434,10 @@
         <v>2.25</v>
       </c>
       <c r="U472">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V472">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W472">
         <v>0</v>

--- a/Japan J2League/Japan J2League.xlsx
+++ b/Japan J2League/Japan J2League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC344"/>
+  <dimension ref="A1:AC334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25032,7 +25032,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7749877</v>
+        <v>7750558</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25044,76 +25044,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F276" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G276" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K276">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L276">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M276">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N276">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="O276">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P276">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q276">
+        <v>-1</v>
+      </c>
+      <c r="R276">
+        <v>1.825</v>
+      </c>
+      <c r="S276">
+        <v>2.025</v>
+      </c>
+      <c r="T276">
+        <v>2.75</v>
+      </c>
+      <c r="U276">
+        <v>1.975</v>
+      </c>
+      <c r="V276">
+        <v>1.875</v>
+      </c>
+      <c r="W276">
         <v>0.5</v>
       </c>
-      <c r="R276">
-        <v>1.975</v>
-      </c>
-      <c r="S276">
-        <v>1.875</v>
-      </c>
-      <c r="T276">
-        <v>2.5</v>
-      </c>
-      <c r="U276">
-        <v>2.025</v>
-      </c>
-      <c r="V276">
-        <v>1.825</v>
-      </c>
-      <c r="W276">
-        <v>-1</v>
-      </c>
       <c r="X276">
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA276">
+        <v>-1</v>
+      </c>
+      <c r="AB276">
+        <v>-1</v>
+      </c>
+      <c r="AC276">
         <v>0.875</v>
-      </c>
-      <c r="AB276">
-        <v>1.025</v>
-      </c>
-      <c r="AC276">
-        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7750558</v>
+        <v>7750557</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25133,13 +25133,13 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F277" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G277" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -25148,43 +25148,43 @@
         <v>57</v>
       </c>
       <c r="K277">
-        <v>1.363</v>
+        <v>1.6</v>
       </c>
       <c r="L277">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M277">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N277">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O277">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P277">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q277">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S277">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T277">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V277">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W277">
-        <v>0.5</v>
+        <v>0.615</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25193,16 +25193,16 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA277">
         <v>-1</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC277">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25210,7 +25210,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7750557</v>
+        <v>7749877</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25222,73 +25222,73 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G278" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H278">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J278" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K278">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M278">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N278">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="O278">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P278">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q278">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R278">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S278">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T278">
         <v>2.5</v>
       </c>
       <c r="U278">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V278">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W278">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z278">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB278">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25477,7 +25477,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7750562</v>
+        <v>7750563</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25489,76 +25489,76 @@
         <v>45354.04166666666</v>
       </c>
       <c r="F281" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G281" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K281">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L281">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M281">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N281">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O281">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P281">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q281">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R281">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="S281">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T281">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V281">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W281">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB281">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC281">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25566,7 +25566,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7750561</v>
+        <v>7750562</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25578,76 +25578,76 @@
         <v>45354.04166666666</v>
       </c>
       <c r="F282" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G282" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K282">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L282">
+        <v>3</v>
+      </c>
+      <c r="M282">
+        <v>2.625</v>
+      </c>
+      <c r="N282">
         <v>3.1</v>
       </c>
-      <c r="M282">
-        <v>2.75</v>
-      </c>
-      <c r="N282">
+      <c r="O282">
         <v>2.9</v>
       </c>
-      <c r="O282">
-        <v>3.3</v>
-      </c>
       <c r="P282">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q282">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R282">
-        <v>1.775</v>
+        <v>2.125</v>
       </c>
       <c r="S282">
+        <v>1.75</v>
+      </c>
+      <c r="T282">
+        <v>2</v>
+      </c>
+      <c r="U282">
+        <v>2.05</v>
+      </c>
+      <c r="V282">
+        <v>1.8</v>
+      </c>
+      <c r="W282">
         <v>2.1</v>
       </c>
-      <c r="T282">
-        <v>2.25</v>
-      </c>
-      <c r="U282">
-        <v>1.85</v>
-      </c>
-      <c r="V282">
-        <v>2</v>
-      </c>
-      <c r="W282">
-        <v>-1</v>
-      </c>
       <c r="X282">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.3875</v>
+        <v>1.125</v>
       </c>
       <c r="AA282">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC282">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25655,7 +25655,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7750563</v>
+        <v>7750561</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25667,10 +25667,10 @@
         <v>45354.04166666666</v>
       </c>
       <c r="F283" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G283" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -25682,61 +25682,61 @@
         <v>56</v>
       </c>
       <c r="K283">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L283">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M283">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N283">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O283">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P283">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q283">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R283">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S283">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T283">
         <v>2.25</v>
       </c>
       <c r="U283">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V283">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA283">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB283">
         <v>-0.5</v>
       </c>
       <c r="AC283">
-        <v>0.4125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25833,7 +25833,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7750567</v>
+        <v>7749878</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25845,10 +25845,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G285" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -25860,40 +25860,40 @@
         <v>55</v>
       </c>
       <c r="K285">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L285">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M285">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N285">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="O285">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P285">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q285">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R285">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S285">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T285">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U285">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V285">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W285">
         <v>-1</v>
@@ -25902,16 +25902,16 @@
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>1.4</v>
+        <v>4.25</v>
       </c>
       <c r="Z285">
         <v>-1</v>
       </c>
       <c r="AA285">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AB285">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC285">
         <v>-1</v>
@@ -25922,7 +25922,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7750565</v>
+        <v>7750566</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25934,58 +25934,58 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G286" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>57</v>
       </c>
       <c r="K286">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L286">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M286">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N286">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="O286">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P286">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q286">
         <v>-0.25</v>
       </c>
       <c r="R286">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S286">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T286">
         <v>2.25</v>
       </c>
       <c r="U286">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V286">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W286">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25994,16 +25994,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AA286">
         <v>-1</v>
       </c>
       <c r="AB286">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26011,7 +26011,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7749878</v>
+        <v>7750567</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26023,10 +26023,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F287" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G287" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -26038,40 +26038,40 @@
         <v>55</v>
       </c>
       <c r="K287">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L287">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M287">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N287">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="O287">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P287">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q287">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R287">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S287">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T287">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U287">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V287">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W287">
         <v>-1</v>
@@ -26080,16 +26080,16 @@
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>4.25</v>
+        <v>1.4</v>
       </c>
       <c r="Z287">
         <v>-1</v>
       </c>
       <c r="AA287">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AB287">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC287">
         <v>-1</v>
@@ -26100,7 +26100,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7750566</v>
+        <v>7750565</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26112,58 +26112,58 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G288" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J288" t="s">
         <v>57</v>
       </c>
       <c r="K288">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L288">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M288">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N288">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O288">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P288">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q288">
         <v>-0.25</v>
       </c>
       <c r="R288">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S288">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T288">
         <v>2.25</v>
       </c>
       <c r="U288">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V288">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W288">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="X288">
         <v>-1</v>
@@ -26172,16 +26172,16 @@
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="AA288">
         <v>-1</v>
       </c>
       <c r="AB288">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC288">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -27613,7 +27613,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7750585</v>
+        <v>7750588</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27625,76 +27625,76 @@
         <v>45371.08333333334</v>
       </c>
       <c r="F305" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G305" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K305">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="L305">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M305">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N305">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O305">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P305">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q305">
+        <v>-0.75</v>
+      </c>
+      <c r="R305">
+        <v>1.825</v>
+      </c>
+      <c r="S305">
+        <v>2.025</v>
+      </c>
+      <c r="T305">
+        <v>2.25</v>
+      </c>
+      <c r="U305">
+        <v>1.975</v>
+      </c>
+      <c r="V305">
+        <v>1.875</v>
+      </c>
+      <c r="W305">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X305">
+        <v>-1</v>
+      </c>
+      <c r="Y305">
+        <v>-1</v>
+      </c>
+      <c r="Z305">
+        <v>0.4125</v>
+      </c>
+      <c r="AA305">
         <v>-0.5</v>
       </c>
-      <c r="R305">
-        <v>1.875</v>
-      </c>
-      <c r="S305">
-        <v>1.975</v>
-      </c>
-      <c r="T305">
-        <v>2.75</v>
-      </c>
-      <c r="U305">
-        <v>1.85</v>
-      </c>
-      <c r="V305">
-        <v>2</v>
-      </c>
-      <c r="W305">
-        <v>-1</v>
-      </c>
-      <c r="X305">
-        <v>-1</v>
-      </c>
-      <c r="Y305">
-        <v>2.75</v>
-      </c>
-      <c r="Z305">
-        <v>-1</v>
-      </c>
-      <c r="AA305">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB305">
         <v>-1</v>
       </c>
       <c r="AC305">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27702,7 +27702,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7750588</v>
+        <v>7750583</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27714,76 +27714,76 @@
         <v>45371.08333333334</v>
       </c>
       <c r="F306" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G306" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306">
         <v>0</v>
       </c>
       <c r="J306" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K306">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L306">
+        <v>3.4</v>
+      </c>
+      <c r="M306">
         <v>3.5</v>
       </c>
-      <c r="M306">
-        <v>4.75</v>
-      </c>
       <c r="N306">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O306">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P306">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q306">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R306">
+        <v>1.8</v>
+      </c>
+      <c r="S306">
+        <v>2.05</v>
+      </c>
+      <c r="T306">
+        <v>2.5</v>
+      </c>
+      <c r="U306">
+        <v>2.025</v>
+      </c>
+      <c r="V306">
         <v>1.825</v>
       </c>
-      <c r="S306">
-        <v>2.025</v>
-      </c>
-      <c r="T306">
-        <v>2.25</v>
-      </c>
-      <c r="U306">
-        <v>1.975</v>
-      </c>
-      <c r="V306">
-        <v>1.875</v>
-      </c>
       <c r="W306">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA306">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB306">
         <v>-1</v>
       </c>
       <c r="AC306">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27791,7 +27791,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7750583</v>
+        <v>7750589</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27803,76 +27803,76 @@
         <v>45371.08333333334</v>
       </c>
       <c r="F307" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G307" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I307">
         <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K307">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L307">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M307">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N307">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O307">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P307">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q307">
         <v>-0.25</v>
       </c>
       <c r="R307">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S307">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T307">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V307">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W307">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X307">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA307">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC307">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27880,7 +27880,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7750589</v>
+        <v>7750585</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27892,76 +27892,76 @@
         <v>45371.08333333334</v>
       </c>
       <c r="F308" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G308" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H308">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K308">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L308">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M308">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N308">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O308">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P308">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S308">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T308">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U308">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V308">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W308">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X308">
         <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z308">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB308">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28147,7 +28147,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7750586</v>
+        <v>7750587</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28159,76 +28159,76 @@
         <v>45371.08333333334</v>
       </c>
       <c r="F311" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G311" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H311">
         <v>1</v>
       </c>
       <c r="I311">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K311">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="L311">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M311">
+        <v>5.75</v>
+      </c>
+      <c r="N311">
+        <v>1.4</v>
+      </c>
+      <c r="O311">
+        <v>4.5</v>
+      </c>
+      <c r="P311">
+        <v>9.5</v>
+      </c>
+      <c r="Q311">
+        <v>-1.25</v>
+      </c>
+      <c r="R311">
+        <v>1.925</v>
+      </c>
+      <c r="S311">
+        <v>1.925</v>
+      </c>
+      <c r="T311">
         <v>2.5</v>
       </c>
-      <c r="N311">
-        <v>3</v>
-      </c>
-      <c r="O311">
-        <v>3.5</v>
-      </c>
-      <c r="P311">
-        <v>2.3</v>
-      </c>
-      <c r="Q311">
-        <v>0.25</v>
-      </c>
-      <c r="R311">
+      <c r="U311">
+        <v>2.025</v>
+      </c>
+      <c r="V311">
         <v>1.825</v>
       </c>
-      <c r="S311">
-        <v>2.025</v>
-      </c>
-      <c r="T311">
-        <v>2.75</v>
-      </c>
-      <c r="U311">
-        <v>1.95</v>
-      </c>
-      <c r="V311">
-        <v>1.9</v>
-      </c>
       <c r="W311">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X311">
         <v>-1</v>
       </c>
       <c r="Y311">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z311">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA311">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AB311">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28236,7 +28236,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7750587</v>
+        <v>7750586</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28248,76 +28248,76 @@
         <v>45371.08333333334</v>
       </c>
       <c r="F312" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G312" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H312">
         <v>1</v>
       </c>
       <c r="I312">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J312" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K312">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="L312">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M312">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N312">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O312">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P312">
-        <v>9.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q312">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R312">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S312">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T312">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U312">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V312">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W312">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X312">
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z312">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AB312">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC312">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28503,7 +28503,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7750594</v>
+        <v>7750597</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28515,46 +28515,46 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F315" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G315" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J315" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K315">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="L315">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M315">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="N315">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="O315">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P315">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q315">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R315">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S315">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T315">
         <v>2.5</v>
@@ -28566,25 +28566,25 @@
         <v>1.925</v>
       </c>
       <c r="W315">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X315">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC315">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28592,7 +28592,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7750595</v>
+        <v>7750596</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28604,58 +28604,58 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F316" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G316" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316" t="s">
         <v>57</v>
       </c>
       <c r="K316">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="L316">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M316">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="N316">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O316">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P316">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q316">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R316">
+        <v>1.8</v>
+      </c>
+      <c r="S316">
+        <v>2.05</v>
+      </c>
+      <c r="T316">
+        <v>2.5</v>
+      </c>
+      <c r="U316">
+        <v>2.025</v>
+      </c>
+      <c r="V316">
         <v>1.825</v>
       </c>
-      <c r="S316">
-        <v>2.025</v>
-      </c>
-      <c r="T316">
-        <v>2</v>
-      </c>
-      <c r="U316">
-        <v>1.925</v>
-      </c>
-      <c r="V316">
-        <v>1.925</v>
-      </c>
       <c r="W316">
-        <v>2.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X316">
         <v>-1</v>
@@ -28664,16 +28664,16 @@
         <v>-1</v>
       </c>
       <c r="Z316">
+        <v>0.4</v>
+      </c>
+      <c r="AA316">
+        <v>-0.5</v>
+      </c>
+      <c r="AB316">
+        <v>-1</v>
+      </c>
+      <c r="AC316">
         <v>0.825</v>
-      </c>
-      <c r="AA316">
-        <v>-1</v>
-      </c>
-      <c r="AB316">
-        <v>0.925</v>
-      </c>
-      <c r="AC316">
-        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28681,7 +28681,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7750596</v>
+        <v>7750595</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28693,58 +28693,58 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G317" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H317">
+        <v>2</v>
+      </c>
+      <c r="I317">
         <v>1</v>
-      </c>
-      <c r="I317">
-        <v>0</v>
       </c>
       <c r="J317" t="s">
         <v>57</v>
       </c>
       <c r="K317">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L317">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M317">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N317">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O317">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P317">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q317">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R317">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S317">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T317">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U317">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V317">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W317">
-        <v>0.6499999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="X317">
         <v>-1</v>
@@ -28753,16 +28753,16 @@
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC317">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28770,7 +28770,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7750597</v>
+        <v>7750594</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28782,46 +28782,46 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F318" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G318" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K318">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="L318">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M318">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="N318">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="O318">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P318">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q318">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R318">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S318">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T318">
         <v>2.5</v>
@@ -28833,25 +28833,25 @@
         <v>1.925</v>
       </c>
       <c r="W318">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X318">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA318">
         <v>-1</v>
       </c>
       <c r="AB318">
+        <v>-1</v>
+      </c>
+      <c r="AC318">
         <v>0.925</v>
-      </c>
-      <c r="AC318">
-        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28859,7 +28859,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7750599</v>
+        <v>7750592</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28871,76 +28871,76 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G319" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H319">
         <v>0</v>
       </c>
       <c r="I319">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K319">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L319">
         <v>3.25</v>
       </c>
       <c r="M319">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N319">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O319">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P319">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="Q319">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R319">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S319">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T319">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U319">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y319">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB319">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28948,7 +28948,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7750592</v>
+        <v>7749881</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28960,76 +28960,76 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G320" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" t="s">
         <v>56</v>
       </c>
       <c r="K320">
+        <v>2.6</v>
+      </c>
+      <c r="L320">
+        <v>3.2</v>
+      </c>
+      <c r="M320">
+        <v>2.4</v>
+      </c>
+      <c r="N320">
+        <v>2.5</v>
+      </c>
+      <c r="O320">
+        <v>3.4</v>
+      </c>
+      <c r="P320">
+        <v>2.75</v>
+      </c>
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320">
         <v>1.8</v>
       </c>
-      <c r="L320">
-        <v>3.25</v>
-      </c>
-      <c r="M320">
-        <v>4</v>
-      </c>
-      <c r="N320">
-        <v>2</v>
-      </c>
-      <c r="O320">
-        <v>3.1</v>
-      </c>
-      <c r="P320">
-        <v>4.333</v>
-      </c>
-      <c r="Q320">
-        <v>-0.5</v>
-      </c>
-      <c r="R320">
-        <v>2</v>
-      </c>
       <c r="S320">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T320">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W320">
         <v>-1</v>
       </c>
       <c r="X320">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
         <v>-1</v>
       </c>
       <c r="AC320">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29037,7 +29037,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7750593</v>
+        <v>7750599</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29049,76 +29049,76 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F321" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G321" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H321">
         <v>0</v>
       </c>
       <c r="I321">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J321" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K321">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L321">
         <v>3.25</v>
       </c>
       <c r="M321">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N321">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="O321">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P321">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q321">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R321">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S321">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T321">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U321">
+        <v>1.825</v>
+      </c>
+      <c r="V321">
         <v>2.025</v>
       </c>
-      <c r="V321">
-        <v>1.825</v>
-      </c>
       <c r="W321">
         <v>-1</v>
       </c>
       <c r="X321">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z321">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC321">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29215,7 +29215,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7749881</v>
+        <v>7750593</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29227,55 +29227,55 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F323" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G323" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
         <v>56</v>
       </c>
       <c r="K323">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L323">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M323">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N323">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O323">
         <v>3.4</v>
       </c>
       <c r="P323">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S323">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T323">
         <v>2.5</v>
       </c>
       <c r="U323">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V323">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -29287,16 +29287,16 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA323">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB323">
         <v>-1</v>
       </c>
       <c r="AC323">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29838,7 +29838,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7750604</v>
+        <v>7750605</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29850,55 +29850,55 @@
         <v>45381.08333333334</v>
       </c>
       <c r="F330" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G330" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
         <v>1</v>
-      </c>
-      <c r="I330">
-        <v>2</v>
       </c>
       <c r="J330" t="s">
         <v>55</v>
       </c>
       <c r="K330">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L330">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M330">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N330">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O330">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P330">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q330">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R330">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S330">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T330">
         <v>2.25</v>
       </c>
       <c r="U330">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V330">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W330">
         <v>-1</v>
@@ -29907,19 +29907,19 @@
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Z330">
         <v>-1</v>
       </c>
       <c r="AA330">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB330">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29927,7 +29927,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7750605</v>
+        <v>7750604</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29939,55 +29939,55 @@
         <v>45381.08333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G331" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J331" t="s">
         <v>55</v>
       </c>
       <c r="K331">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L331">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M331">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N331">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O331">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P331">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q331">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R331">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S331">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T331">
         <v>2.25</v>
       </c>
       <c r="U331">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V331">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W331">
         <v>-1</v>
@@ -29996,19 +29996,19 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB331">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC331">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30276,746 +30276,6 @@
       </c>
       <c r="AC334">
         <v>0.45</v>
-      </c>
-    </row>
-    <row r="335" spans="1:29">
-      <c r="A335" s="1">
-        <v>333</v>
-      </c>
-      <c r="B335">
-        <v>7750614</v>
-      </c>
-      <c r="C335" t="s">
-        <v>28</v>
-      </c>
-      <c r="D335" t="s">
-        <v>28</v>
-      </c>
-      <c r="E335" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F335" t="s">
-        <v>36</v>
-      </c>
-      <c r="G335" t="s">
-        <v>49</v>
-      </c>
-      <c r="K335">
-        <v>1.571</v>
-      </c>
-      <c r="L335">
-        <v>3.6</v>
-      </c>
-      <c r="M335">
-        <v>5.25</v>
-      </c>
-      <c r="N335">
-        <v>1.615</v>
-      </c>
-      <c r="O335">
-        <v>3.6</v>
-      </c>
-      <c r="P335">
-        <v>6.5</v>
-      </c>
-      <c r="Q335">
-        <v>-1</v>
-      </c>
-      <c r="R335">
-        <v>2.05</v>
-      </c>
-      <c r="S335">
-        <v>1.8</v>
-      </c>
-      <c r="T335">
-        <v>2.25</v>
-      </c>
-      <c r="U335">
-        <v>1.925</v>
-      </c>
-      <c r="V335">
-        <v>1.925</v>
-      </c>
-      <c r="W335">
-        <v>0</v>
-      </c>
-      <c r="X335">
-        <v>0</v>
-      </c>
-      <c r="Y335">
-        <v>0</v>
-      </c>
-      <c r="Z335">
-        <v>0</v>
-      </c>
-      <c r="AA335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:29">
-      <c r="A336" s="1">
-        <v>334</v>
-      </c>
-      <c r="B336">
-        <v>7749883</v>
-      </c>
-      <c r="C336" t="s">
-        <v>28</v>
-      </c>
-      <c r="D336" t="s">
-        <v>28</v>
-      </c>
-      <c r="E336" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F336" t="s">
-        <v>54</v>
-      </c>
-      <c r="G336" t="s">
-        <v>43</v>
-      </c>
-      <c r="K336">
-        <v>2.8</v>
-      </c>
-      <c r="L336">
-        <v>3.25</v>
-      </c>
-      <c r="M336">
-        <v>2.375</v>
-      </c>
-      <c r="N336">
-        <v>3.4</v>
-      </c>
-      <c r="O336">
-        <v>3.1</v>
-      </c>
-      <c r="P336">
-        <v>2.3</v>
-      </c>
-      <c r="Q336">
-        <v>0.25</v>
-      </c>
-      <c r="R336">
-        <v>1.875</v>
-      </c>
-      <c r="S336">
-        <v>1.975</v>
-      </c>
-      <c r="T336">
-        <v>2.25</v>
-      </c>
-      <c r="U336">
-        <v>1.825</v>
-      </c>
-      <c r="V336">
-        <v>2.025</v>
-      </c>
-      <c r="W336">
-        <v>0</v>
-      </c>
-      <c r="X336">
-        <v>0</v>
-      </c>
-      <c r="Y336">
-        <v>0</v>
-      </c>
-      <c r="Z336">
-        <v>0</v>
-      </c>
-      <c r="AA336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:27">
-      <c r="A337" s="1">
-        <v>335</v>
-      </c>
-      <c r="B337">
-        <v>7750610</v>
-      </c>
-      <c r="C337" t="s">
-        <v>28</v>
-      </c>
-      <c r="D337" t="s">
-        <v>28</v>
-      </c>
-      <c r="E337" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F337" t="s">
-        <v>40</v>
-      </c>
-      <c r="G337" t="s">
-        <v>52</v>
-      </c>
-      <c r="K337">
-        <v>1.85</v>
-      </c>
-      <c r="L337">
-        <v>3.25</v>
-      </c>
-      <c r="M337">
-        <v>4</v>
-      </c>
-      <c r="N337">
-        <v>2</v>
-      </c>
-      <c r="O337">
-        <v>3.3</v>
-      </c>
-      <c r="P337">
-        <v>3.8</v>
-      </c>
-      <c r="Q337">
-        <v>-0.5</v>
-      </c>
-      <c r="R337">
-        <v>2</v>
-      </c>
-      <c r="S337">
-        <v>1.85</v>
-      </c>
-      <c r="T337">
-        <v>2.25</v>
-      </c>
-      <c r="U337">
-        <v>1.875</v>
-      </c>
-      <c r="V337">
-        <v>1.975</v>
-      </c>
-      <c r="W337">
-        <v>0</v>
-      </c>
-      <c r="X337">
-        <v>0</v>
-      </c>
-      <c r="Y337">
-        <v>0</v>
-      </c>
-      <c r="Z337">
-        <v>0</v>
-      </c>
-      <c r="AA337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:27">
-      <c r="A338" s="1">
-        <v>336</v>
-      </c>
-      <c r="B338">
-        <v>7750611</v>
-      </c>
-      <c r="C338" t="s">
-        <v>28</v>
-      </c>
-      <c r="D338" t="s">
-        <v>28</v>
-      </c>
-      <c r="E338" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F338" t="s">
-        <v>41</v>
-      </c>
-      <c r="G338" t="s">
-        <v>44</v>
-      </c>
-      <c r="K338">
-        <v>2</v>
-      </c>
-      <c r="L338">
-        <v>2.875</v>
-      </c>
-      <c r="M338">
-        <v>4</v>
-      </c>
-      <c r="N338">
-        <v>2.05</v>
-      </c>
-      <c r="O338">
-        <v>3</v>
-      </c>
-      <c r="P338">
-        <v>4.333</v>
-      </c>
-      <c r="Q338">
-        <v>-0.5</v>
-      </c>
-      <c r="R338">
-        <v>2.1</v>
-      </c>
-      <c r="S338">
-        <v>1.775</v>
-      </c>
-      <c r="T338">
-        <v>1.75</v>
-      </c>
-      <c r="U338">
-        <v>1.8</v>
-      </c>
-      <c r="V338">
-        <v>2.05</v>
-      </c>
-      <c r="W338">
-        <v>0</v>
-      </c>
-      <c r="X338">
-        <v>0</v>
-      </c>
-      <c r="Y338">
-        <v>0</v>
-      </c>
-      <c r="Z338">
-        <v>0</v>
-      </c>
-      <c r="AA338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:27">
-      <c r="A339" s="1">
-        <v>337</v>
-      </c>
-      <c r="B339">
-        <v>7750612</v>
-      </c>
-      <c r="C339" t="s">
-        <v>28</v>
-      </c>
-      <c r="D339" t="s">
-        <v>28</v>
-      </c>
-      <c r="E339" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F339" t="s">
-        <v>29</v>
-      </c>
-      <c r="G339" t="s">
-        <v>35</v>
-      </c>
-      <c r="K339">
-        <v>1.95</v>
-      </c>
-      <c r="L339">
-        <v>3.4</v>
-      </c>
-      <c r="M339">
-        <v>3.5</v>
-      </c>
-      <c r="N339">
-        <v>2</v>
-      </c>
-      <c r="O339">
-        <v>3.5</v>
-      </c>
-      <c r="P339">
-        <v>3.75</v>
-      </c>
-      <c r="Q339">
-        <v>-0.5</v>
-      </c>
-      <c r="R339">
-        <v>2.025</v>
-      </c>
-      <c r="S339">
-        <v>1.825</v>
-      </c>
-      <c r="T339">
-        <v>2.5</v>
-      </c>
-      <c r="U339">
-        <v>1.925</v>
-      </c>
-      <c r="V339">
-        <v>1.925</v>
-      </c>
-      <c r="W339">
-        <v>0</v>
-      </c>
-      <c r="X339">
-        <v>0</v>
-      </c>
-      <c r="Y339">
-        <v>0</v>
-      </c>
-      <c r="Z339">
-        <v>0</v>
-      </c>
-      <c r="AA339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:27">
-      <c r="A340" s="1">
-        <v>338</v>
-      </c>
-      <c r="B340">
-        <v>7750613</v>
-      </c>
-      <c r="C340" t="s">
-        <v>28</v>
-      </c>
-      <c r="D340" t="s">
-        <v>28</v>
-      </c>
-      <c r="E340" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F340" t="s">
-        <v>53</v>
-      </c>
-      <c r="G340" t="s">
-        <v>39</v>
-      </c>
-      <c r="K340">
-        <v>2.8</v>
-      </c>
-      <c r="L340">
-        <v>3.25</v>
-      </c>
-      <c r="M340">
-        <v>2.4</v>
-      </c>
-      <c r="N340">
-        <v>3.8</v>
-      </c>
-      <c r="O340">
-        <v>3.25</v>
-      </c>
-      <c r="P340">
-        <v>2.05</v>
-      </c>
-      <c r="Q340">
-        <v>0.5</v>
-      </c>
-      <c r="R340">
-        <v>1.825</v>
-      </c>
-      <c r="S340">
-        <v>2.025</v>
-      </c>
-      <c r="T340">
-        <v>2.25</v>
-      </c>
-      <c r="U340">
-        <v>2.025</v>
-      </c>
-      <c r="V340">
-        <v>1.825</v>
-      </c>
-      <c r="W340">
-        <v>0</v>
-      </c>
-      <c r="X340">
-        <v>0</v>
-      </c>
-      <c r="Y340">
-        <v>0</v>
-      </c>
-      <c r="Z340">
-        <v>0</v>
-      </c>
-      <c r="AA340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:27">
-      <c r="A341" s="1">
-        <v>339</v>
-      </c>
-      <c r="B341">
-        <v>7750615</v>
-      </c>
-      <c r="C341" t="s">
-        <v>28</v>
-      </c>
-      <c r="D341" t="s">
-        <v>28</v>
-      </c>
-      <c r="E341" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F341" t="s">
-        <v>50</v>
-      </c>
-      <c r="G341" t="s">
-        <v>45</v>
-      </c>
-      <c r="K341">
-        <v>1.363</v>
-      </c>
-      <c r="L341">
-        <v>4.5</v>
-      </c>
-      <c r="M341">
-        <v>6.5</v>
-      </c>
-      <c r="N341">
-        <v>1.4</v>
-      </c>
-      <c r="O341">
-        <v>4.5</v>
-      </c>
-      <c r="P341">
-        <v>8</v>
-      </c>
-      <c r="Q341">
-        <v>-1.25</v>
-      </c>
-      <c r="R341">
-        <v>1.9</v>
-      </c>
-      <c r="S341">
-        <v>1.95</v>
-      </c>
-      <c r="T341">
-        <v>2.75</v>
-      </c>
-      <c r="U341">
-        <v>2</v>
-      </c>
-      <c r="V341">
-        <v>1.85</v>
-      </c>
-      <c r="W341">
-        <v>0</v>
-      </c>
-      <c r="X341">
-        <v>0</v>
-      </c>
-      <c r="Y341">
-        <v>0</v>
-      </c>
-      <c r="Z341">
-        <v>0</v>
-      </c>
-      <c r="AA341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:27">
-      <c r="A342" s="1">
-        <v>340</v>
-      </c>
-      <c r="B342">
-        <v>7750617</v>
-      </c>
-      <c r="C342" t="s">
-        <v>28</v>
-      </c>
-      <c r="D342" t="s">
-        <v>28</v>
-      </c>
-      <c r="E342" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F342" t="s">
-        <v>30</v>
-      </c>
-      <c r="G342" t="s">
-        <v>47</v>
-      </c>
-      <c r="K342">
-        <v>2.5</v>
-      </c>
-      <c r="L342">
-        <v>3.25</v>
-      </c>
-      <c r="M342">
-        <v>2.6</v>
-      </c>
-      <c r="N342">
-        <v>2.8</v>
-      </c>
-      <c r="O342">
-        <v>3.25</v>
-      </c>
-      <c r="P342">
-        <v>2.55</v>
-      </c>
-      <c r="Q342">
-        <v>0</v>
-      </c>
-      <c r="R342">
-        <v>2.025</v>
-      </c>
-      <c r="S342">
-        <v>1.825</v>
-      </c>
-      <c r="T342">
-        <v>2.25</v>
-      </c>
-      <c r="U342">
-        <v>1.925</v>
-      </c>
-      <c r="V342">
-        <v>1.925</v>
-      </c>
-      <c r="W342">
-        <v>0</v>
-      </c>
-      <c r="X342">
-        <v>0</v>
-      </c>
-      <c r="Y342">
-        <v>0</v>
-      </c>
-      <c r="Z342">
-        <v>0</v>
-      </c>
-      <c r="AA342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:27">
-      <c r="A343" s="1">
-        <v>341</v>
-      </c>
-      <c r="B343">
-        <v>7750618</v>
-      </c>
-      <c r="C343" t="s">
-        <v>28</v>
-      </c>
-      <c r="D343" t="s">
-        <v>28</v>
-      </c>
-      <c r="E343" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F343" t="s">
-        <v>48</v>
-      </c>
-      <c r="G343" t="s">
-        <v>32</v>
-      </c>
-      <c r="K343">
-        <v>2.1</v>
-      </c>
-      <c r="L343">
-        <v>3.25</v>
-      </c>
-      <c r="M343">
-        <v>3.1</v>
-      </c>
-      <c r="N343">
-        <v>2.05</v>
-      </c>
-      <c r="O343">
-        <v>3.3</v>
-      </c>
-      <c r="P343">
-        <v>3.8</v>
-      </c>
-      <c r="Q343">
-        <v>-0.5</v>
-      </c>
-      <c r="R343">
-        <v>2.05</v>
-      </c>
-      <c r="S343">
-        <v>1.8</v>
-      </c>
-      <c r="T343">
-        <v>2.5</v>
-      </c>
-      <c r="U343">
-        <v>2</v>
-      </c>
-      <c r="V343">
-        <v>1.85</v>
-      </c>
-      <c r="W343">
-        <v>0</v>
-      </c>
-      <c r="X343">
-        <v>0</v>
-      </c>
-      <c r="Y343">
-        <v>0</v>
-      </c>
-      <c r="Z343">
-        <v>0</v>
-      </c>
-      <c r="AA343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:27">
-      <c r="A344" s="1">
-        <v>342</v>
-      </c>
-      <c r="B344">
-        <v>7750616</v>
-      </c>
-      <c r="C344" t="s">
-        <v>28</v>
-      </c>
-      <c r="D344" t="s">
-        <v>28</v>
-      </c>
-      <c r="E344" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F344" t="s">
-        <v>37</v>
-      </c>
-      <c r="G344" t="s">
-        <v>51</v>
-      </c>
-      <c r="K344">
-        <v>2.1</v>
-      </c>
-      <c r="L344">
-        <v>3.25</v>
-      </c>
-      <c r="M344">
-        <v>3.25</v>
-      </c>
-      <c r="N344">
-        <v>2.55</v>
-      </c>
-      <c r="O344">
-        <v>3.1</v>
-      </c>
-      <c r="P344">
-        <v>3</v>
-      </c>
-      <c r="Q344">
-        <v>0</v>
-      </c>
-      <c r="R344">
-        <v>1.775</v>
-      </c>
-      <c r="S344">
-        <v>2.1</v>
-      </c>
-      <c r="T344">
-        <v>2</v>
-      </c>
-      <c r="U344">
-        <v>1.775</v>
-      </c>
-      <c r="V344">
-        <v>2.1</v>
-      </c>
-      <c r="W344">
-        <v>0</v>
-      </c>
-      <c r="X344">
-        <v>0</v>
-      </c>
-      <c r="Y344">
-        <v>0</v>
-      </c>
-      <c r="Z344">
-        <v>0</v>
-      </c>
-      <c r="AA344">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Japan J2League/Japan J2League.xlsx
+++ b/Japan J2League/Japan J2League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC334"/>
+  <dimension ref="A1:AC339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25032,7 +25032,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7750558</v>
+        <v>7749877</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25044,76 +25044,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F276" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G276" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K276">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L276">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M276">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="N276">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="O276">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P276">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q276">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R276">
+        <v>1.975</v>
+      </c>
+      <c r="S276">
+        <v>1.875</v>
+      </c>
+      <c r="T276">
+        <v>2.5</v>
+      </c>
+      <c r="U276">
+        <v>2.025</v>
+      </c>
+      <c r="V276">
         <v>1.825</v>
       </c>
-      <c r="S276">
-        <v>2.025</v>
-      </c>
-      <c r="T276">
-        <v>2.75</v>
-      </c>
-      <c r="U276">
-        <v>1.975</v>
-      </c>
-      <c r="V276">
-        <v>1.875</v>
-      </c>
       <c r="W276">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X276">
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z276">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC276">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7750557</v>
+        <v>7750558</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25133,13 +25133,13 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F277" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G277" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H277">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -25148,43 +25148,43 @@
         <v>57</v>
       </c>
       <c r="K277">
-        <v>1.6</v>
+        <v>1.363</v>
       </c>
       <c r="L277">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M277">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N277">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O277">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P277">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q277">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R277">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S277">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U277">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V277">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W277">
-        <v>0.615</v>
+        <v>0.5</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25193,16 +25193,16 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA277">
         <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25210,7 +25210,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7749877</v>
+        <v>7750557</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25222,73 +25222,73 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G278" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I278">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K278">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="L278">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M278">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N278">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="O278">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P278">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q278">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R278">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S278">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T278">
         <v>2.5</v>
       </c>
       <c r="U278">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V278">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA278">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25477,7 +25477,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7750563</v>
+        <v>7750562</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25489,76 +25489,76 @@
         <v>45354.04166666666</v>
       </c>
       <c r="F281" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G281" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K281">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L281">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M281">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N281">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O281">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P281">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q281">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R281">
-        <v>1.9</v>
+        <v>2.125</v>
       </c>
       <c r="S281">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T281">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U281">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V281">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X281">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA281">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC281">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25566,7 +25566,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7750562</v>
+        <v>7750561</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25578,76 +25578,76 @@
         <v>45354.04166666666</v>
       </c>
       <c r="F282" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G282" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K282">
+        <v>2.5</v>
+      </c>
+      <c r="L282">
+        <v>3.1</v>
+      </c>
+      <c r="M282">
         <v>2.75</v>
       </c>
-      <c r="L282">
-        <v>3</v>
-      </c>
-      <c r="M282">
-        <v>2.625</v>
-      </c>
       <c r="N282">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O282">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P282">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q282">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R282">
-        <v>2.125</v>
+        <v>1.775</v>
       </c>
       <c r="S282">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U282">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V282">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W282">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>1.125</v>
+        <v>0.3875</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB282">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC282">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25655,7 +25655,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7750561</v>
+        <v>7750563</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25667,10 +25667,10 @@
         <v>45354.04166666666</v>
       </c>
       <c r="F283" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G283" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -25682,61 +25682,61 @@
         <v>56</v>
       </c>
       <c r="K283">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L283">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M283">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N283">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O283">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P283">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q283">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R283">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S283">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T283">
         <v>2.25</v>
       </c>
       <c r="U283">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V283">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB283">
         <v>-0.5</v>
       </c>
       <c r="AC283">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25833,7 +25833,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7749878</v>
+        <v>7750567</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25845,10 +25845,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G285" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -25860,40 +25860,40 @@
         <v>55</v>
       </c>
       <c r="K285">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L285">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M285">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N285">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="O285">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P285">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q285">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R285">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S285">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T285">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U285">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V285">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W285">
         <v>-1</v>
@@ -25902,16 +25902,16 @@
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>4.25</v>
+        <v>1.4</v>
       </c>
       <c r="Z285">
         <v>-1</v>
       </c>
       <c r="AA285">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AB285">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC285">
         <v>-1</v>
@@ -25922,7 +25922,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7750566</v>
+        <v>7750565</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25934,58 +25934,58 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G286" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="s">
         <v>57</v>
       </c>
       <c r="K286">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L286">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M286">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N286">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O286">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P286">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q286">
         <v>-0.25</v>
       </c>
       <c r="R286">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S286">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T286">
         <v>2.25</v>
       </c>
       <c r="U286">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V286">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W286">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25994,16 +25994,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="AA286">
         <v>-1</v>
       </c>
       <c r="AB286">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC286">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26011,7 +26011,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7750567</v>
+        <v>7749878</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26023,10 +26023,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F287" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G287" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -26038,40 +26038,40 @@
         <v>55</v>
       </c>
       <c r="K287">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L287">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M287">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N287">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="O287">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P287">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q287">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R287">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S287">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T287">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U287">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V287">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W287">
         <v>-1</v>
@@ -26080,16 +26080,16 @@
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>1.4</v>
+        <v>4.25</v>
       </c>
       <c r="Z287">
         <v>-1</v>
       </c>
       <c r="AA287">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AB287">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC287">
         <v>-1</v>
@@ -26100,7 +26100,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7750565</v>
+        <v>7750566</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26112,58 +26112,58 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G288" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
         <v>57</v>
       </c>
       <c r="K288">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L288">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M288">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N288">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="O288">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P288">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q288">
         <v>-0.25</v>
       </c>
       <c r="R288">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S288">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T288">
         <v>2.25</v>
       </c>
       <c r="U288">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V288">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W288">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="X288">
         <v>-1</v>
@@ -26172,16 +26172,16 @@
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AA288">
         <v>-1</v>
       </c>
       <c r="AB288">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -27613,7 +27613,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7750588</v>
+        <v>7750585</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27625,76 +27625,76 @@
         <v>45371.08333333334</v>
       </c>
       <c r="F305" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G305" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
         <v>1</v>
       </c>
-      <c r="I305">
-        <v>0</v>
-      </c>
       <c r="J305" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K305">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="L305">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M305">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N305">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="O305">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P305">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q305">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R305">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S305">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U305">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V305">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W305">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z305">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB305">
         <v>-1</v>
       </c>
       <c r="AC305">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27702,7 +27702,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7750583</v>
+        <v>7750588</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27714,76 +27714,76 @@
         <v>45371.08333333334</v>
       </c>
       <c r="F306" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G306" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306">
         <v>0</v>
       </c>
       <c r="J306" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K306">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L306">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M306">
+        <v>4.75</v>
+      </c>
+      <c r="N306">
+        <v>1.666</v>
+      </c>
+      <c r="O306">
         <v>3.5</v>
       </c>
-      <c r="N306">
-        <v>2.1</v>
-      </c>
-      <c r="O306">
-        <v>3.3</v>
-      </c>
       <c r="P306">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q306">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R306">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S306">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T306">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U306">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V306">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W306">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X306">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
+        <v>0.4125</v>
+      </c>
+      <c r="AA306">
         <v>-0.5</v>
       </c>
-      <c r="AA306">
-        <v>0.5249999999999999</v>
-      </c>
       <c r="AB306">
         <v>-1</v>
       </c>
       <c r="AC306">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27791,7 +27791,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7750589</v>
+        <v>7750583</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27803,76 +27803,76 @@
         <v>45371.08333333334</v>
       </c>
       <c r="F307" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G307" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307">
         <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K307">
+        <v>1.909</v>
+      </c>
+      <c r="L307">
+        <v>3.4</v>
+      </c>
+      <c r="M307">
+        <v>3.5</v>
+      </c>
+      <c r="N307">
         <v>2.1</v>
       </c>
-      <c r="L307">
-        <v>3.2</v>
-      </c>
-      <c r="M307">
-        <v>3.2</v>
-      </c>
-      <c r="N307">
-        <v>2.375</v>
-      </c>
       <c r="O307">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P307">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q307">
         <v>-0.25</v>
       </c>
       <c r="R307">
+        <v>1.8</v>
+      </c>
+      <c r="S307">
+        <v>2.05</v>
+      </c>
+      <c r="T307">
+        <v>2.5</v>
+      </c>
+      <c r="U307">
         <v>2.025</v>
       </c>
-      <c r="S307">
+      <c r="V307">
         <v>1.825</v>
       </c>
-      <c r="T307">
-        <v>2.25</v>
-      </c>
-      <c r="U307">
-        <v>1.975</v>
-      </c>
-      <c r="V307">
-        <v>1.875</v>
-      </c>
       <c r="W307">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB307">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27880,7 +27880,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7750585</v>
+        <v>7750589</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27892,76 +27892,76 @@
         <v>45371.08333333334</v>
       </c>
       <c r="F308" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G308" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K308">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L308">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M308">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N308">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O308">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P308">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q308">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R308">
+        <v>2.025</v>
+      </c>
+      <c r="S308">
+        <v>1.825</v>
+      </c>
+      <c r="T308">
+        <v>2.25</v>
+      </c>
+      <c r="U308">
+        <v>1.975</v>
+      </c>
+      <c r="V308">
         <v>1.875</v>
       </c>
-      <c r="S308">
-        <v>1.975</v>
-      </c>
-      <c r="T308">
-        <v>2.75</v>
-      </c>
-      <c r="U308">
-        <v>1.85</v>
-      </c>
-      <c r="V308">
-        <v>2</v>
-      </c>
       <c r="W308">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X308">
         <v>-1</v>
       </c>
       <c r="Y308">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA308">
+        <v>-1</v>
+      </c>
+      <c r="AB308">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB308">
-        <v>-1</v>
-      </c>
       <c r="AC308">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28147,7 +28147,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7750587</v>
+        <v>7750586</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28159,76 +28159,76 @@
         <v>45371.08333333334</v>
       </c>
       <c r="F311" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G311" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H311">
         <v>1</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J311" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K311">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="L311">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M311">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N311">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O311">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P311">
-        <v>9.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q311">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R311">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S311">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T311">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U311">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V311">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W311">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X311">
         <v>-1</v>
       </c>
       <c r="Y311">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z311">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA311">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC311">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28236,7 +28236,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7750586</v>
+        <v>7750587</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28248,76 +28248,76 @@
         <v>45371.08333333334</v>
       </c>
       <c r="F312" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G312" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H312">
         <v>1</v>
       </c>
       <c r="I312">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J312" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K312">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="L312">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M312">
+        <v>5.75</v>
+      </c>
+      <c r="N312">
+        <v>1.4</v>
+      </c>
+      <c r="O312">
+        <v>4.5</v>
+      </c>
+      <c r="P312">
+        <v>9.5</v>
+      </c>
+      <c r="Q312">
+        <v>-1.25</v>
+      </c>
+      <c r="R312">
+        <v>1.925</v>
+      </c>
+      <c r="S312">
+        <v>1.925</v>
+      </c>
+      <c r="T312">
         <v>2.5</v>
       </c>
-      <c r="N312">
-        <v>3</v>
-      </c>
-      <c r="O312">
-        <v>3.5</v>
-      </c>
-      <c r="P312">
-        <v>2.3</v>
-      </c>
-      <c r="Q312">
-        <v>0.25</v>
-      </c>
-      <c r="R312">
+      <c r="U312">
+        <v>2.025</v>
+      </c>
+      <c r="V312">
         <v>1.825</v>
       </c>
-      <c r="S312">
-        <v>2.025</v>
-      </c>
-      <c r="T312">
-        <v>2.75</v>
-      </c>
-      <c r="U312">
-        <v>1.95</v>
-      </c>
-      <c r="V312">
-        <v>1.9</v>
-      </c>
       <c r="W312">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X312">
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z312">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA312">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AB312">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC312">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28503,7 +28503,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7750597</v>
+        <v>7750594</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28515,46 +28515,46 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F315" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G315" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K315">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="L315">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M315">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="N315">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="O315">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P315">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q315">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R315">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S315">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T315">
         <v>2.5</v>
@@ -28566,25 +28566,25 @@
         <v>1.925</v>
       </c>
       <c r="W315">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
+        <v>-1</v>
+      </c>
+      <c r="AC315">
         <v>0.925</v>
-      </c>
-      <c r="AC315">
-        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28592,7 +28592,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7750596</v>
+        <v>7750595</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28604,58 +28604,58 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F316" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G316" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H316">
+        <v>2</v>
+      </c>
+      <c r="I316">
         <v>1</v>
-      </c>
-      <c r="I316">
-        <v>0</v>
       </c>
       <c r="J316" t="s">
         <v>57</v>
       </c>
       <c r="K316">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L316">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M316">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N316">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O316">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P316">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q316">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R316">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S316">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T316">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U316">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V316">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W316">
-        <v>0.6499999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="X316">
         <v>-1</v>
@@ -28664,16 +28664,16 @@
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB316">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC316">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28681,7 +28681,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7750595</v>
+        <v>7750596</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28693,58 +28693,58 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G317" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
         <v>57</v>
       </c>
       <c r="K317">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="L317">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M317">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="N317">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O317">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P317">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q317">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R317">
+        <v>1.8</v>
+      </c>
+      <c r="S317">
+        <v>2.05</v>
+      </c>
+      <c r="T317">
+        <v>2.5</v>
+      </c>
+      <c r="U317">
+        <v>2.025</v>
+      </c>
+      <c r="V317">
         <v>1.825</v>
       </c>
-      <c r="S317">
-        <v>2.025</v>
-      </c>
-      <c r="T317">
-        <v>2</v>
-      </c>
-      <c r="U317">
-        <v>1.925</v>
-      </c>
-      <c r="V317">
-        <v>1.925</v>
-      </c>
       <c r="W317">
-        <v>2.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X317">
         <v>-1</v>
@@ -28753,16 +28753,16 @@
         <v>-1</v>
       </c>
       <c r="Z317">
+        <v>0.4</v>
+      </c>
+      <c r="AA317">
+        <v>-0.5</v>
+      </c>
+      <c r="AB317">
+        <v>-1</v>
+      </c>
+      <c r="AC317">
         <v>0.825</v>
-      </c>
-      <c r="AA317">
-        <v>-1</v>
-      </c>
-      <c r="AB317">
-        <v>0.925</v>
-      </c>
-      <c r="AC317">
-        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28770,7 +28770,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7750594</v>
+        <v>7750597</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28782,46 +28782,46 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F318" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G318" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K318">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="L318">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M318">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="N318">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="O318">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P318">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q318">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R318">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S318">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T318">
         <v>2.5</v>
@@ -28833,25 +28833,25 @@
         <v>1.925</v>
       </c>
       <c r="W318">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X318">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA318">
         <v>-1</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC318">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28859,7 +28859,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7750592</v>
+        <v>7750599</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28871,76 +28871,76 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G319" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H319">
         <v>0</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J319" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K319">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L319">
         <v>3.25</v>
       </c>
       <c r="M319">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N319">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O319">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P319">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="Q319">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R319">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S319">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T319">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U319">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V319">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC319">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28948,7 +28948,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7749881</v>
+        <v>7750592</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28960,76 +28960,76 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G320" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="s">
         <v>56</v>
       </c>
       <c r="K320">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L320">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M320">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N320">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O320">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P320">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q320">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R320">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S320">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T320">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V320">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W320">
         <v>-1</v>
       </c>
       <c r="X320">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB320">
         <v>-1</v>
       </c>
       <c r="AC320">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29037,7 +29037,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7750599</v>
+        <v>7750593</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29049,76 +29049,76 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F321" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="G321" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H321">
         <v>0</v>
       </c>
       <c r="I321">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K321">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L321">
         <v>3.25</v>
       </c>
       <c r="M321">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N321">
+        <v>2.2</v>
+      </c>
+      <c r="O321">
         <v>3.4</v>
       </c>
-      <c r="O321">
-        <v>3.5</v>
-      </c>
       <c r="P321">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="Q321">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R321">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S321">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T321">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U321">
+        <v>2.025</v>
+      </c>
+      <c r="V321">
         <v>1.825</v>
       </c>
-      <c r="V321">
-        <v>2.025</v>
-      </c>
       <c r="W321">
         <v>-1</v>
       </c>
       <c r="X321">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y321">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z321">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA321">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB321">
+        <v>-1</v>
+      </c>
+      <c r="AC321">
         <v>0.825</v>
-      </c>
-      <c r="AC321">
-        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29215,7 +29215,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7750593</v>
+        <v>7749881</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29227,55 +29227,55 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F323" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G323" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" t="s">
         <v>56</v>
       </c>
       <c r="K323">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L323">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M323">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N323">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O323">
         <v>3.4</v>
       </c>
       <c r="P323">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q323">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R323">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S323">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T323">
         <v>2.5</v>
       </c>
       <c r="U323">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V323">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -29287,16 +29287,16 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA323">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB323">
         <v>-1</v>
       </c>
       <c r="AC323">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29838,7 +29838,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7750605</v>
+        <v>7750604</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29850,55 +29850,55 @@
         <v>45381.08333333334</v>
       </c>
       <c r="F330" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G330" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J330" t="s">
         <v>55</v>
       </c>
       <c r="K330">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L330">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M330">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N330">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O330">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P330">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q330">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R330">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S330">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T330">
         <v>2.25</v>
       </c>
       <c r="U330">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V330">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W330">
         <v>-1</v>
@@ -29907,19 +29907,19 @@
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z330">
         <v>-1</v>
       </c>
       <c r="AA330">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC330">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29927,7 +29927,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7750604</v>
+        <v>7750605</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29939,55 +29939,55 @@
         <v>45381.08333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G331" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
         <v>1</v>
-      </c>
-      <c r="I331">
-        <v>2</v>
       </c>
       <c r="J331" t="s">
         <v>55</v>
       </c>
       <c r="K331">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L331">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M331">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N331">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O331">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P331">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q331">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R331">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S331">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T331">
         <v>2.25</v>
       </c>
       <c r="U331">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V331">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W331">
         <v>-1</v>
@@ -29996,19 +29996,19 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB331">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30276,6 +30276,376 @@
       </c>
       <c r="AC334">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="335" spans="1:29">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>7750621</v>
+      </c>
+      <c r="C335" t="s">
+        <v>28</v>
+      </c>
+      <c r="D335" t="s">
+        <v>28</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F335" t="s">
+        <v>49</v>
+      </c>
+      <c r="G335" t="s">
+        <v>30</v>
+      </c>
+      <c r="K335">
+        <v>3.1</v>
+      </c>
+      <c r="L335">
+        <v>2.9</v>
+      </c>
+      <c r="M335">
+        <v>2.3</v>
+      </c>
+      <c r="N335">
+        <v>3.1</v>
+      </c>
+      <c r="O335">
+        <v>3</v>
+      </c>
+      <c r="P335">
+        <v>2.375</v>
+      </c>
+      <c r="Q335">
+        <v>0.25</v>
+      </c>
+      <c r="R335">
+        <v>1.825</v>
+      </c>
+      <c r="S335">
+        <v>2.025</v>
+      </c>
+      <c r="T335">
+        <v>2</v>
+      </c>
+      <c r="U335">
+        <v>1.95</v>
+      </c>
+      <c r="V335">
+        <v>1.9</v>
+      </c>
+      <c r="W335">
+        <v>0</v>
+      </c>
+      <c r="X335">
+        <v>0</v>
+      </c>
+      <c r="Y335">
+        <v>0</v>
+      </c>
+      <c r="Z335">
+        <v>0</v>
+      </c>
+      <c r="AA335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>7750626</v>
+      </c>
+      <c r="C336" t="s">
+        <v>28</v>
+      </c>
+      <c r="D336" t="s">
+        <v>28</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F336" t="s">
+        <v>39</v>
+      </c>
+      <c r="G336" t="s">
+        <v>41</v>
+      </c>
+      <c r="K336">
+        <v>2.45</v>
+      </c>
+      <c r="L336">
+        <v>3</v>
+      </c>
+      <c r="M336">
+        <v>2.8</v>
+      </c>
+      <c r="N336">
+        <v>2.45</v>
+      </c>
+      <c r="O336">
+        <v>3.1</v>
+      </c>
+      <c r="P336">
+        <v>2.9</v>
+      </c>
+      <c r="Q336">
+        <v>0</v>
+      </c>
+      <c r="R336">
+        <v>1.75</v>
+      </c>
+      <c r="S336">
+        <v>2.125</v>
+      </c>
+      <c r="T336">
+        <v>2</v>
+      </c>
+      <c r="U336">
+        <v>1.975</v>
+      </c>
+      <c r="V336">
+        <v>1.875</v>
+      </c>
+      <c r="W336">
+        <v>0</v>
+      </c>
+      <c r="X336">
+        <v>0</v>
+      </c>
+      <c r="Y336">
+        <v>0</v>
+      </c>
+      <c r="Z336">
+        <v>0</v>
+      </c>
+      <c r="AA336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>7750625</v>
+      </c>
+      <c r="C337" t="s">
+        <v>28</v>
+      </c>
+      <c r="D337" t="s">
+        <v>28</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F337" t="s">
+        <v>45</v>
+      </c>
+      <c r="G337" t="s">
+        <v>36</v>
+      </c>
+      <c r="K337">
+        <v>4.2</v>
+      </c>
+      <c r="L337">
+        <v>3.3</v>
+      </c>
+      <c r="M337">
+        <v>1.8</v>
+      </c>
+      <c r="N337">
+        <v>4.5</v>
+      </c>
+      <c r="O337">
+        <v>3.4</v>
+      </c>
+      <c r="P337">
+        <v>1.75</v>
+      </c>
+      <c r="Q337">
+        <v>0.75</v>
+      </c>
+      <c r="R337">
+        <v>1.85</v>
+      </c>
+      <c r="S337">
+        <v>2</v>
+      </c>
+      <c r="T337">
+        <v>2.25</v>
+      </c>
+      <c r="U337">
+        <v>1.8</v>
+      </c>
+      <c r="V337">
+        <v>2.05</v>
+      </c>
+      <c r="W337">
+        <v>0</v>
+      </c>
+      <c r="X337">
+        <v>0</v>
+      </c>
+      <c r="Y337">
+        <v>0</v>
+      </c>
+      <c r="Z337">
+        <v>0</v>
+      </c>
+      <c r="AA337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>7750624</v>
+      </c>
+      <c r="C338" t="s">
+        <v>28</v>
+      </c>
+      <c r="D338" t="s">
+        <v>28</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F338" t="s">
+        <v>35</v>
+      </c>
+      <c r="G338" t="s">
+        <v>40</v>
+      </c>
+      <c r="K338">
+        <v>3.1</v>
+      </c>
+      <c r="L338">
+        <v>3.2</v>
+      </c>
+      <c r="M338">
+        <v>2.15</v>
+      </c>
+      <c r="N338">
+        <v>3.2</v>
+      </c>
+      <c r="O338">
+        <v>3.3</v>
+      </c>
+      <c r="P338">
+        <v>2.2</v>
+      </c>
+      <c r="Q338">
+        <v>0.25</v>
+      </c>
+      <c r="R338">
+        <v>1.9</v>
+      </c>
+      <c r="S338">
+        <v>1.95</v>
+      </c>
+      <c r="T338">
+        <v>2.5</v>
+      </c>
+      <c r="U338">
+        <v>2</v>
+      </c>
+      <c r="V338">
+        <v>1.85</v>
+      </c>
+      <c r="W338">
+        <v>0</v>
+      </c>
+      <c r="X338">
+        <v>0</v>
+      </c>
+      <c r="Y338">
+        <v>0</v>
+      </c>
+      <c r="Z338">
+        <v>0</v>
+      </c>
+      <c r="AA338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>7749884</v>
+      </c>
+      <c r="C339" t="s">
+        <v>28</v>
+      </c>
+      <c r="D339" t="s">
+        <v>28</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F339" t="s">
+        <v>43</v>
+      </c>
+      <c r="G339" t="s">
+        <v>50</v>
+      </c>
+      <c r="K339">
+        <v>3.2</v>
+      </c>
+      <c r="L339">
+        <v>3.3</v>
+      </c>
+      <c r="M339">
+        <v>2.1</v>
+      </c>
+      <c r="N339">
+        <v>3.1</v>
+      </c>
+      <c r="O339">
+        <v>3.4</v>
+      </c>
+      <c r="P339">
+        <v>2.2</v>
+      </c>
+      <c r="Q339">
+        <v>0.25</v>
+      </c>
+      <c r="R339">
+        <v>1.95</v>
+      </c>
+      <c r="S339">
+        <v>1.9</v>
+      </c>
+      <c r="T339">
+        <v>2.5</v>
+      </c>
+      <c r="U339">
+        <v>1.925</v>
+      </c>
+      <c r="V339">
+        <v>1.925</v>
+      </c>
+      <c r="W339">
+        <v>0</v>
+      </c>
+      <c r="X339">
+        <v>0</v>
+      </c>
+      <c r="Y339">
+        <v>0</v>
+      </c>
+      <c r="Z339">
+        <v>0</v>
+      </c>
+      <c r="AA339">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Japan J2League/Japan J2League.xlsx
+++ b/Japan J2League/Japan J2League.xlsx
@@ -109,13 +109,13 @@
     <t>Montedio Yamagata</t>
   </si>
   <si>
+    <t>Omiya Ardija</t>
+  </si>
+  <si>
     <t>Zweigen Kanazawa</t>
   </si>
   <si>
     <t>Renofa Yamaguchi</t>
-  </si>
-  <si>
-    <t>Omiya Ardija</t>
   </si>
   <si>
     <t>Jubilo Iwata</t>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6189108</v>
+        <v>6189107</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -839,73 +839,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P4">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6189110</v>
+        <v>6189108</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -928,7 +928,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -940,61 +940,61 @@
         <v>57</v>
       </c>
       <c r="K5">
+        <v>2.25</v>
+      </c>
+      <c r="L5">
+        <v>3.2</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>2.15</v>
+      </c>
+      <c r="O5">
         <v>3.5</v>
       </c>
-      <c r="L5">
+      <c r="P5">
         <v>3.25</v>
       </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>3.3</v>
-      </c>
-      <c r="O5">
-        <v>3.3</v>
-      </c>
-      <c r="P5">
-        <v>2.15</v>
-      </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6189107</v>
+        <v>6189110</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1017,73 +1017,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L6">
+        <v>3.25</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
         <v>3.3</v>
       </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>2.2</v>
-      </c>
       <c r="O6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
         <v>1.9</v>
       </c>
-      <c r="S6">
-        <v>1.95</v>
-      </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA6">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1729,7 +1729,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2260,7 +2260,7 @@
         <v>45088.25</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
@@ -2426,7 +2426,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6189125</v>
+        <v>6189126</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2438,55 +2438,55 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>55</v>
       </c>
       <c r="K22">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="N22">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="O22">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P22">
+        <v>1.727</v>
+      </c>
+      <c r="Q22">
+        <v>0.75</v>
+      </c>
+      <c r="R22">
+        <v>1.925</v>
+      </c>
+      <c r="S22">
+        <v>1.925</v>
+      </c>
+      <c r="T22">
         <v>3</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>1.85</v>
-      </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2495,19 +2495,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2515,7 +2515,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6189126</v>
+        <v>6189125</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2527,55 +2527,55 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
         <v>55</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M23">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="N23">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2584,19 +2584,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.7270000000000001</v>
+        <v>2</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2705,7 +2705,7 @@
         <v>45094.25</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>44</v>
@@ -2975,7 +2975,7 @@
         <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3061,7 +3061,7 @@
         <v>45095.08333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -3595,7 +3595,7 @@
         <v>45101.25</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3687,7 +3687,7 @@
         <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4562,7 +4562,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6189150</v>
+        <v>6189149</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4574,10 +4574,10 @@
         <v>45108.25</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4589,34 +4589,34 @@
         <v>56</v>
       </c>
       <c r="K46">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L46">
+        <v>3.8</v>
+      </c>
+      <c r="M46">
+        <v>5.25</v>
+      </c>
+      <c r="N46">
+        <v>1.75</v>
+      </c>
+      <c r="O46">
         <v>3.6</v>
       </c>
-      <c r="M46">
-        <v>5.75</v>
-      </c>
-      <c r="N46">
-        <v>1.363</v>
-      </c>
-      <c r="O46">
+      <c r="P46">
         <v>4.75</v>
       </c>
-      <c r="P46">
-        <v>8.5</v>
-      </c>
       <c r="Q46">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
         <v>2</v>
@@ -4625,7 +4625,7 @@
         <v>1.85</v>
       </c>
       <c r="W46">
-        <v>0.363</v>
+        <v>0.75</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4634,10 +4634,10 @@
         <v>-1</v>
       </c>
       <c r="Z46">
+        <v>0.5125</v>
+      </c>
+      <c r="AA46">
         <v>-0.5</v>
-      </c>
-      <c r="AA46">
-        <v>0.4875</v>
       </c>
       <c r="AB46">
         <v>1</v>
@@ -4651,7 +4651,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6189149</v>
+        <v>6189150</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4663,10 +4663,10 @@
         <v>45108.25</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -4678,34 +4678,34 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L47">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O47">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R47">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>2</v>
@@ -4714,7 +4714,7 @@
         <v>1.85</v>
       </c>
       <c r="W47">
-        <v>0.75</v>
+        <v>0.363</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4723,10 +4723,10 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB47">
         <v>1</v>
@@ -4829,7 +4829,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6189153</v>
+        <v>6189155</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4841,76 +4841,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K49">
         <v>2</v>
       </c>
       <c r="L49">
+        <v>3.25</v>
+      </c>
+      <c r="M49">
         <v>3.5</v>
       </c>
-      <c r="M49">
-        <v>3.6</v>
-      </c>
       <c r="N49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O49">
         <v>3.5</v>
       </c>
       <c r="P49">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X49">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4918,7 +4918,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6189151</v>
+        <v>6189154</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4930,76 +4930,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K50">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L50">
         <v>3.3</v>
       </c>
       <c r="M50">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N50">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P50">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S50">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5019,7 +5019,7 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
         <v>49</v>
@@ -5096,7 +5096,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6189154</v>
+        <v>6189151</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5108,76 +5108,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K52">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L52">
         <v>3.3</v>
       </c>
       <c r="M52">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N52">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O52">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X52">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5185,7 +5185,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6189155</v>
+        <v>6189153</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5197,76 +5197,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K53">
         <v>2</v>
       </c>
       <c r="L53">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O53">
         <v>3.5</v>
       </c>
       <c r="P53">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>2.5</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
+        <v>0.825</v>
+      </c>
+      <c r="AB53">
+        <v>-1</v>
+      </c>
+      <c r="AC53">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>0.875</v>
-      </c>
-      <c r="AA53">
-        <v>-1</v>
-      </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
-      <c r="AC53">
-        <v>0.925</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5553,7 +5553,7 @@
         <v>45112.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>
@@ -5630,7 +5630,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6189172</v>
+        <v>6189162</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5642,73 +5642,73 @@
         <v>45112.29166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L58">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N58">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O58">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P58">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5719,7 +5719,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6189161</v>
+        <v>6189172</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5731,76 +5731,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K59">
+        <v>1.909</v>
+      </c>
+      <c r="L59">
+        <v>3.3</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
         <v>2.25</v>
       </c>
-      <c r="L59">
-        <v>2.875</v>
-      </c>
-      <c r="M59">
+      <c r="O59">
         <v>3.4</v>
       </c>
-      <c r="N59">
-        <v>2.45</v>
-      </c>
-      <c r="O59">
-        <v>2.9</v>
-      </c>
       <c r="P59">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q59">
         <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z59">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5808,7 +5808,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6189162</v>
+        <v>6189161</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5820,58 +5820,58 @@
         <v>45112.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>56</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L60">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M60">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N60">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O60">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P60">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q60">
         <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U60">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5880,16 +5880,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5897,7 +5897,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6189163</v>
+        <v>6189160</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5909,76 +5909,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K61">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M61">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N61">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O61">
         <v>3.8</v>
       </c>
       <c r="P61">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="Q61">
         <v>0.75</v>
       </c>
       <c r="R61">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5986,7 +5986,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6189160</v>
+        <v>6189163</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5998,76 +5998,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K62">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N62">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O62">
         <v>3.8</v>
       </c>
       <c r="P62">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q62">
         <v>0.75</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y62">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6075,7 +6075,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6189170</v>
+        <v>6189165</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6087,34 +6087,34 @@
         <v>45112.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L63">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N63">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
         <v>5.25</v>
@@ -6123,37 +6123,37 @@
         <v>-0.75</v>
       </c>
       <c r="R63">
+        <v>1.9</v>
+      </c>
+      <c r="S63">
+        <v>1.95</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
         <v>2.05</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.8</v>
       </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
       <c r="W63">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
+        <v>0.95</v>
+      </c>
+      <c r="AB63">
         <v>1.05</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>0.875</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6164,7 +6164,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6189171</v>
+        <v>6189170</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6176,13 +6176,13 @@
         <v>45112.29166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -6191,19 +6191,19 @@
         <v>56</v>
       </c>
       <c r="K64">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L64">
+        <v>3.1</v>
+      </c>
+      <c r="M64">
         <v>3.8</v>
       </c>
-      <c r="M64">
-        <v>6</v>
-      </c>
       <c r="N64">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
         <v>5.25</v>
@@ -6212,22 +6212,22 @@
         <v>-0.75</v>
       </c>
       <c r="R64">
+        <v>2.05</v>
+      </c>
+      <c r="S64">
         <v>1.8</v>
       </c>
-      <c r="S64">
-        <v>2.05</v>
-      </c>
       <c r="T64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U64">
+        <v>1.875</v>
+      </c>
+      <c r="V64">
         <v>1.975</v>
       </c>
-      <c r="V64">
-        <v>1.875</v>
-      </c>
       <c r="W64">
-        <v>0.615</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6236,16 +6236,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC64">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6253,7 +6253,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6189165</v>
+        <v>6189173</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6265,76 +6265,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K65">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="L65">
         <v>3.2</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N65">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="O65">
         <v>3.6</v>
       </c>
       <c r="P65">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q65">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
         <v>2.5</v>
       </c>
       <c r="U65">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6342,7 +6342,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6189173</v>
+        <v>6189174</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6354,76 +6354,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66" t="s">
+        <v>55</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>2.4</v>
+      </c>
+      <c r="N66">
+        <v>3.75</v>
+      </c>
+      <c r="O66">
+        <v>2.875</v>
+      </c>
+      <c r="P66">
+        <v>2.3</v>
+      </c>
+      <c r="Q66">
+        <v>0.25</v>
+      </c>
+      <c r="R66">
+        <v>1.925</v>
+      </c>
+      <c r="S66">
+        <v>1.925</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66">
+        <v>1.85</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>1.3</v>
+      </c>
+      <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
+        <v>0.925</v>
+      </c>
+      <c r="AB66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" t="s">
-        <v>56</v>
-      </c>
-      <c r="K66">
-        <v>3.2</v>
-      </c>
-      <c r="L66">
-        <v>3.2</v>
-      </c>
-      <c r="M66">
-        <v>2.2</v>
-      </c>
-      <c r="N66">
-        <v>3.8</v>
-      </c>
-      <c r="O66">
-        <v>3.6</v>
-      </c>
-      <c r="P66">
-        <v>1.95</v>
-      </c>
-      <c r="Q66">
-        <v>0.5</v>
-      </c>
-      <c r="R66">
-        <v>1.875</v>
-      </c>
-      <c r="S66">
-        <v>1.975</v>
-      </c>
-      <c r="T66">
-        <v>2.5</v>
-      </c>
-      <c r="U66">
-        <v>1.825</v>
-      </c>
-      <c r="V66">
-        <v>2.025</v>
-      </c>
-      <c r="W66">
-        <v>2.8</v>
-      </c>
-      <c r="X66">
-        <v>-1</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
-      <c r="Z66">
-        <v>0.875</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
       <c r="AC66">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6431,7 +6431,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6189174</v>
+        <v>6189171</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6443,76 +6443,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>56</v>
+      </c>
+      <c r="K67">
+        <v>1.5</v>
+      </c>
+      <c r="L67">
+        <v>3.8</v>
+      </c>
+      <c r="M67">
+        <v>6</v>
+      </c>
+      <c r="N67">
+        <v>1.615</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+      <c r="P67">
+        <v>5.25</v>
+      </c>
+      <c r="Q67">
+        <v>-0.75</v>
+      </c>
+      <c r="R67">
+        <v>1.8</v>
+      </c>
+      <c r="S67">
+        <v>2.05</v>
+      </c>
+      <c r="T67">
         <v>3</v>
       </c>
-      <c r="J67" t="s">
-        <v>55</v>
-      </c>
-      <c r="K67">
-        <v>3</v>
-      </c>
-      <c r="L67">
-        <v>3</v>
-      </c>
-      <c r="M67">
-        <v>2.4</v>
-      </c>
-      <c r="N67">
-        <v>3.75</v>
-      </c>
-      <c r="O67">
-        <v>2.875</v>
-      </c>
-      <c r="P67">
-        <v>2.3</v>
-      </c>
-      <c r="Q67">
-        <v>0.25</v>
-      </c>
-      <c r="R67">
-        <v>1.925</v>
-      </c>
-      <c r="S67">
-        <v>1.925</v>
-      </c>
-      <c r="T67">
-        <v>2</v>
-      </c>
       <c r="U67">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA67">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6698,7 +6698,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6189180</v>
+        <v>6189179</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6710,55 +6710,55 @@
         <v>45116.25</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J70" t="s">
         <v>55</v>
       </c>
       <c r="K70">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="L70">
+        <v>3.3</v>
+      </c>
+      <c r="M70">
+        <v>2.375</v>
+      </c>
+      <c r="N70">
+        <v>2.625</v>
+      </c>
+      <c r="O70">
         <v>3.5</v>
       </c>
-      <c r="M70">
-        <v>4.333</v>
-      </c>
-      <c r="N70">
-        <v>2.5</v>
-      </c>
-      <c r="O70">
-        <v>3.25</v>
-      </c>
       <c r="P70">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6767,19 +6767,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6787,7 +6787,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6189179</v>
+        <v>6189178</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6799,49 +6799,49 @@
         <v>45116.25</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K71">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L71">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N71">
         <v>2.625</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P71">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U71">
         <v>1.85</v>
@@ -6853,16 +6853,16 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y71">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
         <v>0.8500000000000001</v>
@@ -6876,7 +6876,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6189178</v>
+        <v>6189175</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6888,76 +6888,76 @@
         <v>45116.25</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>57</v>
       </c>
       <c r="K72">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L72">
         <v>3</v>
       </c>
       <c r="M72">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N72">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="O72">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
+        <v>1.925</v>
+      </c>
+      <c r="T72">
+        <v>2</v>
+      </c>
+      <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
+        <v>1.9</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
         <v>2.1</v>
       </c>
-      <c r="T72">
-        <v>1.75</v>
-      </c>
-      <c r="U72">
-        <v>1.85</v>
-      </c>
-      <c r="V72">
-        <v>2</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>1.9</v>
-      </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA72">
+        <v>-0.5</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
         <v>-0</v>
-      </c>
-      <c r="AB72">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC72">
-        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6965,7 +6965,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6189175</v>
+        <v>6189180</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6977,76 +6977,76 @@
         <v>45116.25</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K73">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N73">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O73">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P73">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V73">
+        <v>1.85</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
         <v>1.9</v>
       </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>2.1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
       <c r="Z73">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7158,7 +7158,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7247,7 +7247,7 @@
         <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7600,7 +7600,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
         <v>29</v>
@@ -8045,7 +8045,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>49</v>
@@ -8312,7 +8312,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
         <v>40</v>
@@ -8582,7 +8582,7 @@
         <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -9027,7 +9027,7 @@
         <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9368,7 +9368,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6189213</v>
+        <v>6189208</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9380,76 +9380,76 @@
         <v>45136.25</v>
       </c>
       <c r="F100" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K100">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="L100">
+        <v>3.2</v>
+      </c>
+      <c r="M100">
         <v>3.6</v>
       </c>
-      <c r="M100">
-        <v>5.25</v>
-      </c>
       <c r="N100">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U100">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9457,7 +9457,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6189208</v>
+        <v>6189213</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9469,76 +9469,76 @@
         <v>45136.25</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K101">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M101">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="N101">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="O101">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q101">
+        <v>-0.75</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>2.05</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
+        <v>1.825</v>
+      </c>
+      <c r="W101">
+        <v>0.615</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
+        <v>-1</v>
+      </c>
+      <c r="Z101">
+        <v>0.4</v>
+      </c>
+      <c r="AA101">
         <v>-0.5</v>
       </c>
-      <c r="R101">
-        <v>1.9</v>
-      </c>
-      <c r="S101">
-        <v>1.95</v>
-      </c>
-      <c r="T101">
-        <v>2</v>
-      </c>
-      <c r="U101">
-        <v>1.975</v>
-      </c>
-      <c r="V101">
-        <v>1.875</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>2.1</v>
-      </c>
-      <c r="Y101">
-        <v>-1</v>
-      </c>
-      <c r="Z101">
-        <v>-1</v>
-      </c>
-      <c r="AA101">
-        <v>0.95</v>
-      </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9724,7 +9724,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6189211</v>
+        <v>6189209</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9736,76 +9736,76 @@
         <v>45136.25</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="L104">
+        <v>3.8</v>
+      </c>
+      <c r="M104">
+        <v>1.75</v>
+      </c>
+      <c r="N104">
+        <v>3.25</v>
+      </c>
+      <c r="O104">
         <v>3.6</v>
       </c>
-      <c r="M104">
-        <v>4.333</v>
-      </c>
-      <c r="N104">
-        <v>1.615</v>
-      </c>
-      <c r="O104">
-        <v>3.8</v>
-      </c>
       <c r="P104">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9813,7 +9813,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6189209</v>
+        <v>6189211</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9825,76 +9825,76 @@
         <v>45136.25</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K105">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
+        <v>3.6</v>
+      </c>
+      <c r="M105">
+        <v>4.333</v>
+      </c>
+      <c r="N105">
+        <v>1.615</v>
+      </c>
+      <c r="O105">
         <v>3.8</v>
       </c>
-      <c r="M105">
-        <v>1.75</v>
-      </c>
-      <c r="N105">
-        <v>3.25</v>
-      </c>
-      <c r="O105">
-        <v>3.6</v>
-      </c>
       <c r="P105">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
+        <v>1.8</v>
+      </c>
+      <c r="S105">
+        <v>2.05</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
         <v>1.925</v>
       </c>
-      <c r="S105">
+      <c r="V105">
         <v>1.925</v>
       </c>
-      <c r="T105">
-        <v>2.75</v>
-      </c>
-      <c r="U105">
-        <v>1.975</v>
-      </c>
-      <c r="V105">
-        <v>1.875</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y105">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
+        <v>1.05</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.925</v>
-      </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
-      <c r="AC105">
-        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10006,7 +10006,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10270,10 +10270,10 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F110" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s">
         <v>31</v>
-      </c>
-      <c r="G110" t="s">
-        <v>33</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10804,7 +10804,7 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>38</v>
@@ -10982,7 +10982,7 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>41</v>
@@ -11326,7 +11326,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6189230</v>
+        <v>6189232</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11338,76 +11338,76 @@
         <v>45150.25</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G122" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>56</v>
+      </c>
+      <c r="K122">
+        <v>1.3</v>
+      </c>
+      <c r="L122">
+        <v>5</v>
+      </c>
+      <c r="M122">
+        <v>8</v>
+      </c>
+      <c r="N122">
+        <v>1.333</v>
+      </c>
+      <c r="O122">
+        <v>5.75</v>
+      </c>
+      <c r="P122">
+        <v>8.5</v>
+      </c>
+      <c r="Q122">
+        <v>-1.5</v>
+      </c>
+      <c r="R122">
+        <v>1.875</v>
+      </c>
+      <c r="S122">
+        <v>1.975</v>
+      </c>
+      <c r="T122">
         <v>3</v>
       </c>
-      <c r="I122">
-        <v>3</v>
-      </c>
-      <c r="J122" t="s">
-        <v>57</v>
-      </c>
-      <c r="K122">
-        <v>2.3</v>
-      </c>
-      <c r="L122">
-        <v>3.25</v>
-      </c>
-      <c r="M122">
-        <v>2.9</v>
-      </c>
-      <c r="N122">
-        <v>2.55</v>
-      </c>
-      <c r="O122">
-        <v>3.25</v>
-      </c>
-      <c r="P122">
-        <v>2.8</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
-        <v>1.85</v>
-      </c>
-      <c r="S122">
-        <v>2</v>
-      </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
       <c r="U122">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X122">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11415,7 +11415,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6189232</v>
+        <v>6189230</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11427,76 +11427,76 @@
         <v>45150.25</v>
       </c>
       <c r="F123" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K123">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L123">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="N123">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="O123">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="P123">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q123">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11694,7 +11694,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>47</v>
@@ -11860,7 +11860,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6189237</v>
+        <v>6189236</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11872,49 +11872,49 @@
         <v>45151.25</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K128">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M128">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N128">
+        <v>3.4</v>
+      </c>
+      <c r="O128">
+        <v>3.1</v>
+      </c>
+      <c r="P128">
         <v>2.25</v>
       </c>
-      <c r="O128">
-        <v>3.4</v>
-      </c>
-      <c r="P128">
-        <v>3.2</v>
-      </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
+        <v>1.875</v>
+      </c>
+      <c r="S128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U128">
         <v>1.875</v>
@@ -11926,16 +11926,16 @@
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB128">
         <v>-1</v>
@@ -11949,7 +11949,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6189236</v>
+        <v>6189237</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11961,49 +11961,49 @@
         <v>45151.25</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K129">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="L129">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N129">
+        <v>2.25</v>
+      </c>
+      <c r="O129">
         <v>3.4</v>
       </c>
-      <c r="O129">
-        <v>3.1</v>
-      </c>
       <c r="P129">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
         <v>1.875</v>
       </c>
-      <c r="S129">
-        <v>1.975</v>
-      </c>
       <c r="T129">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
         <v>1.875</v>
@@ -12015,16 +12015,16 @@
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y129">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -12228,7 +12228,7 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -12394,7 +12394,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6291573</v>
+        <v>6291572</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12406,76 +12406,76 @@
         <v>45157.25</v>
       </c>
       <c r="F134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K134">
+        <v>2.45</v>
+      </c>
+      <c r="L134">
+        <v>2.9</v>
+      </c>
+      <c r="M134">
+        <v>2.8</v>
+      </c>
+      <c r="N134">
+        <v>2.5</v>
+      </c>
+      <c r="O134">
         <v>3.1</v>
       </c>
-      <c r="L134">
-        <v>3.3</v>
-      </c>
-      <c r="M134">
+      <c r="P134">
+        <v>3.1</v>
+      </c>
+      <c r="Q134">
+        <v>-0.25</v>
+      </c>
+      <c r="R134">
+        <v>2.075</v>
+      </c>
+      <c r="S134">
+        <v>1.725</v>
+      </c>
+      <c r="T134">
+        <v>2</v>
+      </c>
+      <c r="U134">
+        <v>2.05</v>
+      </c>
+      <c r="V134">
+        <v>1.8</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
         <v>2.1</v>
       </c>
-      <c r="N134">
-        <v>4.333</v>
-      </c>
-      <c r="O134">
-        <v>3.6</v>
-      </c>
-      <c r="P134">
-        <v>1.833</v>
-      </c>
-      <c r="Q134">
-        <v>0.75</v>
-      </c>
-      <c r="R134">
-        <v>1.8</v>
-      </c>
-      <c r="S134">
-        <v>2.05</v>
-      </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>1.85</v>
-      </c>
-      <c r="V134">
-        <v>2</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>-1</v>
-      </c>
       <c r="Y134">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
         <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>0.5249999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12483,7 +12483,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6291572</v>
+        <v>6291567</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12495,76 +12495,76 @@
         <v>45157.25</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
         <v>57</v>
       </c>
       <c r="K135">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="L135">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M135">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O135">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>0.4</v>
+      </c>
+      <c r="AA135">
         <v>-0.5</v>
       </c>
-      <c r="AA135">
-        <v>0.3625</v>
-      </c>
       <c r="AB135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12572,7 +12572,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6291567</v>
+        <v>6291573</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12584,40 +12584,40 @@
         <v>45157.25</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K136">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L136">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R136">
         <v>1.8</v>
@@ -12626,34 +12626,34 @@
         <v>2.05</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z136">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12943,7 +12943,7 @@
         <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13121,7 +13121,7 @@
         <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13563,7 +13563,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13741,7 +13741,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>43</v>
@@ -13830,7 +13830,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>48</v>
@@ -14186,7 +14186,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
         <v>39</v>
@@ -14720,7 +14720,7 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
         <v>44</v>
@@ -14812,7 +14812,7 @@
         <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15079,7 +15079,7 @@
         <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15346,7 +15346,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15524,7 +15524,7 @@
         <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -16411,7 +16411,7 @@
         <v>45185.25</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
         <v>47</v>
@@ -16681,7 +16681,7 @@
         <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16856,7 +16856,7 @@
         <v>45186.25</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G184" t="s">
         <v>50</v>
@@ -17304,7 +17304,7 @@
         <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17479,7 +17479,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
         <v>46</v>
@@ -17838,7 +17838,7 @@
         <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18372,7 +18372,7 @@
         <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18903,10 +18903,10 @@
         <v>45200.08333333334</v>
       </c>
       <c r="F207" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207" t="s">
         <v>32</v>
-      </c>
-      <c r="G207" t="s">
-        <v>31</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19081,10 +19081,10 @@
         <v>45206.08333333334</v>
       </c>
       <c r="F209" t="s">
+        <v>31</v>
+      </c>
+      <c r="G209" t="s">
         <v>33</v>
-      </c>
-      <c r="G209" t="s">
-        <v>32</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -19425,7 +19425,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6516517</v>
+        <v>6516608</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19437,76 +19437,76 @@
         <v>45207.08333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K213">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L213">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M213">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N213">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O213">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P213">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S213">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB213">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19603,7 +19603,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6516608</v>
+        <v>6516619</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19615,76 +19615,76 @@
         <v>45207.08333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K215">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L215">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N215">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O215">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA215">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19692,7 +19692,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6516619</v>
+        <v>6516516</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19704,76 +19704,76 @@
         <v>45207.08333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K216">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L216">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M216">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N216">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O216">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P216">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W216">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19781,7 +19781,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6516516</v>
+        <v>6516517</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19793,61 +19793,61 @@
         <v>45207.08333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G217" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
         <v>57</v>
       </c>
       <c r="K217">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L217">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M217">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N217">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="O217">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P217">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T217">
         <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V217">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y217">
         <v>-1</v>
@@ -19856,13 +19856,13 @@
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC217">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20327,7 +20327,7 @@
         <v>45221.02083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
         <v>37</v>
@@ -20505,7 +20505,7 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G225" t="s">
         <v>30</v>
@@ -20864,7 +20864,7 @@
         <v>35</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21220,7 +21220,7 @@
         <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21754,7 +21754,7 @@
         <v>42</v>
       </c>
       <c r="G239" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -21929,7 +21929,7 @@
         <v>45228.08333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
         <v>45</v>
@@ -22196,7 +22196,7 @@
         <v>45234.07986111111</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G244" t="s">
         <v>38</v>
@@ -22555,7 +22555,7 @@
         <v>50</v>
       </c>
       <c r="G248" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H248">
         <v>4</v>
@@ -22730,7 +22730,7 @@
         <v>45235.04513888889</v>
       </c>
       <c r="F250" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G250" t="s">
         <v>42</v>
@@ -23086,7 +23086,7 @@
         <v>45242.04166666666</v>
       </c>
       <c r="F254" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G254" t="s">
         <v>39</v>
@@ -23534,7 +23534,7 @@
         <v>47</v>
       </c>
       <c r="G259" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H259">
         <v>3</v>
@@ -23798,7 +23798,7 @@
         <v>45242.04166666666</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G262" t="s">
         <v>37</v>
@@ -24157,7 +24157,7 @@
         <v>51</v>
       </c>
       <c r="G266" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -25032,7 +25032,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7750558</v>
+        <v>7750557</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25044,13 +25044,13 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F276" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G276" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -25059,43 +25059,43 @@
         <v>56</v>
       </c>
       <c r="K276">
-        <v>1.363</v>
+        <v>1.6</v>
       </c>
       <c r="L276">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M276">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N276">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O276">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P276">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q276">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R276">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S276">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T276">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U276">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V276">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W276">
-        <v>0.5</v>
+        <v>0.615</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25104,16 +25104,16 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA276">
         <v>-1</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC276">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7750557</v>
+        <v>7750558</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25133,13 +25133,13 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F277" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G277" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H277">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -25148,43 +25148,43 @@
         <v>56</v>
       </c>
       <c r="K277">
-        <v>1.6</v>
+        <v>1.363</v>
       </c>
       <c r="L277">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M277">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N277">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O277">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P277">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q277">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R277">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S277">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U277">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V277">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W277">
-        <v>0.615</v>
+        <v>0.5</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25193,16 +25193,16 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA277">
         <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25667,7 +25667,7 @@
         <v>45354.04166666666</v>
       </c>
       <c r="F283" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G283" t="s">
         <v>41</v>
@@ -26293,7 +26293,7 @@
         <v>37</v>
       </c>
       <c r="G290" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26723,7 +26723,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7750579</v>
+        <v>7749879</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26735,10 +26735,10 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F295" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G295" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H295">
         <v>0</v>
@@ -26750,40 +26750,40 @@
         <v>55</v>
       </c>
       <c r="K295">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L295">
+        <v>3.2</v>
+      </c>
+      <c r="M295">
+        <v>2.55</v>
+      </c>
+      <c r="N295">
+        <v>2.8</v>
+      </c>
+      <c r="O295">
         <v>3.3</v>
       </c>
-      <c r="M295">
-        <v>2.15</v>
-      </c>
-      <c r="N295">
-        <v>4.333</v>
-      </c>
-      <c r="O295">
-        <v>3.6</v>
-      </c>
       <c r="P295">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="Q295">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R295">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S295">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T295">
         <v>2.5</v>
       </c>
       <c r="U295">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V295">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -26792,19 +26792,19 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>0.833</v>
+        <v>1.55</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB295">
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26812,7 +26812,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7749879</v>
+        <v>7750574</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26824,76 +26824,76 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G296" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H296">
         <v>0</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K296">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="L296">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M296">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N296">
         <v>2.8</v>
       </c>
       <c r="O296">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P296">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q296">
         <v>0</v>
       </c>
       <c r="R296">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S296">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T296">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U296">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V296">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W296">
         <v>-1</v>
       </c>
       <c r="X296">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y296">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA296">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB296">
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26901,7 +26901,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7750574</v>
+        <v>7750579</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26913,76 +26913,76 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G297" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H297">
         <v>0</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K297">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="L297">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M297">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N297">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="O297">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P297">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="Q297">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R297">
+        <v>2.025</v>
+      </c>
+      <c r="S297">
+        <v>1.825</v>
+      </c>
+      <c r="T297">
+        <v>2.5</v>
+      </c>
+      <c r="U297">
         <v>1.925</v>
       </c>
-      <c r="S297">
+      <c r="V297">
         <v>1.925</v>
       </c>
-      <c r="T297">
-        <v>2</v>
-      </c>
-      <c r="U297">
-        <v>2.05</v>
-      </c>
-      <c r="V297">
-        <v>1.8</v>
-      </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z297">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB297">
         <v>-1</v>
       </c>
       <c r="AC297">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27536,7 +27536,7 @@
         <v>45368.05208333334</v>
       </c>
       <c r="F304" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G304" t="s">
         <v>48</v>
@@ -28429,7 +28429,7 @@
         <v>43</v>
       </c>
       <c r="G314" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -29227,7 +29227,7 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F323" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G323" t="s">
         <v>52</v>
@@ -29408,7 +29408,7 @@
         <v>45</v>
       </c>
       <c r="G325" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H325">
         <v>0</v>
@@ -29482,7 +29482,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7750603</v>
+        <v>7750604</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29494,76 +29494,76 @@
         <v>45381.08333333334</v>
       </c>
       <c r="F326" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G326" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J326" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K326">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L326">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M326">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N326">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O326">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P326">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q326">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R326">
+        <v>1.95</v>
+      </c>
+      <c r="S326">
         <v>1.9</v>
-      </c>
-      <c r="S326">
-        <v>1.95</v>
       </c>
       <c r="T326">
         <v>2.25</v>
       </c>
       <c r="U326">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V326">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W326">
         <v>-1</v>
       </c>
       <c r="X326">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y326">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC326">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29660,7 +29660,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7750601</v>
+        <v>7750606</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29672,76 +29672,76 @@
         <v>45381.08333333334</v>
       </c>
       <c r="F328" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G328" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328">
         <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K328">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L328">
         <v>3</v>
       </c>
       <c r="M328">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N328">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="O328">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P328">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q328">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R328">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S328">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T328">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U328">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V328">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W328">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X328">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.7250000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AA328">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB328">
         <v>-1</v>
       </c>
       <c r="AC328">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29838,7 +29838,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7750604</v>
+        <v>7750603</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29850,76 +29850,76 @@
         <v>45381.08333333334</v>
       </c>
       <c r="F330" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G330" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J330" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K330">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L330">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M330">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N330">
+        <v>2.7</v>
+      </c>
+      <c r="O330">
+        <v>3.1</v>
+      </c>
+      <c r="P330">
+        <v>2.8</v>
+      </c>
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <v>1.9</v>
+      </c>
+      <c r="S330">
         <v>1.95</v>
-      </c>
-      <c r="O330">
-        <v>3.4</v>
-      </c>
-      <c r="P330">
-        <v>4.2</v>
-      </c>
-      <c r="Q330">
-        <v>-0.5</v>
-      </c>
-      <c r="R330">
-        <v>1.95</v>
-      </c>
-      <c r="S330">
-        <v>1.9</v>
       </c>
       <c r="T330">
         <v>2.25</v>
       </c>
       <c r="U330">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V330">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W330">
         <v>-1</v>
       </c>
       <c r="X330">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y330">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z330">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA330">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB330">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29927,7 +29927,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7750606</v>
+        <v>7750601</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29939,76 +29939,76 @@
         <v>45381.08333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G331" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331">
         <v>0</v>
       </c>
       <c r="J331" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K331">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L331">
         <v>3</v>
       </c>
       <c r="M331">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N331">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="O331">
+        <v>3.1</v>
+      </c>
+      <c r="P331">
         <v>3.2</v>
       </c>
-      <c r="P331">
-        <v>2.25</v>
-      </c>
       <c r="Q331">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R331">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S331">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T331">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U331">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V331">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W331">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X331">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>0.475</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA331">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB331">
         <v>-1</v>
       </c>
       <c r="AC331">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30639,7 +30639,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7750614</v>
+        <v>7750615</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30651,34 +30651,34 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F339" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G339" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H339">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J339" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K339">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="L339">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M339">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="N339">
         <v>1.615</v>
       </c>
       <c r="O339">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P339">
         <v>6</v>
@@ -30687,40 +30687,40 @@
         <v>-0.75</v>
       </c>
       <c r="R339">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S339">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T339">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U339">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V339">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W339">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X339">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y339">
         <v>-1</v>
       </c>
       <c r="Z339">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA339">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB339">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC339">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30728,7 +30728,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7750615</v>
+        <v>7750612</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30740,76 +30740,76 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F340" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G340" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J340" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K340">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L340">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M340">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N340">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="O340">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P340">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q340">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R340">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S340">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T340">
         <v>2.5</v>
       </c>
       <c r="U340">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V340">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W340">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X340">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
         <v>-1</v>
       </c>
       <c r="Z340">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA340">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB340">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC340">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30906,7 +30906,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7750612</v>
+        <v>7750614</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30918,13 +30918,13 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F342" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G342" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H342">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I342">
         <v>0</v>
@@ -30933,43 +30933,43 @@
         <v>56</v>
       </c>
       <c r="K342">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="L342">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M342">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N342">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="O342">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P342">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q342">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R342">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S342">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T342">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U342">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V342">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W342">
-        <v>0.8500000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="X342">
         <v>-1</v>
@@ -30978,13 +30978,13 @@
         <v>-1</v>
       </c>
       <c r="Z342">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA342">
         <v>-1</v>
       </c>
       <c r="AB342">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC342">
         <v>-1</v>
@@ -31007,7 +31007,7 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F343" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G343" t="s">
         <v>47</v>
@@ -31262,7 +31262,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7750622</v>
+        <v>7749884</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31274,76 +31274,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="F346" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G346" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H346">
         <v>0</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K346">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="L346">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M346">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N346">
         <v>3.75</v>
       </c>
       <c r="O346">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P346">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q346">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R346">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S346">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T346">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U346">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V346">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W346">
         <v>-1</v>
       </c>
       <c r="X346">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z346">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB346">
         <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31351,7 +31351,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7750623</v>
+        <v>7750621</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31363,40 +31363,40 @@
         <v>45389.08333333334</v>
       </c>
       <c r="F347" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G347" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>57</v>
       </c>
       <c r="K347">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L347">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M347">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N347">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="O347">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P347">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q347">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R347">
         <v>2</v>
@@ -31405,34 +31405,34 @@
         <v>1.85</v>
       </c>
       <c r="T347">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U347">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V347">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA347">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB347">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31440,7 +31440,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7750624</v>
+        <v>7750626</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31452,76 +31452,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="F348" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G348" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H348">
         <v>1</v>
       </c>
       <c r="I348">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J348" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K348">
+        <v>2.45</v>
+      </c>
+      <c r="L348">
+        <v>3</v>
+      </c>
+      <c r="M348">
+        <v>2.8</v>
+      </c>
+      <c r="N348">
+        <v>2.7</v>
+      </c>
+      <c r="O348">
         <v>3.1</v>
       </c>
-      <c r="L348">
-        <v>3.2</v>
-      </c>
-      <c r="M348">
-        <v>2.15</v>
-      </c>
-      <c r="N348">
-        <v>4</v>
-      </c>
-      <c r="O348">
-        <v>3.4</v>
-      </c>
       <c r="P348">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q348">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R348">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S348">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T348">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U348">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V348">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W348">
         <v>-1</v>
       </c>
       <c r="X348">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y348">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z348">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC348">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31618,7 +31618,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>7750625</v>
+        <v>7750622</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31630,49 +31630,49 @@
         <v>45389.08333333334</v>
       </c>
       <c r="F350" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G350" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H350">
         <v>0</v>
       </c>
       <c r="I350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J350" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K350">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="L350">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M350">
+        <v>2.5</v>
+      </c>
+      <c r="N350">
+        <v>3.75</v>
+      </c>
+      <c r="O350">
+        <v>3.25</v>
+      </c>
+      <c r="P350">
+        <v>2.1</v>
+      </c>
+      <c r="Q350">
+        <v>0.25</v>
+      </c>
+      <c r="R350">
+        <v>2.05</v>
+      </c>
+      <c r="S350">
         <v>1.8</v>
       </c>
-      <c r="N350">
-        <v>4.5</v>
-      </c>
-      <c r="O350">
-        <v>3.6</v>
-      </c>
-      <c r="P350">
-        <v>1.8</v>
-      </c>
-      <c r="Q350">
-        <v>0.75</v>
-      </c>
-      <c r="R350">
-        <v>1.825</v>
-      </c>
-      <c r="S350">
-        <v>2.025</v>
-      </c>
       <c r="T350">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U350">
         <v>1.975</v>
@@ -31684,16 +31684,16 @@
         <v>-1</v>
       </c>
       <c r="X350">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y350">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA350">
         <v>-0.5</v>
-      </c>
-      <c r="AA350">
-        <v>0.5125</v>
       </c>
       <c r="AB350">
         <v>-1</v>
@@ -31707,7 +31707,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7750626</v>
+        <v>7750623</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31719,73 +31719,73 @@
         <v>45389.08333333334</v>
       </c>
       <c r="F351" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G351" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J351" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K351">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L351">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M351">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N351">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O351">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P351">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q351">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R351">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S351">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T351">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U351">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V351">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W351">
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y351">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
         <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB351">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC351">
         <v>-1</v>
@@ -31796,7 +31796,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7750621</v>
+        <v>7750625</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31808,76 +31808,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="F352" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G352" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H352">
         <v>0</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J352" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K352">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L352">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M352">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N352">
+        <v>4.5</v>
+      </c>
+      <c r="O352">
         <v>3.6</v>
       </c>
-      <c r="O352">
-        <v>3</v>
-      </c>
       <c r="P352">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q352">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R352">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S352">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T352">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U352">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V352">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W352">
         <v>-1</v>
       </c>
       <c r="X352">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z352">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA352">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB352">
         <v>-1</v>
       </c>
       <c r="AC352">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31885,7 +31885,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7749884</v>
+        <v>7750624</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31897,76 +31897,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="F353" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G353" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I353">
         <v>1</v>
       </c>
       <c r="J353" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K353">
+        <v>3.1</v>
+      </c>
+      <c r="L353">
         <v>3.2</v>
       </c>
-      <c r="L353">
-        <v>3.3</v>
-      </c>
       <c r="M353">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N353">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O353">
         <v>3.4</v>
       </c>
       <c r="P353">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Q353">
         <v>0.5</v>
       </c>
       <c r="R353">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S353">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T353">
         <v>2.5</v>
       </c>
       <c r="U353">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V353">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W353">
         <v>-1</v>
       </c>
       <c r="X353">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y353">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA353">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
         <v>-1</v>
       </c>
       <c r="AC353">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32090,13 +32090,13 @@
         <v>4.75</v>
       </c>
       <c r="N355">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O355">
         <v>3.6</v>
       </c>
       <c r="P355">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q355">
         <v>-0.75</v>
@@ -32137,7 +32137,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>7750630</v>
+        <v>7750628</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32149,46 +32149,46 @@
         <v>45395.08333333334</v>
       </c>
       <c r="F356" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G356" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K356">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="L356">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M356">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N356">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O356">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P356">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q356">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R356">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S356">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T356">
         <v>2.25</v>
       </c>
       <c r="U356">
+        <v>2.025</v>
+      </c>
+      <c r="V356">
         <v>1.825</v>
-      </c>
-      <c r="V356">
-        <v>2.025</v>
       </c>
       <c r="W356">
         <v>0</v>
@@ -32211,7 +32211,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>7750628</v>
+        <v>7750629</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32223,46 +32223,46 @@
         <v>45395.08333333334</v>
       </c>
       <c r="F357" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G357" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K357">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L357">
         <v>3.1</v>
       </c>
       <c r="M357">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N357">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O357">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P357">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q357">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R357">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S357">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T357">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U357">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V357">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W357">
         <v>0</v>
@@ -32285,7 +32285,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7750629</v>
+        <v>7750630</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32297,46 +32297,46 @@
         <v>45395.08333333334</v>
       </c>
       <c r="F358" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G358" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K358">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L358">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M358">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N358">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O358">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P358">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q358">
         <v>-0.5</v>
       </c>
       <c r="R358">
+        <v>1.85</v>
+      </c>
+      <c r="S358">
+        <v>2</v>
+      </c>
+      <c r="T358">
+        <v>2.25</v>
+      </c>
+      <c r="U358">
+        <v>1.825</v>
+      </c>
+      <c r="V358">
         <v>2.025</v>
-      </c>
-      <c r="S358">
-        <v>1.825</v>
-      </c>
-      <c r="T358">
-        <v>2</v>
-      </c>
-      <c r="U358">
-        <v>1.875</v>
-      </c>
-      <c r="V358">
-        <v>1.975</v>
       </c>
       <c r="W358">
         <v>0</v>
@@ -32386,7 +32386,7 @@
         <v>2</v>
       </c>
       <c r="N359">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O359">
         <v>3.5</v>

--- a/Japan J2League/Japan J2League.xlsx
+++ b/Japan J2League/Japan J2League.xlsx
@@ -100,6 +100,12 @@
     <t>7750654</t>
   </si>
   <si>
+    <t>7750657</t>
+  </si>
+  <si>
+    <t>7750655</t>
+  </si>
+  <si>
     <t>7750660</t>
   </si>
   <si>
@@ -109,13 +115,7 @@
     <t>7750658</t>
   </si>
   <si>
-    <t>7750657</t>
-  </si>
-  <si>
     <t>7750656</t>
-  </si>
-  <si>
-    <t>7750655</t>
   </si>
   <si>
     <t>7749888</t>
@@ -3422,7 +3422,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6189140</v>
+        <v>6189142</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -3431,10 +3431,10 @@
         <v>45101.25</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3452,13 +3452,13 @@
         <v>3.1</v>
       </c>
       <c r="L34">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N34">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O34">
         <v>3.3</v>
@@ -3467,25 +3467,25 @@
         <v>-0.25</v>
       </c>
       <c r="Q34">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T34">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
         <v>-1</v>
       </c>
       <c r="W34">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3494,13 +3494,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z34">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3508,7 +3508,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6189142</v>
+        <v>6189141</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -3517,34 +3517,34 @@
         <v>45101.25</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J35">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="K35">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M35">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N35">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O35">
         <v>3.3</v>
@@ -3559,34 +3559,34 @@
         <v>1.925</v>
       </c>
       <c r="S35">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
         <v>-1</v>
       </c>
       <c r="W35">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3594,7 +3594,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6189141</v>
+        <v>6189140</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -3603,34 +3603,34 @@
         <v>45101.25</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J36">
+        <v>2.2</v>
+      </c>
+      <c r="K36">
+        <v>3.1</v>
+      </c>
+      <c r="L36">
+        <v>3.5</v>
+      </c>
+      <c r="M36">
         <v>2.375</v>
       </c>
-      <c r="K36">
-        <v>3.3</v>
-      </c>
-      <c r="L36">
-        <v>2.9</v>
-      </c>
-      <c r="M36">
-        <v>2.15</v>
-      </c>
       <c r="N36">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O36">
         <v>3.3</v>
@@ -3639,40 +3639,40 @@
         <v>-0.25</v>
       </c>
       <c r="Q36">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
         <v>-1</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X36">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z36">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -5486,7 +5486,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6189160</v>
+        <v>6189171</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
@@ -5495,70 +5495,70 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J58">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="K58">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M58">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N58">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O58">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="P58">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q58">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S58">
         <v>3</v>
       </c>
       <c r="T58">
+        <v>1.975</v>
+      </c>
+      <c r="U58">
         <v>1.875</v>
       </c>
-      <c r="U58">
-        <v>1.975</v>
-      </c>
       <c r="V58">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6189161</v>
+        <v>6189165</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
@@ -5581,76 +5581,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J59">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="K59">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N59">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="O59">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P59">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q59">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T59">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V59">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y59">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5658,7 +5658,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6189162</v>
+        <v>6189164</v>
       </c>
       <c r="C60" t="s">
         <v>37</v>
@@ -5667,13 +5667,13 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5682,43 +5682,43 @@
         <v>66</v>
       </c>
       <c r="J60">
+        <v>3.4</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>2.2</v>
+      </c>
+      <c r="M60">
+        <v>4.333</v>
+      </c>
+      <c r="N60">
+        <v>3.3</v>
+      </c>
+      <c r="O60">
+        <v>1.909</v>
+      </c>
+      <c r="P60">
+        <v>0.5</v>
+      </c>
+      <c r="Q60">
+        <v>1.9</v>
+      </c>
+      <c r="R60">
+        <v>1.95</v>
+      </c>
+      <c r="S60">
         <v>2.5</v>
       </c>
-      <c r="K60">
-        <v>3.1</v>
-      </c>
-      <c r="L60">
-        <v>2.75</v>
-      </c>
-      <c r="M60">
-        <v>2.15</v>
-      </c>
-      <c r="N60">
-        <v>3.2</v>
-      </c>
-      <c r="O60">
-        <v>3.6</v>
-      </c>
-      <c r="P60">
-        <v>-0.25</v>
-      </c>
-      <c r="Q60">
-        <v>1.85</v>
-      </c>
-      <c r="R60">
-        <v>2</v>
-      </c>
-      <c r="S60">
-        <v>2.25</v>
-      </c>
       <c r="T60">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U60">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>1.15</v>
+        <v>3.333</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5727,13 +5727,13 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB60">
         <v>-1</v>
@@ -5744,7 +5744,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6189174</v>
+        <v>6189172</v>
       </c>
       <c r="C61" t="s">
         <v>37</v>
@@ -5753,13 +5753,13 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -5768,40 +5768,40 @@
         <v>64</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L61">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N61">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="O61">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="P61">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q61">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
         <v>-1</v>
@@ -5810,16 +5810,16 @@
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB61">
         <v>-1</v>
@@ -5916,7 +5916,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6189163</v>
+        <v>6189174</v>
       </c>
       <c r="C63" t="s">
         <v>37</v>
@@ -5925,76 +5925,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>64</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>2.4</v>
+      </c>
+      <c r="M63">
+        <v>3.75</v>
+      </c>
+      <c r="N63">
+        <v>2.875</v>
+      </c>
+      <c r="O63">
+        <v>2.3</v>
+      </c>
+      <c r="P63">
+        <v>0.25</v>
+      </c>
+      <c r="Q63">
+        <v>1.925</v>
+      </c>
+      <c r="R63">
+        <v>1.925</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
+        <v>-1</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>1.3</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
+        <v>0.925</v>
+      </c>
+      <c r="AA63">
         <v>1</v>
       </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>65</v>
-      </c>
-      <c r="J63">
-        <v>3.2</v>
-      </c>
-      <c r="K63">
-        <v>3.2</v>
-      </c>
-      <c r="L63">
-        <v>2.15</v>
-      </c>
-      <c r="M63">
-        <v>4.75</v>
-      </c>
-      <c r="N63">
-        <v>3.8</v>
-      </c>
-      <c r="O63">
-        <v>1.727</v>
-      </c>
-      <c r="P63">
-        <v>0.75</v>
-      </c>
-      <c r="Q63">
-        <v>1.85</v>
-      </c>
-      <c r="R63">
-        <v>2</v>
-      </c>
-      <c r="S63">
-        <v>2.5</v>
-      </c>
-      <c r="T63">
-        <v>1.825</v>
-      </c>
-      <c r="U63">
-        <v>2.025</v>
-      </c>
-      <c r="V63">
-        <v>-1</v>
-      </c>
-      <c r="W63">
-        <v>2.8</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z63">
-        <v>-1</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
       <c r="AB63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -6002,7 +6002,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6189164</v>
+        <v>6189162</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
@@ -6011,13 +6011,13 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6026,43 +6026,43 @@
         <v>66</v>
       </c>
       <c r="J64">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L64">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="M64">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O64">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q64">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T64">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V64">
-        <v>3.333</v>
+        <v>1.15</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6071,13 +6071,13 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB64">
         <v>-1</v>
@@ -6088,7 +6088,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6189165</v>
+        <v>6189161</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
@@ -6097,76 +6097,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J65">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="K65">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="N65">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O65">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P65">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q65">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S65">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6174,7 +6174,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6189171</v>
+        <v>6189160</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>
@@ -6183,70 +6183,70 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J66">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="K66">
+        <v>3.3</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>4.5</v>
+      </c>
+      <c r="N66">
         <v>3.8</v>
       </c>
-      <c r="L66">
-        <v>6</v>
-      </c>
-      <c r="M66">
-        <v>1.615</v>
-      </c>
-      <c r="N66">
-        <v>4</v>
-      </c>
       <c r="O66">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="P66">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q66">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R66">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
         <v>3</v>
       </c>
       <c r="T66">
+        <v>1.875</v>
+      </c>
+      <c r="U66">
         <v>1.975</v>
       </c>
-      <c r="U66">
-        <v>1.875</v>
-      </c>
       <c r="V66">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y66">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
         <v>0</v>
@@ -6260,7 +6260,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6189172</v>
+        <v>6189163</v>
       </c>
       <c r="C67" t="s">
         <v>37</v>
@@ -6269,76 +6269,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J67">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="K67">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="M67">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="N67">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O67">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="P67">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q67">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R67">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S67">
         <v>2.5</v>
       </c>
       <c r="T67">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V67">
         <v>-1</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X67">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6346,7 +6346,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6189179</v>
+        <v>6189178</v>
       </c>
       <c r="C68" t="s">
         <v>37</v>
@@ -6355,49 +6355,49 @@
         <v>45116.25</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F68" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J68">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="K68">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L68">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
         <v>2.625</v>
       </c>
       <c r="N68">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O68">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="R68">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S68">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="T68">
         <v>1.85</v>
@@ -6409,16 +6409,16 @@
         <v>-1</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X68">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z68">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA68">
         <v>0.8500000000000001</v>
@@ -6432,7 +6432,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6189178</v>
+        <v>6189177</v>
       </c>
       <c r="C69" t="s">
         <v>37</v>
@@ -6441,10 +6441,10 @@
         <v>45116.25</v>
       </c>
       <c r="E69" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6456,58 +6456,58 @@
         <v>65</v>
       </c>
       <c r="J69">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="K69">
         <v>3</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="M69">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q69">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R69">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V69">
         <v>-1</v>
       </c>
       <c r="W69">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
         <v>-1</v>
@@ -6518,7 +6518,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6189177</v>
+        <v>6189176</v>
       </c>
       <c r="C70" t="s">
         <v>37</v>
@@ -6527,73 +6527,73 @@
         <v>45116.25</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J70">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="K70">
+        <v>3.25</v>
+      </c>
+      <c r="L70">
         <v>3</v>
       </c>
-      <c r="L70">
-        <v>2.3</v>
-      </c>
       <c r="M70">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="N70">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O70">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="P70">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T70">
+        <v>2.025</v>
+      </c>
+      <c r="U70">
         <v>1.825</v>
       </c>
-      <c r="U70">
-        <v>2.025</v>
-      </c>
       <c r="V70">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W70">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6604,7 +6604,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6189180</v>
+        <v>6189179</v>
       </c>
       <c r="C71" t="s">
         <v>37</v>
@@ -6613,55 +6613,55 @@
         <v>45116.25</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I71" t="s">
         <v>64</v>
       </c>
       <c r="J71">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="K71">
+        <v>3.3</v>
+      </c>
+      <c r="L71">
+        <v>2.375</v>
+      </c>
+      <c r="M71">
+        <v>2.625</v>
+      </c>
+      <c r="N71">
         <v>3.5</v>
       </c>
-      <c r="L71">
-        <v>4.333</v>
-      </c>
-      <c r="M71">
-        <v>2.5</v>
-      </c>
-      <c r="N71">
-        <v>3.25</v>
-      </c>
       <c r="O71">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="R71">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V71">
         <v>-1</v>
@@ -6670,19 +6670,19 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6776,7 +6776,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6189176</v>
+        <v>6189180</v>
       </c>
       <c r="C73" t="s">
         <v>37</v>
@@ -6785,34 +6785,34 @@
         <v>45116.25</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F73" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J73">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K73">
+        <v>3.5</v>
+      </c>
+      <c r="L73">
+        <v>4.333</v>
+      </c>
+      <c r="M73">
+        <v>2.5</v>
+      </c>
+      <c r="N73">
         <v>3.25</v>
-      </c>
-      <c r="L73">
-        <v>3</v>
-      </c>
-      <c r="M73">
-        <v>2.45</v>
-      </c>
-      <c r="N73">
-        <v>3.4</v>
       </c>
       <c r="O73">
         <v>2.9</v>
@@ -6821,40 +6821,40 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T73">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA73">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6862,7 +6862,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6189185</v>
+        <v>6189183</v>
       </c>
       <c r="C74" t="s">
         <v>37</v>
@@ -6871,76 +6871,76 @@
         <v>45116.29166666666</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J74">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="K74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L74">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="M74">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="N74">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O74">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T74">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
+        <v>0.5</v>
+      </c>
+      <c r="Z74">
         <v>-0.5</v>
       </c>
-      <c r="Z74">
-        <v>0.475</v>
-      </c>
       <c r="AA74">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6948,7 +6948,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6189183</v>
+        <v>6189184</v>
       </c>
       <c r="C75" t="s">
         <v>37</v>
@@ -6957,76 +6957,76 @@
         <v>45116.29166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J75">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="K75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="M75">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="N75">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="P75">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T75">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
         <v>-0.5</v>
       </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -7034,7 +7034,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6189184</v>
+        <v>6189185</v>
       </c>
       <c r="C76" t="s">
         <v>37</v>
@@ -7043,76 +7043,76 @@
         <v>45116.29166666666</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J76">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L76">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="M76">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O76">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q76">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T76">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
         <v>-1</v>
       </c>
       <c r="W76">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA76">
+        <v>0.4625</v>
+      </c>
+      <c r="AB76">
         <v>-0.5</v>
-      </c>
-      <c r="AB76">
-        <v>0.4</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7808,7 +7808,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6189196</v>
+        <v>6189195</v>
       </c>
       <c r="C85" t="s">
         <v>37</v>
@@ -7817,13 +7817,13 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -7832,44 +7832,44 @@
         <v>66</v>
       </c>
       <c r="J85">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="K85">
+        <v>3.4</v>
+      </c>
+      <c r="L85">
+        <v>2.2</v>
+      </c>
+      <c r="M85">
+        <v>2.875</v>
+      </c>
+      <c r="N85">
         <v>3.75</v>
       </c>
-      <c r="L85">
-        <v>4.2</v>
-      </c>
-      <c r="M85">
-        <v>1.5</v>
-      </c>
-      <c r="N85">
-        <v>4.5</v>
-      </c>
       <c r="O85">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="P85">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q85">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T85">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U85">
+        <v>2</v>
+      </c>
+      <c r="V85">
         <v>1.875</v>
       </c>
-      <c r="V85">
-        <v>0.5</v>
-      </c>
       <c r="W85">
         <v>-1</v>
       </c>
@@ -7877,16 +7877,16 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7894,7 +7894,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6189195</v>
+        <v>6189194</v>
       </c>
       <c r="C86" t="s">
         <v>37</v>
@@ -7903,76 +7903,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J86">
+        <v>2.25</v>
+      </c>
+      <c r="K86">
         <v>2.875</v>
       </c>
-      <c r="K86">
-        <v>3.4</v>
-      </c>
       <c r="L86">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="M86">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O86">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="P86">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S86">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7980,7 +7980,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6189194</v>
+        <v>6189196</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -7989,76 +7989,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J87">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="K87">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L87">
+        <v>4.2</v>
+      </c>
+      <c r="M87">
+        <v>1.5</v>
+      </c>
+      <c r="N87">
+        <v>4.5</v>
+      </c>
+      <c r="O87">
+        <v>5.75</v>
+      </c>
+      <c r="P87">
+        <v>-1.25</v>
+      </c>
+      <c r="Q87">
+        <v>2.05</v>
+      </c>
+      <c r="R87">
+        <v>1.8</v>
+      </c>
+      <c r="S87">
         <v>3.25</v>
       </c>
-      <c r="M87">
-        <v>3</v>
-      </c>
-      <c r="N87">
-        <v>3</v>
-      </c>
-      <c r="O87">
-        <v>2.55</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>2.1</v>
-      </c>
-      <c r="R87">
-        <v>1.775</v>
-      </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
       <c r="T87">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U87">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W87">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB87">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -10044,7 +10044,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6189220</v>
+        <v>6189219</v>
       </c>
       <c r="C111" t="s">
         <v>37</v>
@@ -10053,40 +10053,40 @@
         <v>45143.29166666666</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G111">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I111" t="s">
         <v>64</v>
       </c>
       <c r="J111">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="K111">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L111">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M111">
         <v>3.4</v>
       </c>
       <c r="N111">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O111">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="P111">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q111">
         <v>1.825</v>
@@ -10095,13 +10095,13 @@
         <v>2.025</v>
       </c>
       <c r="S111">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T111">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
         <v>-1</v>
@@ -10110,7 +10110,7 @@
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="Y111">
         <v>-1</v>
@@ -10119,10 +10119,10 @@
         <v>1.025</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10130,7 +10130,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6189219</v>
+        <v>6189220</v>
       </c>
       <c r="C112" t="s">
         <v>37</v>
@@ -10139,40 +10139,40 @@
         <v>45143.29166666666</v>
       </c>
       <c r="E112" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G112">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="s">
         <v>64</v>
       </c>
       <c r="J112">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="K112">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L112">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M112">
         <v>3.4</v>
       </c>
       <c r="N112">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O112">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="P112">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q112">
         <v>1.825</v>
@@ -10181,13 +10181,13 @@
         <v>2.025</v>
       </c>
       <c r="S112">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T112">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
         <v>-1</v>
@@ -10196,7 +10196,7 @@
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="Y112">
         <v>-1</v>
@@ -10205,10 +10205,10 @@
         <v>1.025</v>
       </c>
       <c r="AA112">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -12452,7 +12452,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6291568</v>
+        <v>6291569</v>
       </c>
       <c r="C139" t="s">
         <v>37</v>
@@ -12461,10 +12461,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12476,43 +12476,43 @@
         <v>66</v>
       </c>
       <c r="J139">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="K139">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M139">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N139">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P139">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q139">
+        <v>1.8</v>
+      </c>
+      <c r="R139">
         <v>2.05</v>
       </c>
-      <c r="R139">
+      <c r="S139">
+        <v>2.25</v>
+      </c>
+      <c r="T139">
+        <v>2.05</v>
+      </c>
+      <c r="U139">
         <v>1.8</v>
       </c>
-      <c r="S139">
-        <v>2.5</v>
-      </c>
-      <c r="T139">
-        <v>1.975</v>
-      </c>
-      <c r="U139">
-        <v>1.875</v>
-      </c>
       <c r="V139">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12521,7 +12521,7 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="Z139">
         <v>-1</v>
@@ -12530,7 +12530,7 @@
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12538,7 +12538,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6291569</v>
+        <v>6291568</v>
       </c>
       <c r="C140" t="s">
         <v>37</v>
@@ -12547,10 +12547,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E140" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12562,43 +12562,43 @@
         <v>66</v>
       </c>
       <c r="J140">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="K140">
+        <v>3.5</v>
+      </c>
+      <c r="L140">
+        <v>3.6</v>
+      </c>
+      <c r="M140">
+        <v>2.375</v>
+      </c>
+      <c r="N140">
+        <v>3.2</v>
+      </c>
+      <c r="O140">
         <v>3.1</v>
       </c>
-      <c r="L140">
-        <v>2.875</v>
-      </c>
-      <c r="M140">
-        <v>2.625</v>
-      </c>
-      <c r="N140">
-        <v>3.1</v>
-      </c>
-      <c r="O140">
-        <v>2.9</v>
-      </c>
       <c r="P140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q140">
+        <v>2.05</v>
+      </c>
+      <c r="R140">
         <v>1.8</v>
       </c>
-      <c r="R140">
-        <v>2.05</v>
-      </c>
       <c r="S140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T140">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12607,7 +12607,7 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="Z140">
         <v>-1</v>
@@ -12616,7 +12616,7 @@
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -15978,7 +15978,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6418190</v>
+        <v>6418193</v>
       </c>
       <c r="C180" t="s">
         <v>37</v>
@@ -15987,76 +15987,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="E180" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I180" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J180">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="K180">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L180">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="M180">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="N180">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O180">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="P180">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q180">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T180">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U180">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
         <v>-1</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X180">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB180">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16064,7 +16064,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6418193</v>
+        <v>6418192</v>
       </c>
       <c r="C181" t="s">
         <v>37</v>
@@ -16073,61 +16073,61 @@
         <v>45185.29166666666</v>
       </c>
       <c r="E181" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F181" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="s">
         <v>65</v>
       </c>
       <c r="J181">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="K181">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L181">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M181">
+        <v>1.333</v>
+      </c>
+      <c r="N181">
+        <v>5</v>
+      </c>
+      <c r="O181">
+        <v>9.5</v>
+      </c>
+      <c r="P181">
+        <v>-1.5</v>
+      </c>
+      <c r="Q181">
+        <v>1.9</v>
+      </c>
+      <c r="R181">
         <v>1.95</v>
       </c>
-      <c r="N181">
-        <v>3.5</v>
-      </c>
-      <c r="O181">
-        <v>3.8</v>
-      </c>
-      <c r="P181">
-        <v>-0.5</v>
-      </c>
-      <c r="Q181">
-        <v>2.025</v>
-      </c>
-      <c r="R181">
-        <v>1.825</v>
-      </c>
       <c r="S181">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U181">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
         <v>-1</v>
       </c>
       <c r="W181">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16136,13 +16136,13 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16150,7 +16150,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6418192</v>
+        <v>6418190</v>
       </c>
       <c r="C182" t="s">
         <v>37</v>
@@ -16159,76 +16159,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="E182" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F182" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J182">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="K182">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L182">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="M182">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="N182">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O182">
-        <v>9.5</v>
+        <v>2.2</v>
       </c>
       <c r="P182">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q182">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T182">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V182">
         <v>-1</v>
       </c>
       <c r="W182">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -17870,7 +17870,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6501070</v>
+        <v>6480225</v>
       </c>
       <c r="C202" t="s">
         <v>37</v>
@@ -17879,56 +17879,56 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I202" t="s">
         <v>64</v>
       </c>
       <c r="J202">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="K202">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L202">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="M202">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N202">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O202">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="P202">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q202">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S202">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T202">
+        <v>2.025</v>
+      </c>
+      <c r="U202">
         <v>1.825</v>
       </c>
-      <c r="U202">
-        <v>2.025</v>
-      </c>
       <c r="V202">
         <v>-1</v>
       </c>
@@ -17936,16 +17936,16 @@
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>3</v>
+        <v>1.375</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA202">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB202">
         <v>-1</v>
@@ -17956,7 +17956,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6480225</v>
+        <v>6501070</v>
       </c>
       <c r="C203" t="s">
         <v>37</v>
@@ -17965,73 +17965,73 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H203">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I203" t="s">
         <v>64</v>
       </c>
       <c r="J203">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="K203">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L203">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="M203">
+        <v>1.909</v>
+      </c>
+      <c r="N203">
+        <v>3.6</v>
+      </c>
+      <c r="O203">
+        <v>4</v>
+      </c>
+      <c r="P203">
+        <v>-0.5</v>
+      </c>
+      <c r="Q203">
+        <v>1.9</v>
+      </c>
+      <c r="R203">
+        <v>1.95</v>
+      </c>
+      <c r="S203">
+        <v>2.25</v>
+      </c>
+      <c r="T203">
+        <v>1.825</v>
+      </c>
+      <c r="U203">
+        <v>2.025</v>
+      </c>
+      <c r="V203">
+        <v>-1</v>
+      </c>
+      <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
         <v>3</v>
       </c>
-      <c r="N203">
-        <v>3.4</v>
-      </c>
-      <c r="O203">
-        <v>2.375</v>
-      </c>
-      <c r="P203">
-        <v>0.25</v>
-      </c>
-      <c r="Q203">
-        <v>1.8</v>
-      </c>
-      <c r="R203">
-        <v>2.05</v>
-      </c>
-      <c r="S203">
-        <v>2.5</v>
-      </c>
-      <c r="T203">
-        <v>2.025</v>
-      </c>
-      <c r="U203">
-        <v>1.825</v>
-      </c>
-      <c r="V203">
-        <v>-1</v>
-      </c>
-      <c r="W203">
-        <v>-1</v>
-      </c>
-      <c r="X203">
-        <v>1.375</v>
-      </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA203">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB203">
         <v>-1</v>
@@ -18042,7 +18042,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6501074</v>
+        <v>6501069</v>
       </c>
       <c r="C204" t="s">
         <v>37</v>
@@ -18051,76 +18051,76 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F204" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G204">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J204">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="K204">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L204">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M204">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N204">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="O204">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P204">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q204">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S204">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="T204">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V204">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB204">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18300,7 +18300,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6501069</v>
+        <v>6501074</v>
       </c>
       <c r="C207" t="s">
         <v>37</v>
@@ -18309,76 +18309,76 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F207" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G207">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J207">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="K207">
+        <v>4</v>
+      </c>
+      <c r="L207">
+        <v>4.75</v>
+      </c>
+      <c r="M207">
+        <v>1.571</v>
+      </c>
+      <c r="N207">
+        <v>4.333</v>
+      </c>
+      <c r="O207">
+        <v>5.25</v>
+      </c>
+      <c r="P207">
+        <v>-1</v>
+      </c>
+      <c r="Q207">
+        <v>2.025</v>
+      </c>
+      <c r="R207">
+        <v>1.825</v>
+      </c>
+      <c r="S207">
         <v>3</v>
       </c>
-      <c r="L207">
-        <v>3.4</v>
-      </c>
-      <c r="M207">
-        <v>2.625</v>
-      </c>
-      <c r="N207">
-        <v>2.9</v>
-      </c>
-      <c r="O207">
-        <v>3.1</v>
-      </c>
-      <c r="P207">
-        <v>-0.25</v>
-      </c>
-      <c r="Q207">
-        <v>2.1</v>
-      </c>
-      <c r="R207">
-        <v>1.7</v>
-      </c>
-      <c r="S207">
-        <v>1.75</v>
-      </c>
       <c r="T207">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V207">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z207">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AA207">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -20536,7 +20536,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6555444</v>
+        <v>6535081</v>
       </c>
       <c r="C233" t="s">
         <v>37</v>
@@ -20545,76 +20545,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E233" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F233" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G233">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J233">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="K233">
         <v>3.6</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M233">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N233">
         <v>3.5</v>
       </c>
       <c r="O233">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P233">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q233">
+        <v>1.8</v>
+      </c>
+      <c r="R233">
         <v>2.05</v>
       </c>
-      <c r="R233">
-        <v>1.8</v>
-      </c>
       <c r="S233">
+        <v>2.25</v>
+      </c>
+      <c r="T233">
+        <v>1.825</v>
+      </c>
+      <c r="U233">
+        <v>2.025</v>
+      </c>
+      <c r="V233">
+        <v>-1</v>
+      </c>
+      <c r="W233">
         <v>2.5</v>
       </c>
-      <c r="T233">
-        <v>1.9</v>
-      </c>
-      <c r="U233">
-        <v>1.95</v>
-      </c>
-      <c r="V233">
-        <v>-1</v>
-      </c>
-      <c r="W233">
-        <v>-1</v>
-      </c>
       <c r="X233">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z233">
-        <v>0.8</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA233">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="234" spans="1:28">
@@ -20622,7 +20622,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6535081</v>
+        <v>6555444</v>
       </c>
       <c r="C234" t="s">
         <v>37</v>
@@ -20631,76 +20631,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E234" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F234" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G234">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J234">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="K234">
         <v>3.6</v>
       </c>
       <c r="L234">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M234">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="N234">
         <v>3.5</v>
       </c>
       <c r="O234">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P234">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q234">
+        <v>2.05</v>
+      </c>
+      <c r="R234">
         <v>1.8</v>
       </c>
-      <c r="R234">
-        <v>2.05</v>
-      </c>
       <c r="S234">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T234">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U234">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V234">
         <v>-1</v>
       </c>
       <c r="W234">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y234">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.5249999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA234">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB234">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:28">
@@ -25180,7 +25180,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7749878</v>
+        <v>7750565</v>
       </c>
       <c r="C287" t="s">
         <v>37</v>
@@ -25189,73 +25189,73 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E287" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F287" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G287">
+        <v>3</v>
+      </c>
+      <c r="H287">
         <v>1</v>
       </c>
-      <c r="H287">
-        <v>2</v>
-      </c>
       <c r="I287" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J287">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="K287">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L287">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="M287">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="N287">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O287">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P287">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q287">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="R287">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S287">
         <v>2.25</v>
       </c>
       <c r="T287">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U287">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V287">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="Z287">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB287">
         <v>-1</v>
@@ -25266,7 +25266,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7750565</v>
+        <v>7749878</v>
       </c>
       <c r="C288" t="s">
         <v>37</v>
@@ -25275,73 +25275,73 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E288" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F288" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G288">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J288">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="K288">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L288">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="M288">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N288">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O288">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P288">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q288">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="R288">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S288">
         <v>2.25</v>
       </c>
       <c r="T288">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U288">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V288">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y288">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA288">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB288">
         <v>-1</v>
@@ -30254,7 +30254,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7749884</v>
+        <v>7750621</v>
       </c>
       <c r="C346" t="s">
         <v>37</v>
@@ -30263,76 +30263,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E346" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F346" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G346">
         <v>0</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J346">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K346">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="L346">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M346">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N346">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O346">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="P346">
+        <v>0.25</v>
+      </c>
+      <c r="Q346">
+        <v>2</v>
+      </c>
+      <c r="R346">
+        <v>1.85</v>
+      </c>
+      <c r="S346">
+        <v>2</v>
+      </c>
+      <c r="T346">
+        <v>1.95</v>
+      </c>
+      <c r="U346">
+        <v>1.9</v>
+      </c>
+      <c r="V346">
+        <v>-1</v>
+      </c>
+      <c r="W346">
+        <v>2</v>
+      </c>
+      <c r="X346">
+        <v>-1</v>
+      </c>
+      <c r="Y346">
         <v>0.5</v>
       </c>
-      <c r="Q346">
-        <v>1.825</v>
-      </c>
-      <c r="R346">
-        <v>2.025</v>
-      </c>
-      <c r="S346">
-        <v>2.5</v>
-      </c>
-      <c r="T346">
-        <v>2</v>
-      </c>
-      <c r="U346">
-        <v>1.85</v>
-      </c>
-      <c r="V346">
-        <v>-1</v>
-      </c>
-      <c r="W346">
-        <v>-1</v>
-      </c>
-      <c r="X346">
-        <v>1.05</v>
-      </c>
-      <c r="Y346">
-        <v>-1</v>
-      </c>
       <c r="Z346">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA346">
         <v>-1</v>
       </c>
       <c r="AB346">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="347" spans="1:28">
@@ -30340,7 +30340,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7750620</v>
+        <v>7749884</v>
       </c>
       <c r="C347" t="s">
         <v>37</v>
@@ -30349,76 +30349,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E347" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F347" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I347" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J347">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="K347">
+        <v>3.3</v>
+      </c>
+      <c r="L347">
+        <v>2.1</v>
+      </c>
+      <c r="M347">
+        <v>3.75</v>
+      </c>
+      <c r="N347">
         <v>3.4</v>
       </c>
-      <c r="L347">
-        <v>4</v>
-      </c>
-      <c r="M347">
-        <v>2.375</v>
-      </c>
-      <c r="N347">
-        <v>3.3</v>
-      </c>
       <c r="O347">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="P347">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q347">
+        <v>1.825</v>
+      </c>
+      <c r="R347">
         <v>2.025</v>
-      </c>
-      <c r="R347">
-        <v>1.825</v>
       </c>
       <c r="S347">
         <v>2.5</v>
       </c>
       <c r="T347">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U347">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V347">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y347">
+        <v>-1</v>
+      </c>
+      <c r="Z347">
         <v>1.025</v>
       </c>
-      <c r="Z347">
-        <v>-1</v>
-      </c>
       <c r="AA347">
         <v>-1</v>
       </c>
       <c r="AB347">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:28">
@@ -30426,7 +30426,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7750625</v>
+        <v>7750620</v>
       </c>
       <c r="C348" t="s">
         <v>37</v>
@@ -30435,46 +30435,46 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E348" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F348" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G348">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J348">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="K348">
+        <v>3.4</v>
+      </c>
+      <c r="L348">
+        <v>4</v>
+      </c>
+      <c r="M348">
+        <v>2.375</v>
+      </c>
+      <c r="N348">
         <v>3.3</v>
       </c>
-      <c r="L348">
-        <v>1.8</v>
-      </c>
-      <c r="M348">
-        <v>4.5</v>
-      </c>
-      <c r="N348">
-        <v>3.6</v>
-      </c>
       <c r="O348">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="P348">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q348">
+        <v>2.025</v>
+      </c>
+      <c r="R348">
         <v>1.825</v>
-      </c>
-      <c r="R348">
-        <v>2.025</v>
       </c>
       <c r="S348">
         <v>2.5</v>
@@ -30486,19 +30486,19 @@
         <v>1.875</v>
       </c>
       <c r="V348">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W348">
         <v>-1</v>
       </c>
       <c r="X348">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y348">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="Z348">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA348">
         <v>-1</v>
@@ -30512,7 +30512,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>7750621</v>
+        <v>7750625</v>
       </c>
       <c r="C349" t="s">
         <v>37</v>
@@ -30521,76 +30521,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E349" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F349" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G349">
         <v>0</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I349" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J349">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="K349">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L349">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M349">
+        <v>4.5</v>
+      </c>
+      <c r="N349">
         <v>3.6</v>
       </c>
-      <c r="N349">
-        <v>3</v>
-      </c>
       <c r="O349">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="P349">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q349">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R349">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S349">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T349">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U349">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V349">
         <v>-1</v>
       </c>
       <c r="W349">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X349">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y349">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z349">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AA349">
         <v>-1</v>
       </c>
       <c r="AB349">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="350" spans="1:28">
@@ -30684,7 +30684,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7750624</v>
+        <v>7750623</v>
       </c>
       <c r="C351" t="s">
         <v>37</v>
@@ -30693,46 +30693,46 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E351" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F351" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="s">
         <v>65</v>
       </c>
       <c r="J351">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="K351">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L351">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="M351">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N351">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O351">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="P351">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q351">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R351">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S351">
         <v>2.5</v>
@@ -30747,22 +30747,22 @@
         <v>-1</v>
       </c>
       <c r="W351">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA351">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB351">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:28">
@@ -30856,7 +30856,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7750623</v>
+        <v>7750624</v>
       </c>
       <c r="C353" t="s">
         <v>37</v>
@@ -30865,46 +30865,46 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E353" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F353" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G353">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="s">
         <v>65</v>
       </c>
       <c r="J353">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="K353">
+        <v>3.2</v>
+      </c>
+      <c r="L353">
+        <v>2.15</v>
+      </c>
+      <c r="M353">
+        <v>4</v>
+      </c>
+      <c r="N353">
         <v>3.4</v>
       </c>
-      <c r="L353">
-        <v>4.75</v>
-      </c>
-      <c r="M353">
+      <c r="O353">
         <v>1.95</v>
       </c>
-      <c r="N353">
-        <v>3.3</v>
-      </c>
-      <c r="O353">
-        <v>4.2</v>
-      </c>
       <c r="P353">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q353">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R353">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S353">
         <v>2.5</v>
@@ -30919,22 +30919,22 @@
         <v>-1</v>
       </c>
       <c r="W353">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z353">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="354" spans="1:28">
@@ -31974,7 +31974,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7750637</v>
+        <v>7750636</v>
       </c>
       <c r="C366" t="s">
         <v>37</v>
@@ -31983,55 +31983,55 @@
         <v>45402.08333333334</v>
       </c>
       <c r="E366" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F366" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="s">
         <v>66</v>
       </c>
       <c r="J366">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="K366">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L366">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M366">
         <v>1.909</v>
       </c>
       <c r="N366">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O366">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P366">
         <v>-0.5</v>
       </c>
       <c r="Q366">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R366">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S366">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T366">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U366">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V366">
         <v>0.909</v>
@@ -32043,16 +32043,16 @@
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="Z366">
         <v>-1</v>
       </c>
       <c r="AA366">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB366">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="367" spans="1:28">
@@ -32060,7 +32060,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7750636</v>
+        <v>7750637</v>
       </c>
       <c r="C367" t="s">
         <v>37</v>
@@ -32069,55 +32069,55 @@
         <v>45402.08333333334</v>
       </c>
       <c r="E367" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F367" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G367">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="s">
         <v>66</v>
       </c>
       <c r="J367">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="K367">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L367">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M367">
         <v>1.909</v>
       </c>
       <c r="N367">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O367">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P367">
         <v>-0.5</v>
       </c>
       <c r="Q367">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R367">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S367">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T367">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U367">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V367">
         <v>0.909</v>
@@ -32129,16 +32129,16 @@
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="Z367">
         <v>-1</v>
       </c>
       <c r="AA367">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB367">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:28">
@@ -32146,7 +32146,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7749886</v>
+        <v>7750639</v>
       </c>
       <c r="C368" t="s">
         <v>37</v>
@@ -32155,58 +32155,58 @@
         <v>45402.08333333334</v>
       </c>
       <c r="E368" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F368" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G368">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="s">
         <v>66</v>
       </c>
       <c r="J368">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="K368">
+        <v>3.5</v>
+      </c>
+      <c r="L368">
         <v>4</v>
       </c>
-      <c r="L368">
-        <v>6</v>
-      </c>
       <c r="M368">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="N368">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O368">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P368">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q368">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R368">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S368">
         <v>2.25</v>
       </c>
       <c r="T368">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U368">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V368">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="W368">
         <v>-1</v>
@@ -32215,16 +32215,16 @@
         <v>-1</v>
       </c>
       <c r="Y368">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z368">
         <v>-1</v>
       </c>
       <c r="AA368">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB368">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="369" spans="1:28">
@@ -32232,7 +32232,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>7750639</v>
+        <v>7749886</v>
       </c>
       <c r="C369" t="s">
         <v>37</v>
@@ -32241,58 +32241,58 @@
         <v>45402.08333333334</v>
       </c>
       <c r="E369" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F369" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G369">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I369" t="s">
         <v>66</v>
       </c>
       <c r="J369">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="K369">
+        <v>4</v>
+      </c>
+      <c r="L369">
+        <v>6</v>
+      </c>
+      <c r="M369">
+        <v>1.909</v>
+      </c>
+      <c r="N369">
         <v>3.5</v>
       </c>
-      <c r="L369">
+      <c r="O369">
         <v>4</v>
       </c>
-      <c r="M369">
-        <v>2.1</v>
-      </c>
-      <c r="N369">
-        <v>3.4</v>
-      </c>
-      <c r="O369">
-        <v>3.3</v>
-      </c>
       <c r="P369">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q369">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R369">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S369">
         <v>2.25</v>
       </c>
       <c r="T369">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U369">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V369">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="W369">
         <v>-1</v>
@@ -32301,16 +32301,16 @@
         <v>-1</v>
       </c>
       <c r="Y369">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z369">
         <v>-1</v>
       </c>
       <c r="AA369">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB369">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:28">
@@ -32318,7 +32318,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7750642</v>
+        <v>7750644</v>
       </c>
       <c r="C370" t="s">
         <v>37</v>
@@ -32327,58 +32327,58 @@
         <v>45403.08333333334</v>
       </c>
       <c r="E370" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F370" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G370">
+        <v>2</v>
+      </c>
+      <c r="H370">
         <v>1</v>
-      </c>
-      <c r="H370">
-        <v>0</v>
       </c>
       <c r="I370" t="s">
         <v>66</v>
       </c>
       <c r="J370">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="K370">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L370">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="M370">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N370">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O370">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="P370">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q370">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R370">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S370">
         <v>2.25</v>
       </c>
       <c r="T370">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U370">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V370">
-        <v>1.75</v>
+        <v>0.909</v>
       </c>
       <c r="W370">
         <v>-1</v>
@@ -32387,16 +32387,16 @@
         <v>-1</v>
       </c>
       <c r="Y370">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z370">
         <v>-1</v>
       </c>
       <c r="AA370">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB370">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:28">
@@ -32404,7 +32404,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7750643</v>
+        <v>7750640</v>
       </c>
       <c r="C371" t="s">
         <v>37</v>
@@ -32413,13 +32413,13 @@
         <v>45403.08333333334</v>
       </c>
       <c r="E371" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F371" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H371">
         <v>2</v>
@@ -32428,40 +32428,40 @@
         <v>64</v>
       </c>
       <c r="J371">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="K371">
         <v>3.25</v>
       </c>
       <c r="L371">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="M371">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N371">
         <v>3.25</v>
       </c>
       <c r="O371">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="P371">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q371">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R371">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S371">
         <v>2.25</v>
       </c>
       <c r="T371">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U371">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V371">
         <v>-1</v>
@@ -32470,19 +32470,19 @@
         <v>-1</v>
       </c>
       <c r="X371">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA371">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB371">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:28">
@@ -32490,7 +32490,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7750640</v>
+        <v>7750643</v>
       </c>
       <c r="C372" t="s">
         <v>37</v>
@@ -32499,13 +32499,13 @@
         <v>45403.08333333334</v>
       </c>
       <c r="E372" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F372" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H372">
         <v>2</v>
@@ -32514,40 +32514,40 @@
         <v>64</v>
       </c>
       <c r="J372">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="K372">
         <v>3.25</v>
       </c>
       <c r="L372">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="M372">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N372">
         <v>3.25</v>
       </c>
       <c r="O372">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="P372">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q372">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R372">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S372">
         <v>2.25</v>
       </c>
       <c r="T372">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U372">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V372">
         <v>-1</v>
@@ -32556,19 +32556,19 @@
         <v>-1</v>
       </c>
       <c r="X372">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA372">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="373" spans="1:28">
@@ -32576,7 +32576,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7750644</v>
+        <v>7750642</v>
       </c>
       <c r="C373" t="s">
         <v>37</v>
@@ -32585,58 +32585,58 @@
         <v>45403.08333333334</v>
       </c>
       <c r="E373" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F373" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="s">
         <v>66</v>
       </c>
       <c r="J373">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="K373">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L373">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="M373">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N373">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O373">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="P373">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q373">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R373">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S373">
         <v>2.25</v>
       </c>
       <c r="T373">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U373">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V373">
-        <v>0.909</v>
+        <v>1.75</v>
       </c>
       <c r="W373">
         <v>-1</v>
@@ -32645,16 +32645,16 @@
         <v>-1</v>
       </c>
       <c r="Y373">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z373">
+        <v>-1</v>
+      </c>
+      <c r="AA373">
+        <v>-1</v>
+      </c>
+      <c r="AB373">
         <v>0.925</v>
-      </c>
-      <c r="Z373">
-        <v>-1</v>
-      </c>
-      <c r="AA373">
-        <v>0.8</v>
-      </c>
-      <c r="AB373">
-        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:28">
@@ -33632,31 +33632,31 @@
         <v>3</v>
       </c>
       <c r="M385">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N385">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O385">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P385">
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R385">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S385">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T385">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U385">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V385">
         <v>0</v>
@@ -33682,31 +33682,31 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E386" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F386" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J386">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="K386">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L386">
+        <v>4.5</v>
+      </c>
+      <c r="M386">
+        <v>1.75</v>
+      </c>
+      <c r="N386">
         <v>3.75</v>
       </c>
-      <c r="M386">
-        <v>2</v>
-      </c>
-      <c r="N386">
-        <v>3.2</v>
-      </c>
       <c r="O386">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P386">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q386">
         <v>2.025</v>
@@ -33718,10 +33718,10 @@
         <v>2.25</v>
       </c>
       <c r="T386">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U386">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V386">
         <v>0</v>
@@ -33747,46 +33747,46 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E387" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F387" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J387">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K387">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L387">
         <v>3.2</v>
       </c>
       <c r="M387">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N387">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O387">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P387">
         <v>-0.25</v>
       </c>
       <c r="Q387">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R387">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S387">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T387">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U387">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V387">
         <v>0</v>
@@ -33812,46 +33812,46 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E388" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F388" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J388">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="K388">
-        <v>4.25</v>
+        <v>3.2</v>
       </c>
       <c r="L388">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="M388">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="N388">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O388">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P388">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q388">
+        <v>1.8</v>
+      </c>
+      <c r="R388">
+        <v>2.05</v>
+      </c>
+      <c r="S388">
+        <v>2.25</v>
+      </c>
+      <c r="T388">
         <v>1.925</v>
       </c>
-      <c r="R388">
+      <c r="U388">
         <v>1.925</v>
-      </c>
-      <c r="S388">
-        <v>2.5</v>
-      </c>
-      <c r="T388">
-        <v>1.85</v>
-      </c>
-      <c r="U388">
-        <v>2</v>
       </c>
       <c r="V388">
         <v>0</v>
@@ -33877,46 +33877,46 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E389" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F389" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J389">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K389">
         <v>3.4</v>
       </c>
       <c r="L389">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M389">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="N389">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O389">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P389">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q389">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R389">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S389">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T389">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U389">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V389">
         <v>0</v>
@@ -33942,46 +33942,46 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E390" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F390" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J390">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="K390">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="L390">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="M390">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="N390">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O390">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="P390">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q390">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R390">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S390">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T390">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U390">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V390">
         <v>0</v>
@@ -34007,46 +34007,46 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E391" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F391" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J391">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K391">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L391">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M391">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N391">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O391">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="P391">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q391">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R391">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S391">
         <v>2.25</v>
       </c>
       <c r="T391">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U391">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V391">
         <v>0</v>
@@ -34108,10 +34108,10 @@
         <v>2.5</v>
       </c>
       <c r="T392">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U392">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V392">
         <v>0</v>
@@ -34152,31 +34152,31 @@
         <v>3.4</v>
       </c>
       <c r="M393">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N393">
         <v>3.5</v>
       </c>
       <c r="O393">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P393">
         <v>-0.25</v>
       </c>
       <c r="Q393">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R393">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S393">
         <v>2.5</v>
       </c>
       <c r="T393">
+        <v>1.95</v>
+      </c>
+      <c r="U393">
         <v>1.9</v>
-      </c>
-      <c r="U393">
-        <v>1.95</v>
       </c>
       <c r="V393">
         <v>0</v>
@@ -34217,31 +34217,31 @@
         <v>2.25</v>
       </c>
       <c r="M394">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N394">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O394">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="P394">
         <v>0.25</v>
       </c>
       <c r="Q394">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R394">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S394">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T394">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U394">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V394">
         <v>0</v>

--- a/Japan J2League/Japan J2League.xlsx
+++ b/Japan J2League/Japan J2League.xlsx
@@ -97,34 +97,34 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7750654</t>
+    <t>7750669</t>
   </si>
   <si>
-    <t>7750657</t>
+    <t>7750666</t>
   </si>
   <si>
-    <t>7750655</t>
+    <t>7750667</t>
   </si>
   <si>
-    <t>7750660</t>
+    <t>7750665</t>
   </si>
   <si>
-    <t>7750659</t>
+    <t>7750664</t>
   </si>
   <si>
-    <t>7750658</t>
+    <t>7750663</t>
   </si>
   <si>
-    <t>7750656</t>
+    <t>7749889</t>
   </si>
   <si>
-    <t>7749888</t>
+    <t>7750668</t>
   </si>
   <si>
-    <t>7750661</t>
+    <t>7750670</t>
   </si>
   <si>
-    <t>7750662</t>
+    <t>7750671</t>
   </si>
   <si>
     <t>Japan J2League</t>
@@ -3422,7 +3422,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6189142</v>
+        <v>6189140</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -3431,10 +3431,10 @@
         <v>45101.25</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3452,13 +3452,13 @@
         <v>3.1</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N34">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O34">
         <v>3.3</v>
@@ -3467,25 +3467,25 @@
         <v>-0.25</v>
       </c>
       <c r="Q34">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U34">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
         <v>-1</v>
       </c>
       <c r="W34">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3494,13 +3494,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z34">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3508,7 +3508,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6189141</v>
+        <v>6189142</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -3517,34 +3517,34 @@
         <v>45101.25</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J35">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="K35">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L35">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N35">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O35">
         <v>3.3</v>
@@ -3559,34 +3559,34 @@
         <v>1.925</v>
       </c>
       <c r="S35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T35">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U35">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
         <v>-1</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X35">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z35">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3594,7 +3594,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6189140</v>
+        <v>6189141</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -3603,34 +3603,34 @@
         <v>45101.25</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J36">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="K36">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L36">
+        <v>2.9</v>
+      </c>
+      <c r="M36">
+        <v>2.15</v>
+      </c>
+      <c r="N36">
         <v>3.5</v>
-      </c>
-      <c r="M36">
-        <v>2.375</v>
-      </c>
-      <c r="N36">
-        <v>3.1</v>
       </c>
       <c r="O36">
         <v>3.3</v>
@@ -3639,40 +3639,40 @@
         <v>-0.25</v>
       </c>
       <c r="Q36">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
         <v>-1</v>
       </c>
       <c r="W36">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -5486,7 +5486,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6189171</v>
+        <v>6189160</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
@@ -5495,70 +5495,70 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J58">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="K58">
+        <v>3.3</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>4.5</v>
+      </c>
+      <c r="N58">
         <v>3.8</v>
       </c>
-      <c r="L58">
-        <v>6</v>
-      </c>
-      <c r="M58">
-        <v>1.615</v>
-      </c>
-      <c r="N58">
-        <v>4</v>
-      </c>
       <c r="O58">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="P58">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R58">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
         <v>3</v>
       </c>
       <c r="T58">
+        <v>1.875</v>
+      </c>
+      <c r="U58">
         <v>1.975</v>
       </c>
-      <c r="U58">
-        <v>1.875</v>
-      </c>
       <c r="V58">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y58">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6189165</v>
+        <v>6189161</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
@@ -5581,76 +5581,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J59">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="K59">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="N59">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O59">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P59">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q59">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5658,7 +5658,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6189164</v>
+        <v>6189162</v>
       </c>
       <c r="C60" t="s">
         <v>37</v>
@@ -5667,13 +5667,13 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5682,43 +5682,43 @@
         <v>66</v>
       </c>
       <c r="J60">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L60">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="M60">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N60">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O60">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="P60">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q60">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T60">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U60">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V60">
-        <v>3.333</v>
+        <v>1.15</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5727,13 +5727,13 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB60">
         <v>-1</v>
@@ -5744,7 +5744,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6189172</v>
+        <v>6189174</v>
       </c>
       <c r="C61" t="s">
         <v>37</v>
@@ -5753,13 +5753,13 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -5768,40 +5768,40 @@
         <v>64</v>
       </c>
       <c r="J61">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="K61">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="M61">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N61">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="O61">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="P61">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q61">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R61">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
         <v>-1</v>
@@ -5810,16 +5810,16 @@
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
@@ -5916,7 +5916,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6189174</v>
+        <v>6189163</v>
       </c>
       <c r="C63" t="s">
         <v>37</v>
@@ -5925,76 +5925,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F63" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L63">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="M63">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N63">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="O63">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="P63">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q63">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T63">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
         <v>-1</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X63">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -6002,7 +6002,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6189162</v>
+        <v>6189164</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
@@ -6011,13 +6011,13 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6026,43 +6026,43 @@
         <v>66</v>
       </c>
       <c r="J64">
+        <v>3.4</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>2.2</v>
+      </c>
+      <c r="M64">
+        <v>4.333</v>
+      </c>
+      <c r="N64">
+        <v>3.3</v>
+      </c>
+      <c r="O64">
+        <v>1.909</v>
+      </c>
+      <c r="P64">
+        <v>0.5</v>
+      </c>
+      <c r="Q64">
+        <v>1.9</v>
+      </c>
+      <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
         <v>2.5</v>
       </c>
-      <c r="K64">
-        <v>3.1</v>
-      </c>
-      <c r="L64">
-        <v>2.75</v>
-      </c>
-      <c r="M64">
-        <v>2.15</v>
-      </c>
-      <c r="N64">
-        <v>3.2</v>
-      </c>
-      <c r="O64">
-        <v>3.6</v>
-      </c>
-      <c r="P64">
-        <v>-0.25</v>
-      </c>
-      <c r="Q64">
-        <v>1.85</v>
-      </c>
-      <c r="R64">
-        <v>2</v>
-      </c>
-      <c r="S64">
-        <v>2.25</v>
-      </c>
       <c r="T64">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U64">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.15</v>
+        <v>3.333</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6071,13 +6071,13 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB64">
         <v>-1</v>
@@ -6088,7 +6088,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6189161</v>
+        <v>6189165</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
@@ -6097,76 +6097,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J65">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="K65">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N65">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="O65">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P65">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q65">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R65">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T65">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y65">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6174,7 +6174,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6189160</v>
+        <v>6189171</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>
@@ -6183,70 +6183,70 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J66">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="K66">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M66">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N66">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="P66">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q66">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S66">
         <v>3</v>
       </c>
       <c r="T66">
+        <v>1.975</v>
+      </c>
+      <c r="U66">
         <v>1.875</v>
       </c>
-      <c r="U66">
-        <v>1.975</v>
-      </c>
       <c r="V66">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
         <v>0</v>
@@ -6260,7 +6260,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6189163</v>
+        <v>6189172</v>
       </c>
       <c r="C67" t="s">
         <v>37</v>
@@ -6269,76 +6269,76 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J67">
+        <v>1.909</v>
+      </c>
+      <c r="K67">
+        <v>3.3</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>2.25</v>
+      </c>
+      <c r="N67">
+        <v>3.4</v>
+      </c>
+      <c r="O67">
         <v>3.2</v>
       </c>
-      <c r="K67">
-        <v>3.2</v>
-      </c>
-      <c r="L67">
-        <v>2.15</v>
-      </c>
-      <c r="M67">
-        <v>4.75</v>
-      </c>
-      <c r="N67">
-        <v>3.8</v>
-      </c>
-      <c r="O67">
-        <v>1.727</v>
-      </c>
       <c r="P67">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q67">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
         <v>2.5</v>
       </c>
       <c r="T67">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
         <v>-1</v>
       </c>
       <c r="W67">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB67">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6346,7 +6346,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6189178</v>
+        <v>6189179</v>
       </c>
       <c r="C68" t="s">
         <v>37</v>
@@ -6355,49 +6355,49 @@
         <v>45116.25</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J68">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="M68">
         <v>2.625</v>
       </c>
       <c r="N68">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="R68">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="T68">
         <v>1.85</v>
@@ -6409,16 +6409,16 @@
         <v>-1</v>
       </c>
       <c r="W68">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA68">
         <v>0.8500000000000001</v>
@@ -6432,7 +6432,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6189177</v>
+        <v>6189178</v>
       </c>
       <c r="C69" t="s">
         <v>37</v>
@@ -6441,10 +6441,10 @@
         <v>45116.25</v>
       </c>
       <c r="E69" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6456,58 +6456,58 @@
         <v>65</v>
       </c>
       <c r="J69">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="K69">
         <v>3</v>
       </c>
       <c r="L69">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O69">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="P69">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q69">
+        <v>1.775</v>
+      </c>
+      <c r="R69">
+        <v>2.1</v>
+      </c>
+      <c r="S69">
+        <v>1.75</v>
+      </c>
+      <c r="T69">
         <v>1.85</v>
       </c>
-      <c r="R69">
-        <v>2</v>
-      </c>
-      <c r="S69">
-        <v>2</v>
-      </c>
-      <c r="T69">
-        <v>1.825</v>
-      </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V69">
         <v>-1</v>
       </c>
       <c r="W69">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB69">
         <v>-1</v>
@@ -6518,7 +6518,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6189176</v>
+        <v>6189177</v>
       </c>
       <c r="C70" t="s">
         <v>37</v>
@@ -6527,73 +6527,73 @@
         <v>45116.25</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>65</v>
+      </c>
+      <c r="J70">
+        <v>3.1</v>
+      </c>
+      <c r="K70">
         <v>3</v>
       </c>
-      <c r="I70" t="s">
-        <v>66</v>
-      </c>
-      <c r="J70">
+      <c r="L70">
+        <v>2.3</v>
+      </c>
+      <c r="M70">
+        <v>3.2</v>
+      </c>
+      <c r="N70">
+        <v>3.2</v>
+      </c>
+      <c r="O70">
+        <v>2.375</v>
+      </c>
+      <c r="P70">
+        <v>0.25</v>
+      </c>
+      <c r="Q70">
+        <v>1.85</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>2</v>
+      </c>
+      <c r="T70">
+        <v>1.825</v>
+      </c>
+      <c r="U70">
+        <v>2.025</v>
+      </c>
+      <c r="V70">
+        <v>-1</v>
+      </c>
+      <c r="W70">
         <v>2.2</v>
       </c>
-      <c r="K70">
-        <v>3.25</v>
-      </c>
-      <c r="L70">
-        <v>3</v>
-      </c>
-      <c r="M70">
-        <v>2.45</v>
-      </c>
-      <c r="N70">
-        <v>3.4</v>
-      </c>
-      <c r="O70">
-        <v>2.9</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>1.8</v>
-      </c>
-      <c r="R70">
-        <v>2.05</v>
-      </c>
-      <c r="S70">
-        <v>2.5</v>
-      </c>
-      <c r="T70">
-        <v>2.025</v>
-      </c>
-      <c r="U70">
-        <v>1.825</v>
-      </c>
-      <c r="V70">
-        <v>1.45</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6604,7 +6604,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6189179</v>
+        <v>6189180</v>
       </c>
       <c r="C71" t="s">
         <v>37</v>
@@ -6613,56 +6613,56 @@
         <v>45116.25</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F71" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>1</v>
-      </c>
-      <c r="H71">
-        <v>4</v>
       </c>
       <c r="I71" t="s">
         <v>64</v>
       </c>
       <c r="J71">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="K71">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L71">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="M71">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N71">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O71">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S71">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T71">
+        <v>2</v>
+      </c>
+      <c r="U71">
         <v>1.85</v>
       </c>
-      <c r="U71">
-        <v>2</v>
-      </c>
       <c r="V71">
         <v>-1</v>
       </c>
@@ -6670,19 +6670,19 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB71">
-        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6776,7 +6776,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6189180</v>
+        <v>6189176</v>
       </c>
       <c r="C73" t="s">
         <v>37</v>
@@ -6785,34 +6785,34 @@
         <v>45116.25</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J73">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="K73">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L73">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N73">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O73">
         <v>2.9</v>
@@ -6821,40 +6821,40 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R73">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z73">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6862,7 +6862,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6189183</v>
+        <v>6189185</v>
       </c>
       <c r="C74" t="s">
         <v>37</v>
@@ -6871,76 +6871,76 @@
         <v>45116.29166666666</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J74">
+        <v>3.8</v>
+      </c>
+      <c r="K74">
+        <v>3.4</v>
+      </c>
+      <c r="L74">
+        <v>1.909</v>
+      </c>
+      <c r="M74">
+        <v>4.5</v>
+      </c>
+      <c r="N74">
+        <v>3.8</v>
+      </c>
+      <c r="O74">
         <v>1.727</v>
       </c>
-      <c r="K74">
-        <v>3.5</v>
-      </c>
-      <c r="L74">
-        <v>4.333</v>
-      </c>
-      <c r="M74">
-        <v>1.727</v>
-      </c>
-      <c r="N74">
-        <v>3.75</v>
-      </c>
-      <c r="O74">
-        <v>4.75</v>
-      </c>
       <c r="P74">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
+        <v>-1</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
         <v>0.7270000000000001</v>
       </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
       <c r="Y74">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z74">
+        <v>0.475</v>
+      </c>
+      <c r="AA74">
+        <v>0.4625</v>
+      </c>
+      <c r="AB74">
         <v>-0.5</v>
-      </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6948,7 +6948,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6189184</v>
+        <v>6189183</v>
       </c>
       <c r="C75" t="s">
         <v>37</v>
@@ -6957,76 +6957,76 @@
         <v>45116.29166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J75">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L75">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O75">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q75">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R75">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T75">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W75">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -7034,7 +7034,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6189185</v>
+        <v>6189184</v>
       </c>
       <c r="C76" t="s">
         <v>37</v>
@@ -7043,76 +7043,76 @@
         <v>45116.29166666666</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F76" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J76">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="K76">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="M76">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N76">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O76">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="P76">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T76">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
         <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X76">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
         <v>-0.5</v>
       </c>
-      <c r="Z76">
-        <v>0.475</v>
-      </c>
-      <c r="AA76">
-        <v>0.4625</v>
-      </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7808,7 +7808,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6189195</v>
+        <v>6189196</v>
       </c>
       <c r="C85" t="s">
         <v>37</v>
@@ -7817,13 +7817,13 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -7832,43 +7832,43 @@
         <v>66</v>
       </c>
       <c r="J85">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="K85">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L85">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="M85">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="N85">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O85">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="P85">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q85">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T85">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>0.5</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -7877,16 +7877,16 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7894,7 +7894,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6189194</v>
+        <v>6189195</v>
       </c>
       <c r="C86" t="s">
         <v>37</v>
@@ -7903,76 +7903,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J86">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="K86">
+        <v>3.4</v>
+      </c>
+      <c r="L86">
+        <v>2.2</v>
+      </c>
+      <c r="M86">
         <v>2.875</v>
       </c>
-      <c r="L86">
-        <v>3.25</v>
-      </c>
-      <c r="M86">
-        <v>3</v>
-      </c>
       <c r="N86">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O86">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q86">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="R86">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T86">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U86">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB86">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7980,7 +7980,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6189196</v>
+        <v>6189194</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -7989,76 +7989,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J87">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="K87">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L87">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M87">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O87">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="P87">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q87">
+        <v>2.1</v>
+      </c>
+      <c r="R87">
+        <v>1.775</v>
+      </c>
+      <c r="S87">
+        <v>2</v>
+      </c>
+      <c r="T87">
+        <v>1.8</v>
+      </c>
+      <c r="U87">
         <v>2.05</v>
       </c>
-      <c r="R87">
-        <v>1.8</v>
-      </c>
-      <c r="S87">
-        <v>3.25</v>
-      </c>
-      <c r="T87">
-        <v>1.975</v>
-      </c>
-      <c r="U87">
-        <v>1.875</v>
-      </c>
       <c r="V87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
         <v>1.05</v>
-      </c>
-      <c r="Z87">
-        <v>-1</v>
-      </c>
-      <c r="AA87">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -10044,7 +10044,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6189219</v>
+        <v>6189220</v>
       </c>
       <c r="C111" t="s">
         <v>37</v>
@@ -10053,40 +10053,40 @@
         <v>45143.29166666666</v>
       </c>
       <c r="E111" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G111">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="s">
         <v>64</v>
       </c>
       <c r="J111">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="K111">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L111">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M111">
         <v>3.4</v>
       </c>
       <c r="N111">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O111">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="P111">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q111">
         <v>1.825</v>
@@ -10095,13 +10095,13 @@
         <v>2.025</v>
       </c>
       <c r="S111">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T111">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V111">
         <v>-1</v>
@@ -10110,7 +10110,7 @@
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="Y111">
         <v>-1</v>
@@ -10119,10 +10119,10 @@
         <v>1.025</v>
       </c>
       <c r="AA111">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10130,7 +10130,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6189220</v>
+        <v>6189219</v>
       </c>
       <c r="C112" t="s">
         <v>37</v>
@@ -10139,40 +10139,40 @@
         <v>45143.29166666666</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G112">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112" t="s">
         <v>64</v>
       </c>
       <c r="J112">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="K112">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L112">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M112">
         <v>3.4</v>
       </c>
       <c r="N112">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O112">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="P112">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q112">
         <v>1.825</v>
@@ -10181,13 +10181,13 @@
         <v>2.025</v>
       </c>
       <c r="S112">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T112">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
         <v>-1</v>
@@ -10196,7 +10196,7 @@
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="Y112">
         <v>-1</v>
@@ -10205,10 +10205,10 @@
         <v>1.025</v>
       </c>
       <c r="AA112">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -12452,7 +12452,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6291569</v>
+        <v>6291568</v>
       </c>
       <c r="C139" t="s">
         <v>37</v>
@@ -12461,10 +12461,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F139" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12476,43 +12476,43 @@
         <v>66</v>
       </c>
       <c r="J139">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="K139">
+        <v>3.5</v>
+      </c>
+      <c r="L139">
+        <v>3.6</v>
+      </c>
+      <c r="M139">
+        <v>2.375</v>
+      </c>
+      <c r="N139">
+        <v>3.2</v>
+      </c>
+      <c r="O139">
         <v>3.1</v>
       </c>
-      <c r="L139">
-        <v>2.875</v>
-      </c>
-      <c r="M139">
-        <v>2.625</v>
-      </c>
-      <c r="N139">
-        <v>3.1</v>
-      </c>
-      <c r="O139">
-        <v>2.9</v>
-      </c>
       <c r="P139">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q139">
+        <v>2.05</v>
+      </c>
+      <c r="R139">
         <v>1.8</v>
       </c>
-      <c r="R139">
-        <v>2.05</v>
-      </c>
       <c r="S139">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T139">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V139">
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12521,7 +12521,7 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="Z139">
         <v>-1</v>
@@ -12530,7 +12530,7 @@
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12538,7 +12538,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6291568</v>
+        <v>6291569</v>
       </c>
       <c r="C140" t="s">
         <v>37</v>
@@ -12547,10 +12547,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E140" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12562,43 +12562,43 @@
         <v>66</v>
       </c>
       <c r="J140">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="K140">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M140">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N140">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q140">
+        <v>1.8</v>
+      </c>
+      <c r="R140">
         <v>2.05</v>
       </c>
-      <c r="R140">
+      <c r="S140">
+        <v>2.25</v>
+      </c>
+      <c r="T140">
+        <v>2.05</v>
+      </c>
+      <c r="U140">
         <v>1.8</v>
       </c>
-      <c r="S140">
-        <v>2.5</v>
-      </c>
-      <c r="T140">
-        <v>1.975</v>
-      </c>
-      <c r="U140">
-        <v>1.875</v>
-      </c>
       <c r="V140">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12607,7 +12607,7 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="Z140">
         <v>-1</v>
@@ -12616,7 +12616,7 @@
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -15978,7 +15978,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6418193</v>
+        <v>6418190</v>
       </c>
       <c r="C180" t="s">
         <v>37</v>
@@ -15987,76 +15987,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="E180" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F180" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180" t="s">
+        <v>64</v>
+      </c>
+      <c r="J180">
+        <v>3.3</v>
+      </c>
+      <c r="K180">
+        <v>3.1</v>
+      </c>
+      <c r="L180">
+        <v>2.2</v>
+      </c>
+      <c r="M180">
+        <v>3.6</v>
+      </c>
+      <c r="N180">
         <v>3</v>
       </c>
-      <c r="H180">
-        <v>3</v>
-      </c>
-      <c r="I180" t="s">
-        <v>65</v>
-      </c>
-      <c r="J180">
-        <v>1.909</v>
-      </c>
-      <c r="K180">
-        <v>3.5</v>
-      </c>
-      <c r="L180">
-        <v>3.8</v>
-      </c>
-      <c r="M180">
-        <v>1.95</v>
-      </c>
-      <c r="N180">
-        <v>3.5</v>
-      </c>
       <c r="O180">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="P180">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q180">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T180">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V180">
         <v>-1</v>
       </c>
       <c r="W180">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16064,7 +16064,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6418192</v>
+        <v>6418193</v>
       </c>
       <c r="C181" t="s">
         <v>37</v>
@@ -16073,61 +16073,61 @@
         <v>45185.29166666666</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F181" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I181" t="s">
         <v>65</v>
       </c>
       <c r="J181">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="K181">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L181">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M181">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="N181">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O181">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q181">
+        <v>2.025</v>
+      </c>
+      <c r="R181">
+        <v>1.825</v>
+      </c>
+      <c r="S181">
+        <v>2.25</v>
+      </c>
+      <c r="T181">
+        <v>1.95</v>
+      </c>
+      <c r="U181">
         <v>1.9</v>
       </c>
-      <c r="R181">
-        <v>1.95</v>
-      </c>
-      <c r="S181">
-        <v>3</v>
-      </c>
-      <c r="T181">
-        <v>1.925</v>
-      </c>
-      <c r="U181">
-        <v>1.925</v>
-      </c>
       <c r="V181">
         <v>-1</v>
       </c>
       <c r="W181">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16136,13 +16136,13 @@
         <v>-1</v>
       </c>
       <c r="Z181">
+        <v>0.825</v>
+      </c>
+      <c r="AA181">
         <v>0.95</v>
       </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
       <c r="AB181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16150,7 +16150,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6418190</v>
+        <v>6418192</v>
       </c>
       <c r="C182" t="s">
         <v>37</v>
@@ -16159,76 +16159,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="E182" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J182">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="K182">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L182">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="M182">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="N182">
+        <v>5</v>
+      </c>
+      <c r="O182">
+        <v>9.5</v>
+      </c>
+      <c r="P182">
+        <v>-1.5</v>
+      </c>
+      <c r="Q182">
+        <v>1.9</v>
+      </c>
+      <c r="R182">
+        <v>1.95</v>
+      </c>
+      <c r="S182">
         <v>3</v>
       </c>
-      <c r="O182">
-        <v>2.2</v>
-      </c>
-      <c r="P182">
-        <v>0.25</v>
-      </c>
-      <c r="Q182">
-        <v>1.975</v>
-      </c>
-      <c r="R182">
-        <v>1.875</v>
-      </c>
-      <c r="S182">
-        <v>2</v>
-      </c>
       <c r="T182">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U182">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
         <v>-1</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X182">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -17870,7 +17870,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6480225</v>
+        <v>6501070</v>
       </c>
       <c r="C202" t="s">
         <v>37</v>
@@ -17879,73 +17879,73 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F202" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H202">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I202" t="s">
         <v>64</v>
       </c>
       <c r="J202">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="K202">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L202">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="M202">
+        <v>1.909</v>
+      </c>
+      <c r="N202">
+        <v>3.6</v>
+      </c>
+      <c r="O202">
+        <v>4</v>
+      </c>
+      <c r="P202">
+        <v>-0.5</v>
+      </c>
+      <c r="Q202">
+        <v>1.9</v>
+      </c>
+      <c r="R202">
+        <v>1.95</v>
+      </c>
+      <c r="S202">
+        <v>2.25</v>
+      </c>
+      <c r="T202">
+        <v>1.825</v>
+      </c>
+      <c r="U202">
+        <v>2.025</v>
+      </c>
+      <c r="V202">
+        <v>-1</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
         <v>3</v>
       </c>
-      <c r="N202">
-        <v>3.4</v>
-      </c>
-      <c r="O202">
-        <v>2.375</v>
-      </c>
-      <c r="P202">
-        <v>0.25</v>
-      </c>
-      <c r="Q202">
-        <v>1.8</v>
-      </c>
-      <c r="R202">
-        <v>2.05</v>
-      </c>
-      <c r="S202">
-        <v>2.5</v>
-      </c>
-      <c r="T202">
-        <v>2.025</v>
-      </c>
-      <c r="U202">
-        <v>1.825</v>
-      </c>
-      <c r="V202">
-        <v>-1</v>
-      </c>
-      <c r="W202">
-        <v>-1</v>
-      </c>
-      <c r="X202">
-        <v>1.375</v>
-      </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA202">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB202">
         <v>-1</v>
@@ -17956,7 +17956,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6501070</v>
+        <v>6480225</v>
       </c>
       <c r="C203" t="s">
         <v>37</v>
@@ -17965,56 +17965,56 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I203" t="s">
         <v>64</v>
       </c>
       <c r="J203">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="K203">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L203">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="M203">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N203">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="P203">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q203">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R203">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T203">
+        <v>2.025</v>
+      </c>
+      <c r="U203">
         <v>1.825</v>
       </c>
-      <c r="U203">
-        <v>2.025</v>
-      </c>
       <c r="V203">
         <v>-1</v>
       </c>
@@ -18022,16 +18022,16 @@
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>3</v>
+        <v>1.375</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA203">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB203">
         <v>-1</v>
@@ -18042,7 +18042,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6501069</v>
+        <v>6501074</v>
       </c>
       <c r="C204" t="s">
         <v>37</v>
@@ -18051,76 +18051,76 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F204" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G204">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J204">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="K204">
+        <v>4</v>
+      </c>
+      <c r="L204">
+        <v>4.75</v>
+      </c>
+      <c r="M204">
+        <v>1.571</v>
+      </c>
+      <c r="N204">
+        <v>4.333</v>
+      </c>
+      <c r="O204">
+        <v>5.25</v>
+      </c>
+      <c r="P204">
+        <v>-1</v>
+      </c>
+      <c r="Q204">
+        <v>2.025</v>
+      </c>
+      <c r="R204">
+        <v>1.825</v>
+      </c>
+      <c r="S204">
         <v>3</v>
       </c>
-      <c r="L204">
-        <v>3.4</v>
-      </c>
-      <c r="M204">
-        <v>2.625</v>
-      </c>
-      <c r="N204">
-        <v>2.9</v>
-      </c>
-      <c r="O204">
-        <v>3.1</v>
-      </c>
-      <c r="P204">
-        <v>-0.25</v>
-      </c>
-      <c r="Q204">
-        <v>2.1</v>
-      </c>
-      <c r="R204">
-        <v>1.7</v>
-      </c>
-      <c r="S204">
-        <v>1.75</v>
-      </c>
       <c r="T204">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U204">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z204">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AA204">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18300,7 +18300,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6501074</v>
+        <v>6501069</v>
       </c>
       <c r="C207" t="s">
         <v>37</v>
@@ -18309,76 +18309,76 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F207" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G207">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J207">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="K207">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L207">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M207">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N207">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="O207">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P207">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q207">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="R207">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S207">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="T207">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U207">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB207">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -20536,7 +20536,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6535081</v>
+        <v>6555444</v>
       </c>
       <c r="C233" t="s">
         <v>37</v>
@@ -20545,76 +20545,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E233" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F233" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G233">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J233">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="K233">
         <v>3.6</v>
       </c>
       <c r="L233">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M233">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="N233">
         <v>3.5</v>
       </c>
       <c r="O233">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P233">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q233">
+        <v>2.05</v>
+      </c>
+      <c r="R233">
         <v>1.8</v>
       </c>
-      <c r="R233">
-        <v>2.05</v>
-      </c>
       <c r="S233">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T233">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U233">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V233">
         <v>-1</v>
       </c>
       <c r="W233">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.5249999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB233">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:28">
@@ -20622,7 +20622,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6555444</v>
+        <v>6535081</v>
       </c>
       <c r="C234" t="s">
         <v>37</v>
@@ -20631,76 +20631,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E234" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F234" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G234">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J234">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="K234">
         <v>3.6</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M234">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N234">
         <v>3.5</v>
       </c>
       <c r="O234">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P234">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q234">
+        <v>1.8</v>
+      </c>
+      <c r="R234">
         <v>2.05</v>
       </c>
-      <c r="R234">
-        <v>1.8</v>
-      </c>
       <c r="S234">
+        <v>2.25</v>
+      </c>
+      <c r="T234">
+        <v>1.825</v>
+      </c>
+      <c r="U234">
+        <v>2.025</v>
+      </c>
+      <c r="V234">
+        <v>-1</v>
+      </c>
+      <c r="W234">
         <v>2.5</v>
       </c>
-      <c r="T234">
-        <v>1.9</v>
-      </c>
-      <c r="U234">
-        <v>1.95</v>
-      </c>
-      <c r="V234">
-        <v>-1</v>
-      </c>
-      <c r="W234">
-        <v>-1</v>
-      </c>
       <c r="X234">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z234">
-        <v>0.8</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA234">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="235" spans="1:28">
@@ -25180,7 +25180,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7750565</v>
+        <v>7749878</v>
       </c>
       <c r="C287" t="s">
         <v>37</v>
@@ -25189,73 +25189,73 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E287" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F287" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G287">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J287">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="K287">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L287">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="M287">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N287">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O287">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P287">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q287">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="R287">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S287">
         <v>2.25</v>
       </c>
       <c r="T287">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U287">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V287">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y287">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA287">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB287">
         <v>-1</v>
@@ -25266,7 +25266,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7749878</v>
+        <v>7750565</v>
       </c>
       <c r="C288" t="s">
         <v>37</v>
@@ -25275,73 +25275,73 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E288" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F288" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G288">
+        <v>3</v>
+      </c>
+      <c r="H288">
         <v>1</v>
       </c>
-      <c r="H288">
-        <v>2</v>
-      </c>
       <c r="I288" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J288">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="K288">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L288">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="M288">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="N288">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O288">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P288">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q288">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="R288">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S288">
         <v>2.25</v>
       </c>
       <c r="T288">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U288">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V288">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="Z288">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB288">
         <v>-1</v>
@@ -29308,7 +29308,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7750614</v>
+        <v>7750615</v>
       </c>
       <c r="C335" t="s">
         <v>37</v>
@@ -29317,34 +29317,34 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E335" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F335" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G335">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I335" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J335">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="K335">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L335">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="M335">
         <v>1.615</v>
       </c>
       <c r="N335">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O335">
         <v>6</v>
@@ -29353,40 +29353,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q335">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R335">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S335">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T335">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U335">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V335">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W335">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X335">
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA335">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="336" spans="1:28">
@@ -29394,7 +29394,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7750615</v>
+        <v>7750616</v>
       </c>
       <c r="C336" t="s">
         <v>37</v>
@@ -29403,76 +29403,76 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E336" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F336" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G336">
         <v>1</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I336" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J336">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="K336">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L336">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="M336">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="N336">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O336">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="P336">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q336">
+        <v>1.95</v>
+      </c>
+      <c r="R336">
+        <v>1.9</v>
+      </c>
+      <c r="S336">
+        <v>2</v>
+      </c>
+      <c r="T336">
         <v>1.8</v>
       </c>
-      <c r="R336">
+      <c r="U336">
         <v>2.05</v>
       </c>
-      <c r="S336">
-        <v>2.5</v>
-      </c>
-      <c r="T336">
-        <v>1.875</v>
-      </c>
-      <c r="U336">
-        <v>1.975</v>
-      </c>
       <c r="V336">
         <v>-1</v>
       </c>
       <c r="W336">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X336">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA336">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB336">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:28">
@@ -29480,7 +29480,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7750616</v>
+        <v>7750614</v>
       </c>
       <c r="C337" t="s">
         <v>37</v>
@@ -29489,73 +29489,73 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E337" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F337" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G337">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J337">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="K337">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L337">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M337">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="N337">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O337">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="P337">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q337">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R337">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S337">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T337">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U337">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V337">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W337">
         <v>-1</v>
       </c>
       <c r="X337">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y337">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z337">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB337">
         <v>-1</v>
@@ -29566,7 +29566,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7749883</v>
+        <v>7750610</v>
       </c>
       <c r="C338" t="s">
         <v>37</v>
@@ -29575,40 +29575,40 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E338" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F338" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="s">
         <v>64</v>
       </c>
       <c r="J338">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="K338">
         <v>3.25</v>
       </c>
       <c r="L338">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="M338">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N338">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O338">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P338">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q338">
         <v>1.925</v>
@@ -29617,13 +29617,13 @@
         <v>1.925</v>
       </c>
       <c r="S338">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T338">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U338">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V338">
         <v>-1</v>
@@ -29632,7 +29632,7 @@
         <v>-1</v>
       </c>
       <c r="X338">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="Y338">
         <v>-1</v>
@@ -29641,10 +29641,10 @@
         <v>0.925</v>
       </c>
       <c r="AA338">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB338">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:28">
@@ -29652,7 +29652,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7750610</v>
+        <v>7749883</v>
       </c>
       <c r="C339" t="s">
         <v>37</v>
@@ -29661,40 +29661,40 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E339" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F339" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
         <v>1</v>
-      </c>
-      <c r="H339">
-        <v>2</v>
       </c>
       <c r="I339" t="s">
         <v>64</v>
       </c>
       <c r="J339">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="K339">
         <v>3.25</v>
       </c>
       <c r="L339">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="M339">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N339">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O339">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P339">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q339">
         <v>1.925</v>
@@ -29703,13 +29703,13 @@
         <v>1.925</v>
       </c>
       <c r="S339">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T339">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U339">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V339">
         <v>-1</v>
@@ -29718,7 +29718,7 @@
         <v>-1</v>
       </c>
       <c r="X339">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="Y339">
         <v>-1</v>
@@ -29727,10 +29727,10 @@
         <v>0.925</v>
       </c>
       <c r="AA339">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB339">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="340" spans="1:28">
@@ -30254,7 +30254,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7750621</v>
+        <v>7749884</v>
       </c>
       <c r="C346" t="s">
         <v>37</v>
@@ -30263,76 +30263,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E346" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F346" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G346">
         <v>0</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I346" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J346">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K346">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L346">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M346">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N346">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O346">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="P346">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q346">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R346">
+        <v>2.025</v>
+      </c>
+      <c r="S346">
+        <v>2.5</v>
+      </c>
+      <c r="T346">
+        <v>2</v>
+      </c>
+      <c r="U346">
         <v>1.85</v>
       </c>
-      <c r="S346">
-        <v>2</v>
-      </c>
-      <c r="T346">
-        <v>1.95</v>
-      </c>
-      <c r="U346">
-        <v>1.9</v>
-      </c>
       <c r="V346">
         <v>-1</v>
       </c>
       <c r="W346">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y346">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA346">
         <v>-1</v>
       </c>
       <c r="AB346">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:28">
@@ -30340,7 +30340,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7749884</v>
+        <v>7750620</v>
       </c>
       <c r="C347" t="s">
         <v>37</v>
@@ -30349,76 +30349,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E347" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F347" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J347">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="K347">
+        <v>3.4</v>
+      </c>
+      <c r="L347">
+        <v>4</v>
+      </c>
+      <c r="M347">
+        <v>2.375</v>
+      </c>
+      <c r="N347">
         <v>3.3</v>
       </c>
-      <c r="L347">
-        <v>2.1</v>
-      </c>
-      <c r="M347">
-        <v>3.75</v>
-      </c>
-      <c r="N347">
-        <v>3.4</v>
-      </c>
       <c r="O347">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="P347">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q347">
+        <v>2.025</v>
+      </c>
+      <c r="R347">
         <v>1.825</v>
-      </c>
-      <c r="R347">
-        <v>2.025</v>
       </c>
       <c r="S347">
         <v>2.5</v>
       </c>
       <c r="T347">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U347">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V347">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z347">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
         <v>-1</v>
       </c>
       <c r="AB347">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="348" spans="1:28">
@@ -30426,7 +30426,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7750620</v>
+        <v>7750625</v>
       </c>
       <c r="C348" t="s">
         <v>37</v>
@@ -30435,46 +30435,46 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E348" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F348" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G348">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I348" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J348">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="K348">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="M348">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N348">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O348">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="P348">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q348">
+        <v>1.825</v>
+      </c>
+      <c r="R348">
         <v>2.025</v>
-      </c>
-      <c r="R348">
-        <v>1.825</v>
       </c>
       <c r="S348">
         <v>2.5</v>
@@ -30486,19 +30486,19 @@
         <v>1.875</v>
       </c>
       <c r="V348">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W348">
         <v>-1</v>
       </c>
       <c r="X348">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y348">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="Z348">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA348">
         <v>-1</v>
@@ -30512,7 +30512,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>7750625</v>
+        <v>7750621</v>
       </c>
       <c r="C349" t="s">
         <v>37</v>
@@ -30521,76 +30521,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E349" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F349" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G349">
         <v>0</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J349">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="K349">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="L349">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="M349">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N349">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O349">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="P349">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q349">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R349">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S349">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T349">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U349">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V349">
         <v>-1</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X349">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y349">
+        <v>0.5</v>
+      </c>
+      <c r="Z349">
         <v>-0.5</v>
       </c>
-      <c r="Z349">
-        <v>0.5125</v>
-      </c>
       <c r="AA349">
         <v>-1</v>
       </c>
       <c r="AB349">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="350" spans="1:28">
@@ -30684,7 +30684,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7750623</v>
+        <v>7750624</v>
       </c>
       <c r="C351" t="s">
         <v>37</v>
@@ -30693,46 +30693,46 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E351" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F351" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="s">
         <v>65</v>
       </c>
       <c r="J351">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="K351">
+        <v>3.2</v>
+      </c>
+      <c r="L351">
+        <v>2.15</v>
+      </c>
+      <c r="M351">
+        <v>4</v>
+      </c>
+      <c r="N351">
         <v>3.4</v>
       </c>
-      <c r="L351">
-        <v>4.75</v>
-      </c>
-      <c r="M351">
+      <c r="O351">
         <v>1.95</v>
       </c>
-      <c r="N351">
-        <v>3.3</v>
-      </c>
-      <c r="O351">
-        <v>4.2</v>
-      </c>
       <c r="P351">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q351">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R351">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S351">
         <v>2.5</v>
@@ -30747,22 +30747,22 @@
         <v>-1</v>
       </c>
       <c r="W351">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z351">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB351">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="352" spans="1:28">
@@ -30856,7 +30856,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7750624</v>
+        <v>7750623</v>
       </c>
       <c r="C353" t="s">
         <v>37</v>
@@ -30865,46 +30865,46 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E353" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F353" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="s">
         <v>65</v>
       </c>
       <c r="J353">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="K353">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L353">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="M353">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N353">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O353">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="P353">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q353">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R353">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S353">
         <v>2.5</v>
@@ -30919,22 +30919,22 @@
         <v>-1</v>
       </c>
       <c r="W353">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA353">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB353">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:28">
@@ -31630,7 +31630,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7749885</v>
+        <v>7750634</v>
       </c>
       <c r="C362" t="s">
         <v>37</v>
@@ -31639,76 +31639,76 @@
         <v>45396.08333333334</v>
       </c>
       <c r="E362" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F362" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G362">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H362">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="s">
         <v>65</v>
       </c>
       <c r="J362">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="K362">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L362">
+        <v>2.3</v>
+      </c>
+      <c r="M362">
+        <v>2.75</v>
+      </c>
+      <c r="N362">
+        <v>3</v>
+      </c>
+      <c r="O362">
+        <v>2.4</v>
+      </c>
+      <c r="P362">
+        <v>0</v>
+      </c>
+      <c r="Q362">
         <v>2.1</v>
       </c>
-      <c r="M362">
-        <v>3.1</v>
-      </c>
-      <c r="N362">
-        <v>3.4</v>
-      </c>
-      <c r="O362">
-        <v>2.2</v>
-      </c>
-      <c r="P362">
-        <v>0.25</v>
-      </c>
-      <c r="Q362">
-        <v>1.9</v>
-      </c>
       <c r="R362">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S362">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T362">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U362">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V362">
         <v>-1</v>
       </c>
       <c r="W362">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="X362">
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="Z362">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA362">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB362">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="363" spans="1:28">
@@ -31802,7 +31802,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7750634</v>
+        <v>7749885</v>
       </c>
       <c r="C364" t="s">
         <v>37</v>
@@ -31811,76 +31811,76 @@
         <v>45396.08333333334</v>
       </c>
       <c r="E364" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F364" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G364">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I364" t="s">
         <v>65</v>
       </c>
       <c r="J364">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="K364">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L364">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M364">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N364">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O364">
+        <v>2.2</v>
+      </c>
+      <c r="P364">
+        <v>0.25</v>
+      </c>
+      <c r="Q364">
+        <v>1.9</v>
+      </c>
+      <c r="R364">
+        <v>1.95</v>
+      </c>
+      <c r="S364">
+        <v>2.5</v>
+      </c>
+      <c r="T364">
+        <v>2</v>
+      </c>
+      <c r="U364">
+        <v>1.85</v>
+      </c>
+      <c r="V364">
+        <v>-1</v>
+      </c>
+      <c r="W364">
         <v>2.4</v>
       </c>
-      <c r="P364">
-        <v>0</v>
-      </c>
-      <c r="Q364">
-        <v>2.1</v>
-      </c>
-      <c r="R364">
-        <v>1.775</v>
-      </c>
-      <c r="S364">
-        <v>2</v>
-      </c>
-      <c r="T364">
-        <v>1.975</v>
-      </c>
-      <c r="U364">
-        <v>1.875</v>
-      </c>
-      <c r="V364">
-        <v>-1</v>
-      </c>
-      <c r="W364">
-        <v>2</v>
-      </c>
       <c r="X364">
         <v>-1</v>
       </c>
       <c r="Y364">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Z364">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA364">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB364">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:28">
@@ -32318,7 +32318,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7750644</v>
+        <v>7750640</v>
       </c>
       <c r="C370" t="s">
         <v>37</v>
@@ -32327,73 +32327,73 @@
         <v>45403.08333333334</v>
       </c>
       <c r="E370" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F370" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G370">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J370">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="K370">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L370">
+        <v>4.333</v>
+      </c>
+      <c r="M370">
+        <v>2</v>
+      </c>
+      <c r="N370">
+        <v>3.25</v>
+      </c>
+      <c r="O370">
         <v>4</v>
-      </c>
-      <c r="M370">
-        <v>1.909</v>
-      </c>
-      <c r="N370">
-        <v>3.3</v>
-      </c>
-      <c r="O370">
-        <v>4.333</v>
       </c>
       <c r="P370">
         <v>-0.5</v>
       </c>
       <c r="Q370">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R370">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S370">
         <v>2.25</v>
       </c>
       <c r="T370">
+        <v>2.05</v>
+      </c>
+      <c r="U370">
         <v>1.8</v>
       </c>
-      <c r="U370">
-        <v>2.05</v>
-      </c>
       <c r="V370">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W370">
         <v>-1</v>
       </c>
       <c r="X370">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y370">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z370">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA370">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB370">
         <v>-1</v>
@@ -32404,7 +32404,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7750640</v>
+        <v>7750643</v>
       </c>
       <c r="C371" t="s">
         <v>37</v>
@@ -32413,13 +32413,13 @@
         <v>45403.08333333334</v>
       </c>
       <c r="E371" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F371" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H371">
         <v>2</v>
@@ -32428,40 +32428,40 @@
         <v>64</v>
       </c>
       <c r="J371">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="K371">
         <v>3.25</v>
       </c>
       <c r="L371">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="M371">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N371">
         <v>3.25</v>
       </c>
       <c r="O371">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="P371">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q371">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R371">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S371">
         <v>2.25</v>
       </c>
       <c r="T371">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U371">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V371">
         <v>-1</v>
@@ -32470,19 +32470,19 @@
         <v>-1</v>
       </c>
       <c r="X371">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA371">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="372" spans="1:28">
@@ -32490,7 +32490,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7750643</v>
+        <v>7750642</v>
       </c>
       <c r="C372" t="s">
         <v>37</v>
@@ -32499,76 +32499,76 @@
         <v>45403.08333333334</v>
       </c>
       <c r="E372" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F372" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="G372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J372">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="K372">
         <v>3.25</v>
       </c>
       <c r="L372">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="M372">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N372">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O372">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="P372">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q372">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R372">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S372">
         <v>2.25</v>
       </c>
       <c r="T372">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U372">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V372">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W372">
         <v>-1</v>
       </c>
       <c r="X372">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z372">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="373" spans="1:28">
@@ -32576,7 +32576,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7750642</v>
+        <v>7750644</v>
       </c>
       <c r="C373" t="s">
         <v>37</v>
@@ -32585,58 +32585,58 @@
         <v>45403.08333333334</v>
       </c>
       <c r="E373" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F373" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G373">
+        <v>2</v>
+      </c>
+      <c r="H373">
         <v>1</v>
-      </c>
-      <c r="H373">
-        <v>0</v>
       </c>
       <c r="I373" t="s">
         <v>66</v>
       </c>
       <c r="J373">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="K373">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L373">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="M373">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N373">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O373">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="P373">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q373">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R373">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S373">
         <v>2.25</v>
       </c>
       <c r="T373">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U373">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V373">
-        <v>1.75</v>
+        <v>0.909</v>
       </c>
       <c r="W373">
         <v>-1</v>
@@ -32645,16 +32645,16 @@
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z373">
         <v>-1</v>
       </c>
       <c r="AA373">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB373">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:28">
@@ -33614,40 +33614,40 @@
         <v>37</v>
       </c>
       <c r="D385" s="2">
-        <v>45415.04861111111</v>
+        <v>45418.08333333334</v>
       </c>
       <c r="E385" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F385" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J385">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="K385">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L385">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M385">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N385">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O385">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="P385">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q385">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R385">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S385">
         <v>2.25</v>
@@ -33679,49 +33679,49 @@
         <v>37</v>
       </c>
       <c r="D386" s="2">
-        <v>45415.08333333334</v>
+        <v>45418.08333333334</v>
       </c>
       <c r="E386" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F386" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J386">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K386">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L386">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M386">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="N386">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O386">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P386">
         <v>-0.75</v>
       </c>
       <c r="Q386">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R386">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S386">
         <v>2.25</v>
       </c>
       <c r="T386">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U386">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V386">
         <v>0</v>
@@ -33744,49 +33744,49 @@
         <v>37</v>
       </c>
       <c r="D387" s="2">
-        <v>45415.08333333334</v>
+        <v>45418.08333333334</v>
       </c>
       <c r="E387" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F387" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J387">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="K387">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L387">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M387">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="N387">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O387">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P387">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q387">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R387">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S387">
         <v>2.25</v>
       </c>
       <c r="T387">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U387">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V387">
         <v>0</v>
@@ -33809,34 +33809,34 @@
         <v>37</v>
       </c>
       <c r="D388" s="2">
-        <v>45415.08333333334</v>
+        <v>45418.08333333334</v>
       </c>
       <c r="E388" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F388" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J388">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="K388">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L388">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="M388">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N388">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O388">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="P388">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q388">
         <v>1.8</v>
@@ -33845,13 +33845,13 @@
         <v>2.05</v>
       </c>
       <c r="S388">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T388">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U388">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V388">
         <v>0</v>
@@ -33874,49 +33874,49 @@
         <v>37</v>
       </c>
       <c r="D389" s="2">
-        <v>45415.08333333334</v>
+        <v>45418.08333333334</v>
       </c>
       <c r="E389" t="s">
+        <v>58</v>
+      </c>
+      <c r="F389" t="s">
         <v>44</v>
       </c>
-      <c r="F389" t="s">
-        <v>62</v>
-      </c>
       <c r="J389">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K389">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L389">
+        <v>2.7</v>
+      </c>
+      <c r="M389">
+        <v>2.55</v>
+      </c>
+      <c r="N389">
         <v>3.2</v>
       </c>
-      <c r="M389">
+      <c r="O389">
+        <v>2.8</v>
+      </c>
+      <c r="P389">
+        <v>0</v>
+      </c>
+      <c r="Q389">
+        <v>1.85</v>
+      </c>
+      <c r="R389">
+        <v>2</v>
+      </c>
+      <c r="S389">
         <v>2.25</v>
       </c>
-      <c r="N389">
-        <v>3.4</v>
-      </c>
-      <c r="O389">
-        <v>3.2</v>
-      </c>
-      <c r="P389">
-        <v>-0.25</v>
-      </c>
-      <c r="Q389">
-        <v>1.95</v>
-      </c>
-      <c r="R389">
-        <v>1.9</v>
-      </c>
-      <c r="S389">
-        <v>2.5</v>
-      </c>
       <c r="T389">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U389">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V389">
         <v>0</v>
@@ -33939,49 +33939,49 @@
         <v>37</v>
       </c>
       <c r="D390" s="2">
-        <v>45415.08333333334</v>
+        <v>45418.08333333334</v>
       </c>
       <c r="E390" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F390" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J390">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="K390">
-        <v>4.25</v>
+        <v>3.1</v>
       </c>
       <c r="L390">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="M390">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="N390">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O390">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="P390">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q390">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R390">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S390">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T390">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U390">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V390">
         <v>0</v>
@@ -34004,49 +34004,49 @@
         <v>37</v>
       </c>
       <c r="D391" s="2">
-        <v>45415.08333333334</v>
+        <v>45418.08333333334</v>
       </c>
       <c r="E391" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F391" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J391">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="K391">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L391">
         <v>2.7</v>
       </c>
       <c r="M391">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N391">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O391">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P391">
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R391">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S391">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T391">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U391">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V391">
         <v>0</v>
@@ -34069,49 +34069,49 @@
         <v>37</v>
       </c>
       <c r="D392" s="2">
-        <v>45415.08333333334</v>
+        <v>45418.08333333334</v>
       </c>
       <c r="E392" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F392" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J392">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="K392">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L392">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="M392">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N392">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O392">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="P392">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q392">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R392">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S392">
         <v>2.5</v>
       </c>
       <c r="T392">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U392">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V392">
         <v>0</v>
@@ -34134,49 +34134,49 @@
         <v>37</v>
       </c>
       <c r="D393" s="2">
-        <v>45415.08333333334</v>
+        <v>45418.125</v>
       </c>
       <c r="E393" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F393" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="J393">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="K393">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L393">
+        <v>2.2</v>
+      </c>
+      <c r="M393">
         <v>3.4</v>
       </c>
-      <c r="M393">
+      <c r="N393">
+        <v>3.3</v>
+      </c>
+      <c r="O393">
         <v>2.15</v>
       </c>
-      <c r="N393">
-        <v>3.5</v>
-      </c>
-      <c r="O393">
-        <v>3.3</v>
-      </c>
       <c r="P393">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q393">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R393">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S393">
         <v>2.5</v>
       </c>
       <c r="T393">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U393">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V393">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>37</v>
       </c>
       <c r="D394" s="2">
-        <v>45415.16666666666</v>
+        <v>45418.29166666666</v>
       </c>
       <c r="E394" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F394" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J394">
+        <v>2.375</v>
+      </c>
+      <c r="K394">
+        <v>3.2</v>
+      </c>
+      <c r="L394">
         <v>3.1</v>
       </c>
-      <c r="K394">
-        <v>3.4</v>
-      </c>
-      <c r="L394">
-        <v>2.25</v>
-      </c>
       <c r="M394">
+        <v>2.5</v>
+      </c>
+      <c r="N394">
         <v>3.1</v>
       </c>
-      <c r="N394">
-        <v>3.3</v>
-      </c>
       <c r="O394">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="P394">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q394">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R394">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S394">
         <v>2.25</v>
       </c>
       <c r="T394">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U394">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V394">
         <v>0</v>

--- a/Japan J2League/Japan J2League.xlsx
+++ b/Japan J2League/Japan J2League.xlsx
@@ -97,10 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7750673</t>
+    <t>7750672</t>
   </si>
   <si>
-    <t>7750672</t>
+    <t>7750673</t>
   </si>
   <si>
     <t>7750674</t>
@@ -109,7 +109,7 @@
     <t>7750675</t>
   </si>
   <si>
-    <t>7750678</t>
+    <t>7750676</t>
   </si>
   <si>
     <t>7750680</t>
@@ -118,10 +118,10 @@
     <t>7750679</t>
   </si>
   <si>
-    <t>7750677</t>
+    <t>7750678</t>
   </si>
   <si>
-    <t>7750676</t>
+    <t>7750677</t>
   </si>
   <si>
     <t>7749890</t>
@@ -35337,40 +35337,40 @@
         <v>45423.08333333334</v>
       </c>
       <c r="E405" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F405" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J405">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="K405">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L405">
+        <v>5</v>
+      </c>
+      <c r="M405">
+        <v>1.7</v>
+      </c>
+      <c r="N405">
+        <v>3.6</v>
+      </c>
+      <c r="O405">
         <v>5.25</v>
       </c>
-      <c r="M405">
-        <v>1.571</v>
-      </c>
-      <c r="N405">
-        <v>4.2</v>
-      </c>
-      <c r="O405">
-        <v>5</v>
-      </c>
       <c r="P405">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q405">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R405">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S405">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T405">
         <v>1.925</v>
@@ -35402,46 +35402,46 @@
         <v>45423.08333333334</v>
       </c>
       <c r="E406" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F406" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J406">
-        <v>1.727</v>
+        <v>1.55</v>
       </c>
       <c r="K406">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L406">
+        <v>5.25</v>
+      </c>
+      <c r="M406">
+        <v>1.571</v>
+      </c>
+      <c r="N406">
+        <v>4.2</v>
+      </c>
+      <c r="O406">
         <v>5</v>
       </c>
-      <c r="M406">
-        <v>1.7</v>
-      </c>
-      <c r="N406">
-        <v>3.6</v>
-      </c>
-      <c r="O406">
-        <v>5.25</v>
-      </c>
       <c r="P406">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q406">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R406">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S406">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T406">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U406">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V406">
         <v>0</v>
@@ -35494,10 +35494,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q407">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R407">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S407">
         <v>2.25</v>
@@ -35597,46 +35597,46 @@
         <v>45424.08333333334</v>
       </c>
       <c r="E409" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F409" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J409">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="K409">
+        <v>3.25</v>
+      </c>
+      <c r="L409">
         <v>3.2</v>
       </c>
-      <c r="L409">
-        <v>4.5</v>
-      </c>
       <c r="M409">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N409">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O409">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P409">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q409">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R409">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S409">
         <v>2.25</v>
       </c>
       <c r="T409">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U409">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V409">
         <v>0</v>
@@ -35742,22 +35742,22 @@
         <v>3.1</v>
       </c>
       <c r="M411">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N411">
         <v>3.1</v>
       </c>
       <c r="O411">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P411">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q411">
+        <v>1.8</v>
+      </c>
+      <c r="R411">
         <v>2.05</v>
-      </c>
-      <c r="R411">
-        <v>1.8</v>
       </c>
       <c r="S411">
         <v>2.25</v>
@@ -35792,31 +35792,31 @@
         <v>45424.08333333334</v>
       </c>
       <c r="E412" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F412" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J412">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="K412">
         <v>3.2</v>
       </c>
       <c r="L412">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="M412">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N412">
         <v>3.2</v>
       </c>
       <c r="O412">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="P412">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q412">
         <v>1.95</v>
@@ -35828,10 +35828,10 @@
         <v>2.25</v>
       </c>
       <c r="T412">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U412">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V412">
         <v>0</v>
@@ -35857,31 +35857,31 @@
         <v>45424.08333333334</v>
       </c>
       <c r="E413" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F413" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J413">
+        <v>3.4</v>
+      </c>
+      <c r="K413">
+        <v>3.2</v>
+      </c>
+      <c r="L413">
+        <v>2.15</v>
+      </c>
+      <c r="M413">
+        <v>3.3</v>
+      </c>
+      <c r="N413">
+        <v>3.2</v>
+      </c>
+      <c r="O413">
         <v>2.2</v>
       </c>
-      <c r="K413">
-        <v>3.25</v>
-      </c>
-      <c r="L413">
-        <v>3.2</v>
-      </c>
-      <c r="M413">
-        <v>2.2</v>
-      </c>
-      <c r="N413">
-        <v>3.25</v>
-      </c>
-      <c r="O413">
-        <v>3.2</v>
-      </c>
       <c r="P413">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q413">
         <v>1.925</v>
@@ -35893,10 +35893,10 @@
         <v>2.25</v>
       </c>
       <c r="T413">
+        <v>1.95</v>
+      </c>
+      <c r="U413">
         <v>1.9</v>
-      </c>
-      <c r="U413">
-        <v>1.95</v>
       </c>
       <c r="V413">
         <v>0</v>
@@ -35949,10 +35949,10 @@
         <v>0.25</v>
       </c>
       <c r="Q414">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R414">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S414">
         <v>2.5</v>

--- a/Japan J2League/Japan J2League.xlsx
+++ b/Japan J2League/Japan J2League.xlsx
@@ -5742,7 +5742,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6189165</v>
+        <v>6189160</v>
       </c>
       <c r="C57" t="s">
         <v>39</v>
@@ -5751,46 +5751,46 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" t="s">
         <v>66</v>
       </c>
       <c r="L57">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O57">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="P57">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q57">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="R57">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S57">
         <v>1.9</v>
@@ -5799,13 +5799,13 @@
         <v>1.95</v>
       </c>
       <c r="U57">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V57">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5814,7 +5814,7 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>4.25</v>
+        <v>0.75</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5823,10 +5823,10 @@
         <v>0.95</v>
       </c>
       <c r="AC57">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AD57">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -5834,7 +5834,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6189160</v>
+        <v>6189173</v>
       </c>
       <c r="C58" t="s">
         <v>39</v>
@@ -5843,82 +5843,82 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M58">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P58">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q58">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R58">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T58">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U58">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -5926,7 +5926,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6189173</v>
+        <v>6189170</v>
       </c>
       <c r="C59" t="s">
         <v>39</v>
@@ -5935,19 +5935,19 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -5956,43 +5956,43 @@
         <v>67</v>
       </c>
       <c r="L59">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="O59">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="P59">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q59">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="R59">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S59">
+        <v>2.05</v>
+      </c>
+      <c r="T59">
+        <v>1.8</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
         <v>1.875</v>
       </c>
-      <c r="T59">
+      <c r="W59">
         <v>1.975</v>
       </c>
-      <c r="U59">
-        <v>2.5</v>
-      </c>
-      <c r="V59">
-        <v>1.825</v>
-      </c>
-      <c r="W59">
-        <v>2.025</v>
-      </c>
       <c r="X59">
-        <v>2.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y59">
         <v>-1</v>
@@ -6001,16 +6001,16 @@
         <v>-1</v>
       </c>
       <c r="AA59">
+        <v>1.05</v>
+      </c>
+      <c r="AB59">
+        <v>-1</v>
+      </c>
+      <c r="AC59">
         <v>0.875</v>
       </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
-      <c r="AC59">
-        <v>-1</v>
-      </c>
       <c r="AD59">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -6018,7 +6018,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6189170</v>
+        <v>6189171</v>
       </c>
       <c r="C60" t="s">
         <v>39</v>
@@ -6027,19 +6027,19 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -6048,19 +6048,19 @@
         <v>67</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M60">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="N60">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="O60">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="P60">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q60">
         <v>5.25</v>
@@ -6069,22 +6069,22 @@
         <v>-0.75</v>
       </c>
       <c r="S60">
+        <v>1.8</v>
+      </c>
+      <c r="T60">
         <v>2.05</v>
       </c>
-      <c r="T60">
-        <v>1.8</v>
-      </c>
       <c r="U60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V60">
+        <v>1.975</v>
+      </c>
+      <c r="W60">
         <v>1.875</v>
       </c>
-      <c r="W60">
-        <v>1.975</v>
-      </c>
       <c r="X60">
-        <v>0.7270000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="Y60">
         <v>-1</v>
@@ -6093,16 +6093,16 @@
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD60">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -6110,7 +6110,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6189171</v>
+        <v>6189165</v>
       </c>
       <c r="C61" t="s">
         <v>39</v>
@@ -6119,40 +6119,40 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L61">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="M61">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O61">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="P61">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q61">
         <v>5.25</v>
@@ -6161,40 +6161,40 @@
         <v>-0.75</v>
       </c>
       <c r="S61">
+        <v>1.9</v>
+      </c>
+      <c r="T61">
+        <v>1.95</v>
+      </c>
+      <c r="U61">
+        <v>2.5</v>
+      </c>
+      <c r="V61">
+        <v>2.05</v>
+      </c>
+      <c r="W61">
         <v>1.8</v>
       </c>
-      <c r="T61">
-        <v>2.05</v>
-      </c>
-      <c r="U61">
-        <v>3</v>
-      </c>
-      <c r="V61">
-        <v>1.975</v>
-      </c>
-      <c r="W61">
-        <v>1.875</v>
-      </c>
       <c r="X61">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="AA61">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:30">
@@ -6294,7 +6294,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6189172</v>
+        <v>6189164</v>
       </c>
       <c r="C63" t="s">
         <v>39</v>
@@ -6303,79 +6303,79 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G63">
         <v>2</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>67</v>
+      </c>
+      <c r="L63">
+        <v>3.4</v>
+      </c>
+      <c r="M63">
         <v>3</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
-        <v>66</v>
-      </c>
-      <c r="L63">
+      <c r="N63">
+        <v>2.2</v>
+      </c>
+      <c r="O63">
+        <v>4.333</v>
+      </c>
+      <c r="P63">
+        <v>3.3</v>
+      </c>
+      <c r="Q63">
         <v>1.909</v>
       </c>
-      <c r="M63">
-        <v>3.3</v>
-      </c>
-      <c r="N63">
-        <v>4</v>
-      </c>
-      <c r="O63">
-        <v>2.25</v>
-      </c>
-      <c r="P63">
-        <v>3.4</v>
-      </c>
-      <c r="Q63">
-        <v>3.2</v>
-      </c>
       <c r="R63">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U63">
         <v>2.5</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AD63">
         <v>-1</v>
@@ -6386,7 +6386,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6189164</v>
+        <v>6189172</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
@@ -6395,79 +6395,79 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L64">
+        <v>1.909</v>
+      </c>
+      <c r="M64">
+        <v>3.3</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>2.25</v>
+      </c>
+      <c r="P64">
         <v>3.4</v>
       </c>
-      <c r="M64">
-        <v>3</v>
-      </c>
-      <c r="N64">
-        <v>2.2</v>
-      </c>
-      <c r="O64">
-        <v>4.333</v>
-      </c>
-      <c r="P64">
-        <v>3.3</v>
-      </c>
       <c r="Q64">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="R64">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S64">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U64">
         <v>2.5</v>
       </c>
       <c r="V64">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X64">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC64">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AD64">
         <v>-1</v>
@@ -10250,7 +10250,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6189215</v>
+        <v>6189214</v>
       </c>
       <c r="C106" t="s">
         <v>39</v>
@@ -10259,82 +10259,82 @@
         <v>45136.29166666666</v>
       </c>
       <c r="E106" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L106">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="M106">
+        <v>3.8</v>
+      </c>
+      <c r="N106">
         <v>3.5</v>
       </c>
-      <c r="N106">
-        <v>4.5</v>
-      </c>
       <c r="O106">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="P106">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q106">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="R106">
         <v>-0.75</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U106">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X106">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:30">
@@ -10342,7 +10342,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6189217</v>
+        <v>6189215</v>
       </c>
       <c r="C107" t="s">
         <v>39</v>
@@ -10351,82 +10351,82 @@
         <v>45136.29166666666</v>
       </c>
       <c r="E107" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L107">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="M107">
         <v>3.5</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O107">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="P107">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q107">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="R107">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V107">
+        <v>1.975</v>
+      </c>
+      <c r="W107">
         <v>1.875</v>
       </c>
-      <c r="W107">
-        <v>1.975</v>
-      </c>
       <c r="X107">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:30">
@@ -10526,7 +10526,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6189214</v>
+        <v>6189217</v>
       </c>
       <c r="C109" t="s">
         <v>39</v>
@@ -10535,82 +10535,82 @@
         <v>45136.29166666666</v>
       </c>
       <c r="E109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L109">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M109">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N109">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O109">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="P109">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q109">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="R109">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U109">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V109">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC109">
         <v>-1</v>
       </c>
       <c r="AD109">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:30">
@@ -11170,7 +11170,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6189226</v>
+        <v>6189228</v>
       </c>
       <c r="C116" t="s">
         <v>39</v>
@@ -11179,79 +11179,79 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F116" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L116">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N116">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="O116">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q116">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="R116">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
+        <v>1.95</v>
+      </c>
+      <c r="U116">
+        <v>2.25</v>
+      </c>
+      <c r="V116">
         <v>2.05</v>
       </c>
-      <c r="T116">
+      <c r="W116">
         <v>1.8</v>
       </c>
-      <c r="U116">
-        <v>2.75</v>
-      </c>
-      <c r="V116">
-        <v>1.85</v>
-      </c>
-      <c r="W116">
-        <v>2</v>
-      </c>
       <c r="X116">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
+        <v>0.45</v>
+      </c>
+      <c r="AB116">
+        <v>-0.5</v>
+      </c>
+      <c r="AC116">
         <v>1.05</v>
-      </c>
-      <c r="AB116">
-        <v>-1</v>
-      </c>
-      <c r="AC116">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AD116">
         <v>-1</v>
@@ -11262,7 +11262,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6189228</v>
+        <v>6189226</v>
       </c>
       <c r="C117" t="s">
         <v>39</v>
@@ -11271,79 +11271,79 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N117">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="P117">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q117">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="R117">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T117">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U117">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V117">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y117">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD117">
         <v>-1</v>
@@ -11446,7 +11446,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6189229</v>
+        <v>6189224</v>
       </c>
       <c r="C119" t="s">
         <v>39</v>
@@ -11455,13 +11455,13 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E119" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F119" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11473,64 +11473,64 @@
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L119">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N119">
+        <v>2.375</v>
+      </c>
+      <c r="O119">
+        <v>2.8</v>
+      </c>
+      <c r="P119">
         <v>3</v>
       </c>
-      <c r="O119">
-        <v>2.2</v>
-      </c>
-      <c r="P119">
-        <v>3.4</v>
-      </c>
       <c r="Q119">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R119">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S119">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y119">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
         <v>-1</v>
       </c>
       <c r="AD119">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -11630,7 +11630,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6189224</v>
+        <v>6189229</v>
       </c>
       <c r="C121" t="s">
         <v>39</v>
@@ -11639,13 +11639,13 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F121" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11657,64 +11657,64 @@
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L121">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="M121">
+        <v>3.4</v>
+      </c>
+      <c r="N121">
         <v>3</v>
       </c>
-      <c r="N121">
-        <v>2.375</v>
-      </c>
       <c r="O121">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="P121">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R121">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T121">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X121">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC121">
         <v>-1</v>
       </c>
       <c r="AD121">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11722,7 +11722,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6189231</v>
+        <v>6189232</v>
       </c>
       <c r="C122" t="s">
         <v>39</v>
@@ -11731,19 +11731,19 @@
         <v>45150.25</v>
       </c>
       <c r="E122" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -11752,43 +11752,43 @@
         <v>67</v>
       </c>
       <c r="L122">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N122">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="O122">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="P122">
+        <v>5.75</v>
+      </c>
+      <c r="Q122">
+        <v>8.5</v>
+      </c>
+      <c r="R122">
+        <v>-1.5</v>
+      </c>
+      <c r="S122">
+        <v>1.875</v>
+      </c>
+      <c r="T122">
+        <v>1.975</v>
+      </c>
+      <c r="U122">
         <v>3</v>
       </c>
-      <c r="Q122">
-        <v>3</v>
-      </c>
-      <c r="R122">
-        <v>0</v>
-      </c>
-      <c r="S122">
-        <v>1.775</v>
-      </c>
-      <c r="T122">
-        <v>2.1</v>
-      </c>
-      <c r="U122">
-        <v>2.25</v>
-      </c>
       <c r="V122">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X122">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="Y122">
         <v>-1</v>
@@ -11797,16 +11797,16 @@
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -11814,7 +11814,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6189230</v>
+        <v>6189231</v>
       </c>
       <c r="C123" t="s">
         <v>39</v>
@@ -11823,55 +11823,55 @@
         <v>45150.25</v>
       </c>
       <c r="E123" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F123" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L123">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M123">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N123">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O123">
         <v>2.55</v>
       </c>
       <c r="P123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q123">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R123">
         <v>0</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V123">
         <v>2.025</v>
@@ -11880,19 +11880,19 @@
         <v>1.825</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y123">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
         <v>1.025</v>
@@ -11906,7 +11906,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6189232</v>
+        <v>6189230</v>
       </c>
       <c r="C124" t="s">
         <v>39</v>
@@ -11915,82 +11915,82 @@
         <v>45150.25</v>
       </c>
       <c r="E124" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L124">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N124">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="O124">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="P124">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q124">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="R124">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X124">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB124">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -12826,7 +12826,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6291572</v>
+        <v>6291573</v>
       </c>
       <c r="C134" t="s">
         <v>39</v>
@@ -12835,82 +12835,82 @@
         <v>45157.25</v>
       </c>
       <c r="E134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F134" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L134">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="M134">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N134">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O134">
+        <v>4.333</v>
+      </c>
+      <c r="P134">
+        <v>3.6</v>
+      </c>
+      <c r="Q134">
+        <v>1.833</v>
+      </c>
+      <c r="R134">
+        <v>0.75</v>
+      </c>
+      <c r="S134">
+        <v>1.8</v>
+      </c>
+      <c r="T134">
+        <v>2.05</v>
+      </c>
+      <c r="U134">
         <v>2.5</v>
       </c>
-      <c r="P134">
-        <v>3.1</v>
-      </c>
-      <c r="Q134">
-        <v>3.1</v>
-      </c>
-      <c r="R134">
-        <v>-0.25</v>
-      </c>
-      <c r="S134">
-        <v>2.075</v>
-      </c>
-      <c r="T134">
-        <v>1.725</v>
-      </c>
-      <c r="U134">
-        <v>2</v>
-      </c>
       <c r="V134">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA134">
         <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>0.3625</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:30">
@@ -12918,7 +12918,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6291573</v>
+        <v>6291572</v>
       </c>
       <c r="C135" t="s">
         <v>39</v>
@@ -12927,82 +12927,82 @@
         <v>45157.25</v>
       </c>
       <c r="E135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L135">
+        <v>2.45</v>
+      </c>
+      <c r="M135">
+        <v>2.9</v>
+      </c>
+      <c r="N135">
+        <v>2.8</v>
+      </c>
+      <c r="O135">
+        <v>2.5</v>
+      </c>
+      <c r="P135">
         <v>3.1</v>
       </c>
-      <c r="M135">
-        <v>3.3</v>
-      </c>
-      <c r="N135">
+      <c r="Q135">
+        <v>3.1</v>
+      </c>
+      <c r="R135">
+        <v>-0.25</v>
+      </c>
+      <c r="S135">
+        <v>2.075</v>
+      </c>
+      <c r="T135">
+        <v>1.725</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
+        <v>2.05</v>
+      </c>
+      <c r="W135">
+        <v>1.8</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
         <v>2.1</v>
       </c>
-      <c r="O135">
-        <v>4.333</v>
-      </c>
-      <c r="P135">
-        <v>3.6</v>
-      </c>
-      <c r="Q135">
-        <v>1.833</v>
-      </c>
-      <c r="R135">
-        <v>0.75</v>
-      </c>
-      <c r="S135">
-        <v>1.8</v>
-      </c>
-      <c r="T135">
-        <v>2.05</v>
-      </c>
-      <c r="U135">
-        <v>2.5</v>
-      </c>
-      <c r="V135">
-        <v>1.85</v>
-      </c>
-      <c r="W135">
-        <v>2</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
       <c r="Z135">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
         <v>-0.5</v>
       </c>
       <c r="AB135">
-        <v>0.5249999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -13378,7 +13378,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6291575</v>
+        <v>6291569</v>
       </c>
       <c r="C140" t="s">
         <v>39</v>
@@ -13387,19 +13387,19 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -13408,43 +13408,43 @@
         <v>67</v>
       </c>
       <c r="L140">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="M140">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N140">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="O140">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="P140">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q140">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="R140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S140">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U140">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W140">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X140">
-        <v>0.55</v>
+        <v>1.625</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -13453,16 +13453,16 @@
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13470,7 +13470,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6291569</v>
+        <v>6291575</v>
       </c>
       <c r="C141" t="s">
         <v>39</v>
@@ -13479,19 +13479,19 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F141" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -13500,43 +13500,43 @@
         <v>67</v>
       </c>
       <c r="L141">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N141">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="O141">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q141">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="R141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U141">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X141">
-        <v>1.625</v>
+        <v>0.55</v>
       </c>
       <c r="Y141">
         <v>-1</v>
@@ -13545,16 +13545,16 @@
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -18714,7 +18714,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6480223</v>
+        <v>6501068</v>
       </c>
       <c r="C198" t="s">
         <v>39</v>
@@ -18723,19 +18723,19 @@
         <v>45199.04166666666</v>
       </c>
       <c r="E198" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F198" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -18744,25 +18744,25 @@
         <v>67</v>
       </c>
       <c r="L198">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="M198">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="N198">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="O198">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="P198">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q198">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="R198">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S198">
         <v>1.9</v>
@@ -18771,16 +18771,16 @@
         <v>1.95</v>
       </c>
       <c r="U198">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X198">
-        <v>1.625</v>
+        <v>6</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18798,7 +18798,7 @@
         <v>-1</v>
       </c>
       <c r="AD198">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -18806,7 +18806,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6501068</v>
+        <v>6480223</v>
       </c>
       <c r="C199" t="s">
         <v>39</v>
@@ -18815,19 +18815,19 @@
         <v>45199.04166666666</v>
       </c>
       <c r="E199" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F199" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199">
         <v>0</v>
@@ -18836,25 +18836,25 @@
         <v>67</v>
       </c>
       <c r="L199">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="M199">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N199">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="O199">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="P199">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q199">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="R199">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S199">
         <v>1.9</v>
@@ -18863,16 +18863,16 @@
         <v>1.95</v>
       </c>
       <c r="U199">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W199">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X199">
-        <v>6</v>
+        <v>1.625</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18890,7 +18890,7 @@
         <v>-1</v>
       </c>
       <c r="AD199">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -19082,7 +19082,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6501069</v>
+        <v>6501072</v>
       </c>
       <c r="C202" t="s">
         <v>39</v>
@@ -19091,79 +19091,79 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F202" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H202">
         <v>2</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J202">
         <v>0</v>
       </c>
       <c r="K202" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L202">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="M202">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N202">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="O202">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="P202">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q202">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R202">
         <v>-0.25</v>
       </c>
       <c r="S202">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T202">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="U202">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W202">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB202">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD202">
         <v>-1</v>
@@ -19174,7 +19174,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6501072</v>
+        <v>6501069</v>
       </c>
       <c r="C203" t="s">
         <v>39</v>
@@ -19183,79 +19183,79 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s">
+        <v>66</v>
+      </c>
+      <c r="L203">
+        <v>2.25</v>
+      </c>
+      <c r="M203">
         <v>3</v>
       </c>
-      <c r="H203">
-        <v>2</v>
-      </c>
-      <c r="I203">
-        <v>2</v>
-      </c>
-      <c r="J203">
-        <v>0</v>
-      </c>
-      <c r="K203" t="s">
-        <v>67</v>
-      </c>
-      <c r="L203">
+      <c r="N203">
+        <v>3.4</v>
+      </c>
+      <c r="O203">
         <v>2.625</v>
       </c>
-      <c r="M203">
-        <v>3.3</v>
-      </c>
-      <c r="N203">
-        <v>2.55</v>
-      </c>
-      <c r="O203">
-        <v>2.2</v>
-      </c>
       <c r="P203">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q203">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R203">
         <v>-0.25</v>
       </c>
       <c r="S203">
+        <v>2.1</v>
+      </c>
+      <c r="T203">
+        <v>1.7</v>
+      </c>
+      <c r="U203">
+        <v>1.75</v>
+      </c>
+      <c r="V203">
         <v>1.925</v>
       </c>
-      <c r="T203">
+      <c r="W203">
         <v>1.925</v>
       </c>
-      <c r="U203">
-        <v>2.5</v>
-      </c>
-      <c r="V203">
-        <v>1.975</v>
-      </c>
-      <c r="W203">
-        <v>1.875</v>
-      </c>
       <c r="X203">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>0.7</v>
+      </c>
+      <c r="AC203">
         <v>0.925</v>
-      </c>
-      <c r="AB203">
-        <v>-1</v>
-      </c>
-      <c r="AC203">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AD203">
         <v>-1</v>
@@ -19266,7 +19266,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6501071</v>
+        <v>6501074</v>
       </c>
       <c r="C204" t="s">
         <v>39</v>
@@ -19275,82 +19275,82 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F204" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K204" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L204">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="M204">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N204">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O204">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="P204">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q204">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="R204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S204">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T204">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U204">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V204">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB204">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC204">
         <v>-1</v>
       </c>
       <c r="AD204">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:30">
@@ -19358,7 +19358,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6501070</v>
+        <v>6501071</v>
       </c>
       <c r="C205" t="s">
         <v>39</v>
@@ -19367,22 +19367,22 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K205" t="s">
         <v>66</v>
@@ -19400,29 +19400,29 @@
         <v>1.909</v>
       </c>
       <c r="P205">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q205">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="R205">
         <v>-0.5</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U205">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V205">
+        <v>2.025</v>
+      </c>
+      <c r="W205">
         <v>1.825</v>
       </c>
-      <c r="W205">
-        <v>2.025</v>
-      </c>
       <c r="X205">
         <v>-1</v>
       </c>
@@ -19430,19 +19430,19 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC205">
+        <v>-1</v>
+      </c>
+      <c r="AD205">
         <v>0.825</v>
-      </c>
-      <c r="AD205">
-        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:30">
@@ -19450,7 +19450,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6480225</v>
+        <v>6501070</v>
       </c>
       <c r="C206" t="s">
         <v>39</v>
@@ -19459,79 +19459,79 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F206" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H206">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K206" t="s">
         <v>66</v>
       </c>
       <c r="L206">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="M206">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N206">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="O206">
+        <v>1.909</v>
+      </c>
+      <c r="P206">
+        <v>3.6</v>
+      </c>
+      <c r="Q206">
+        <v>4</v>
+      </c>
+      <c r="R206">
+        <v>-0.5</v>
+      </c>
+      <c r="S206">
+        <v>1.9</v>
+      </c>
+      <c r="T206">
+        <v>1.95</v>
+      </c>
+      <c r="U206">
+        <v>2.25</v>
+      </c>
+      <c r="V206">
+        <v>1.825</v>
+      </c>
+      <c r="W206">
+        <v>2.025</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
         <v>3</v>
       </c>
-      <c r="P206">
-        <v>3.4</v>
-      </c>
-      <c r="Q206">
-        <v>2.375</v>
-      </c>
-      <c r="R206">
-        <v>0.25</v>
-      </c>
-      <c r="S206">
-        <v>1.8</v>
-      </c>
-      <c r="T206">
-        <v>2.05</v>
-      </c>
-      <c r="U206">
-        <v>2.5</v>
-      </c>
-      <c r="V206">
-        <v>2.025</v>
-      </c>
-      <c r="W206">
-        <v>1.825</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
-      <c r="Y206">
-        <v>-1</v>
-      </c>
-      <c r="Z206">
-        <v>1.375</v>
-      </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC206">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AD206">
         <v>-1</v>
@@ -19542,7 +19542,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6501074</v>
+        <v>6480225</v>
       </c>
       <c r="C207" t="s">
         <v>39</v>
@@ -19551,82 +19551,82 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F207" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K207" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L207">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="M207">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N207">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="O207">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="P207">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q207">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="R207">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S207">
+        <v>1.8</v>
+      </c>
+      <c r="T207">
+        <v>2.05</v>
+      </c>
+      <c r="U207">
+        <v>2.5</v>
+      </c>
+      <c r="V207">
         <v>2.025</v>
       </c>
-      <c r="T207">
+      <c r="W207">
         <v>1.825</v>
       </c>
-      <c r="U207">
-        <v>3</v>
-      </c>
-      <c r="V207">
-        <v>1.95</v>
-      </c>
-      <c r="W207">
-        <v>1.9</v>
-      </c>
       <c r="X207">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD207">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:30">
@@ -19726,7 +19726,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6555443</v>
+        <v>6516511</v>
       </c>
       <c r="C209" t="s">
         <v>39</v>
@@ -19735,16 +19735,16 @@
         <v>45206.08333333334</v>
       </c>
       <c r="E209" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F209" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -19756,10 +19756,10 @@
         <v>67</v>
       </c>
       <c r="L209">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M209">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N209">
         <v>3.1</v>
@@ -19771,25 +19771,25 @@
         <v>3.4</v>
       </c>
       <c r="Q209">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R209">
         <v>-0.25</v>
       </c>
       <c r="S209">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U209">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V209">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X209">
         <v>1.25</v>
@@ -19801,16 +19801,16 @@
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD209">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -19818,7 +19818,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6516511</v>
+        <v>6555443</v>
       </c>
       <c r="C210" t="s">
         <v>39</v>
@@ -19827,16 +19827,16 @@
         <v>45206.08333333334</v>
       </c>
       <c r="E210" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F210" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -19848,10 +19848,10 @@
         <v>67</v>
       </c>
       <c r="L210">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M210">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N210">
         <v>3.1</v>
@@ -19863,25 +19863,25 @@
         <v>3.4</v>
       </c>
       <c r="Q210">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R210">
         <v>-0.25</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V210">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X210">
         <v>1.25</v>
@@ -19893,16 +19893,16 @@
         <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD210">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -20186,7 +20186,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6516619</v>
+        <v>6516517</v>
       </c>
       <c r="C214" t="s">
         <v>39</v>
@@ -20195,55 +20195,55 @@
         <v>45207.08333333334</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F214" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L214">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="M214">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N214">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O214">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="P214">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q214">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="R214">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V214">
         <v>1.975</v>
@@ -20252,25 +20252,25 @@
         <v>1.875</v>
       </c>
       <c r="X214">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC214">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD214">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20278,7 +20278,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6516517</v>
+        <v>6516619</v>
       </c>
       <c r="C215" t="s">
         <v>39</v>
@@ -20287,55 +20287,55 @@
         <v>45207.08333333334</v>
       </c>
       <c r="E215" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F215" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L215">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="M215">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N215">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O215">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="P215">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q215">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="R215">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S215">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U215">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V215">
         <v>1.975</v>
@@ -20344,25 +20344,25 @@
         <v>1.875</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y215">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB215">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD215">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -20370,7 +20370,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6516607</v>
+        <v>6516608</v>
       </c>
       <c r="C216" t="s">
         <v>39</v>
@@ -20379,82 +20379,82 @@
         <v>45207.08333333334</v>
       </c>
       <c r="E216" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216">
         <v>1</v>
       </c>
       <c r="K216" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L216">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="M216">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N216">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="O216">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="P216">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q216">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="R216">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S216">
+        <v>1.925</v>
+      </c>
+      <c r="T216">
+        <v>1.925</v>
+      </c>
+      <c r="U216">
+        <v>2</v>
+      </c>
+      <c r="V216">
         <v>1.9</v>
       </c>
-      <c r="T216">
+      <c r="W216">
         <v>1.95</v>
       </c>
-      <c r="U216">
-        <v>2.5</v>
-      </c>
-      <c r="V216">
-        <v>1.875</v>
-      </c>
-      <c r="W216">
-        <v>1.975</v>
-      </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC216">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD216">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -20462,7 +20462,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6516608</v>
+        <v>6516607</v>
       </c>
       <c r="C217" t="s">
         <v>39</v>
@@ -20471,82 +20471,82 @@
         <v>45207.08333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F217" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H217">
         <v>2</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217">
         <v>1</v>
       </c>
       <c r="K217" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L217">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="M217">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N217">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="O217">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="P217">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q217">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="R217">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S217">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V217">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W217">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z217">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC217">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AD217">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -23682,7 +23682,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6576451</v>
+        <v>6576323</v>
       </c>
       <c r="C252" t="s">
         <v>39</v>
@@ -23691,82 +23691,82 @@
         <v>45235.08333333334</v>
       </c>
       <c r="E252" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F252" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252">
         <v>0</v>
       </c>
       <c r="J252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K252" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L252">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="M252">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N252">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O252">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="P252">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q252">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="R252">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S252">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T252">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U252">
         <v>2.25</v>
       </c>
       <c r="V252">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W252">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X252">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA252">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD252">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="253" spans="1:30">
@@ -23774,7 +23774,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6576323</v>
+        <v>6576451</v>
       </c>
       <c r="C253" t="s">
         <v>39</v>
@@ -23783,82 +23783,82 @@
         <v>45235.08333333334</v>
       </c>
       <c r="E253" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F253" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253">
         <v>0</v>
       </c>
       <c r="J253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K253" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L253">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="M253">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N253">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O253">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="P253">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q253">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="R253">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S253">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T253">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U253">
         <v>2.25</v>
       </c>
       <c r="V253">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W253">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB253">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC253">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD253">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="254" spans="1:30">
@@ -23866,7 +23866,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6588584</v>
+        <v>6588588</v>
       </c>
       <c r="C254" t="s">
         <v>39</v>
@@ -23875,16 +23875,16 @@
         <v>45242.04166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F254" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254">
         <v>0</v>
@@ -23893,64 +23893,64 @@
         <v>0</v>
       </c>
       <c r="K254" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L254">
+        <v>5.25</v>
+      </c>
+      <c r="M254">
+        <v>3.8</v>
+      </c>
+      <c r="N254">
+        <v>1.65</v>
+      </c>
+      <c r="O254">
+        <v>5.5</v>
+      </c>
+      <c r="P254">
+        <v>4</v>
+      </c>
+      <c r="Q254">
+        <v>1.615</v>
+      </c>
+      <c r="R254">
+        <v>0.75</v>
+      </c>
+      <c r="S254">
         <v>2.05</v>
       </c>
-      <c r="M254">
-        <v>3.2</v>
-      </c>
-      <c r="N254">
-        <v>3.8</v>
-      </c>
-      <c r="O254">
-        <v>2.2</v>
-      </c>
-      <c r="P254">
-        <v>3.2</v>
-      </c>
-      <c r="Q254">
-        <v>3.5</v>
-      </c>
-      <c r="R254">
-        <v>-0.25</v>
-      </c>
-      <c r="S254">
-        <v>1.875</v>
-      </c>
       <c r="T254">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U254">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V254">
+        <v>1.95</v>
+      </c>
+      <c r="W254">
         <v>1.9</v>
       </c>
-      <c r="W254">
-        <v>1.95</v>
-      </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="AA254">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AC254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD254">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="255" spans="1:30">
@@ -24326,7 +24326,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6588588</v>
+        <v>6588584</v>
       </c>
       <c r="C259" t="s">
         <v>39</v>
@@ -24335,16 +24335,16 @@
         <v>45242.04166666666</v>
       </c>
       <c r="E259" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F259" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -24353,64 +24353,64 @@
         <v>0</v>
       </c>
       <c r="K259" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L259">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="M259">
+        <v>3.2</v>
+      </c>
+      <c r="N259">
         <v>3.8</v>
       </c>
-      <c r="N259">
-        <v>1.65</v>
-      </c>
       <c r="O259">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="P259">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q259">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="R259">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S259">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T259">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U259">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V259">
+        <v>1.9</v>
+      </c>
+      <c r="W259">
         <v>1.95</v>
       </c>
-      <c r="W259">
-        <v>1.9</v>
-      </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z259">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB259">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC259">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD259">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -24878,7 +24878,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7630500</v>
+        <v>7630499</v>
       </c>
       <c r="C265" t="s">
         <v>39</v>
@@ -24887,16 +24887,16 @@
         <v>45346.08333333334</v>
       </c>
       <c r="E265" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F265" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265">
         <v>0</v>
@@ -24908,61 +24908,61 @@
         <v>68</v>
       </c>
       <c r="L265">
+        <v>1.55</v>
+      </c>
+      <c r="M265">
+        <v>3.8</v>
+      </c>
+      <c r="N265">
+        <v>5.5</v>
+      </c>
+      <c r="O265">
+        <v>1.615</v>
+      </c>
+      <c r="P265">
+        <v>4</v>
+      </c>
+      <c r="Q265">
+        <v>5.5</v>
+      </c>
+      <c r="R265">
+        <v>-1</v>
+      </c>
+      <c r="S265">
+        <v>2.05</v>
+      </c>
+      <c r="T265">
+        <v>1.8</v>
+      </c>
+      <c r="U265">
+        <v>2.5</v>
+      </c>
+      <c r="V265">
+        <v>1.925</v>
+      </c>
+      <c r="W265">
+        <v>1.925</v>
+      </c>
+      <c r="X265">
+        <v>-1</v>
+      </c>
+      <c r="Y265">
         <v>3</v>
       </c>
-      <c r="M265">
-        <v>3.6</v>
-      </c>
-      <c r="N265">
-        <v>2.1</v>
-      </c>
-      <c r="O265">
-        <v>2.875</v>
-      </c>
-      <c r="P265">
-        <v>3.6</v>
-      </c>
-      <c r="Q265">
-        <v>2.375</v>
-      </c>
-      <c r="R265">
-        <v>0.25</v>
-      </c>
-      <c r="S265">
-        <v>1.8</v>
-      </c>
-      <c r="T265">
-        <v>2.05</v>
-      </c>
-      <c r="U265">
-        <v>2.75</v>
-      </c>
-      <c r="V265">
-        <v>1.85</v>
-      </c>
-      <c r="W265">
-        <v>2</v>
-      </c>
-      <c r="X265">
-        <v>-1</v>
-      </c>
-      <c r="Y265">
-        <v>2.6</v>
-      </c>
       <c r="Z265">
         <v>-1</v>
       </c>
       <c r="AA265">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC265">
         <v>-1</v>
       </c>
       <c r="AD265">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="266" spans="1:30">
@@ -24970,7 +24970,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7630499</v>
+        <v>7630497</v>
       </c>
       <c r="C266" t="s">
         <v>39</v>
@@ -24979,82 +24979,82 @@
         <v>45346.08333333334</v>
       </c>
       <c r="E266" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F266" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G266">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J266">
         <v>0</v>
       </c>
       <c r="K266" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L266">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="M266">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N266">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="O266">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="P266">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q266">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="R266">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S266">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T266">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U266">
         <v>2.5</v>
       </c>
       <c r="V266">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W266">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y266">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB266">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC266">
         <v>-1</v>
       </c>
       <c r="AD266">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="267" spans="1:30">
@@ -25062,7 +25062,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7630497</v>
+        <v>7630500</v>
       </c>
       <c r="C267" t="s">
         <v>39</v>
@@ -25071,82 +25071,82 @@
         <v>45346.08333333334</v>
       </c>
       <c r="E267" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F267" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267">
         <v>0</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267">
         <v>0</v>
       </c>
       <c r="K267" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L267">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M267">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N267">
+        <v>2.1</v>
+      </c>
+      <c r="O267">
+        <v>2.875</v>
+      </c>
+      <c r="P267">
+        <v>3.6</v>
+      </c>
+      <c r="Q267">
+        <v>2.375</v>
+      </c>
+      <c r="R267">
+        <v>0.25</v>
+      </c>
+      <c r="S267">
+        <v>1.8</v>
+      </c>
+      <c r="T267">
+        <v>2.05</v>
+      </c>
+      <c r="U267">
         <v>2.75</v>
       </c>
-      <c r="O267">
-        <v>2.75</v>
-      </c>
-      <c r="P267">
-        <v>3.3</v>
-      </c>
-      <c r="Q267">
-        <v>2.625</v>
-      </c>
-      <c r="R267">
-        <v>0</v>
-      </c>
-      <c r="S267">
-        <v>2.025</v>
-      </c>
-      <c r="T267">
-        <v>1.825</v>
-      </c>
-      <c r="U267">
-        <v>2.5</v>
-      </c>
       <c r="V267">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W267">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X267">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC267">
         <v>-1</v>
       </c>
       <c r="AD267">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:30">
@@ -32422,7 +32422,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7750626</v>
+        <v>7749884</v>
       </c>
       <c r="C347" t="s">
         <v>39</v>
@@ -32431,61 +32431,61 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E347" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F347" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H347">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K347" t="s">
         <v>66</v>
       </c>
       <c r="L347">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="M347">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N347">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O347">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="P347">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q347">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="R347">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S347">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T347">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V347">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W347">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -32494,19 +32494,19 @@
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA347">
         <v>-1</v>
       </c>
       <c r="AB347">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC347">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AD347">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:30">
@@ -32514,7 +32514,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7750625</v>
+        <v>7750620</v>
       </c>
       <c r="C348" t="s">
         <v>39</v>
@@ -32523,52 +32523,52 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E348" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F348" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G348">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K348" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L348">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="M348">
+        <v>3.4</v>
+      </c>
+      <c r="N348">
+        <v>4</v>
+      </c>
+      <c r="O348">
+        <v>2.375</v>
+      </c>
+      <c r="P348">
         <v>3.3</v>
       </c>
-      <c r="N348">
-        <v>1.8</v>
-      </c>
-      <c r="O348">
-        <v>4.5</v>
-      </c>
-      <c r="P348">
-        <v>3.6</v>
-      </c>
       <c r="Q348">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="R348">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S348">
+        <v>2.025</v>
+      </c>
+      <c r="T348">
         <v>1.825</v>
-      </c>
-      <c r="T348">
-        <v>2.025</v>
       </c>
       <c r="U348">
         <v>2.5</v>
@@ -32580,19 +32580,19 @@
         <v>1.875</v>
       </c>
       <c r="X348">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA348">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB348">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
         <v>-1</v>
@@ -32606,7 +32606,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>7750623</v>
+        <v>7750621</v>
       </c>
       <c r="C349" t="s">
         <v>39</v>
@@ -32615,46 +32615,46 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E349" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F349" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G349">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K349" t="s">
         <v>68</v>
       </c>
       <c r="L349">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="M349">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N349">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="O349">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="P349">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q349">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="R349">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S349">
         <v>2</v>
@@ -32663,34 +32663,34 @@
         <v>1.85</v>
       </c>
       <c r="U349">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V349">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W349">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Z349">
         <v>-1</v>
       </c>
       <c r="AA349">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB349">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC349">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD349">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="350" spans="1:30">
@@ -32698,7 +32698,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>7750621</v>
+        <v>7750623</v>
       </c>
       <c r="C350" t="s">
         <v>39</v>
@@ -32707,46 +32707,46 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E350" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F350" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K350" t="s">
         <v>68</v>
       </c>
       <c r="L350">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="M350">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N350">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="O350">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="P350">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q350">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="R350">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S350">
         <v>2</v>
@@ -32755,34 +32755,34 @@
         <v>1.85</v>
       </c>
       <c r="U350">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V350">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W350">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Z350">
         <v>-1</v>
       </c>
       <c r="AA350">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB350">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD350">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:30">
@@ -32790,7 +32790,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7750620</v>
+        <v>7750624</v>
       </c>
       <c r="C351" t="s">
         <v>39</v>
@@ -32799,16 +32799,16 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E351" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F351" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351">
         <v>1</v>
@@ -32817,34 +32817,34 @@
         <v>0</v>
       </c>
       <c r="K351" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L351">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="M351">
+        <v>3.2</v>
+      </c>
+      <c r="N351">
+        <v>2.15</v>
+      </c>
+      <c r="O351">
+        <v>4</v>
+      </c>
+      <c r="P351">
         <v>3.4</v>
       </c>
-      <c r="N351">
-        <v>4</v>
-      </c>
-      <c r="O351">
-        <v>2.375</v>
-      </c>
-      <c r="P351">
-        <v>3.3</v>
-      </c>
       <c r="Q351">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="R351">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S351">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T351">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U351">
         <v>2.5</v>
@@ -32856,16 +32856,16 @@
         <v>1.875</v>
       </c>
       <c r="X351">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z351">
         <v>-1</v>
       </c>
       <c r="AA351">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB351">
         <v>-1</v>
@@ -32882,7 +32882,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7749884</v>
+        <v>7750625</v>
       </c>
       <c r="C352" t="s">
         <v>39</v>
@@ -32891,10 +32891,10 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E352" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F352" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G352">
         <v>0</v>
@@ -32906,31 +32906,31 @@
         <v>0</v>
       </c>
       <c r="J352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K352" t="s">
         <v>66</v>
       </c>
       <c r="L352">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M352">
         <v>3.3</v>
       </c>
       <c r="N352">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O352">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P352">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q352">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R352">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S352">
         <v>1.825</v>
@@ -32942,10 +32942,10 @@
         <v>2.5</v>
       </c>
       <c r="V352">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W352">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -32954,19 +32954,19 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB352">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC352">
         <v>-1</v>
       </c>
       <c r="AD352">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="353" spans="1:30">
@@ -32974,7 +32974,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7750624</v>
+        <v>7750626</v>
       </c>
       <c r="C353" t="s">
         <v>39</v>
@@ -32983,82 +32983,82 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E353" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F353" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G353">
         <v>1</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I353">
         <v>1</v>
       </c>
       <c r="J353">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K353" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L353">
+        <v>2.45</v>
+      </c>
+      <c r="M353">
+        <v>3</v>
+      </c>
+      <c r="N353">
+        <v>2.8</v>
+      </c>
+      <c r="O353">
+        <v>2.7</v>
+      </c>
+      <c r="P353">
         <v>3.1</v>
       </c>
-      <c r="M353">
-        <v>3.2</v>
-      </c>
-      <c r="N353">
-        <v>2.15</v>
-      </c>
-      <c r="O353">
-        <v>4</v>
-      </c>
-      <c r="P353">
-        <v>3.4</v>
-      </c>
       <c r="Q353">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="R353">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S353">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T353">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U353">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V353">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W353">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA353">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC353">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AD353">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:30">
@@ -33158,7 +33158,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>7750631</v>
+        <v>7750630</v>
       </c>
       <c r="C355" t="s">
         <v>39</v>
@@ -33167,82 +33167,82 @@
         <v>45395.08333333334</v>
       </c>
       <c r="E355" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F355" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G355">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H355">
         <v>1</v>
       </c>
       <c r="I355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J355">
         <v>0</v>
       </c>
       <c r="K355" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L355">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="M355">
+        <v>3.5</v>
+      </c>
+      <c r="N355">
+        <v>4.2</v>
+      </c>
+      <c r="O355">
+        <v>1.8</v>
+      </c>
+      <c r="P355">
         <v>3.6</v>
       </c>
-      <c r="N355">
+      <c r="Q355">
         <v>4.75</v>
-      </c>
-      <c r="O355">
-        <v>1.75</v>
-      </c>
-      <c r="P355">
-        <v>3.75</v>
-      </c>
-      <c r="Q355">
-        <v>5</v>
       </c>
       <c r="R355">
         <v>-0.75</v>
       </c>
       <c r="S355">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T355">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U355">
         <v>2.5</v>
       </c>
       <c r="V355">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W355">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X355">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z355">
         <v>-1</v>
       </c>
       <c r="AA355">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB355">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC355">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD355">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="356" spans="1:30">
@@ -33342,7 +33342,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>7750628</v>
+        <v>7750631</v>
       </c>
       <c r="C357" t="s">
         <v>39</v>
@@ -33351,16 +33351,16 @@
         <v>45395.08333333334</v>
       </c>
       <c r="E357" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F357" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G357">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I357">
         <v>2</v>
@@ -33372,25 +33372,25 @@
         <v>67</v>
       </c>
       <c r="L357">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="M357">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N357">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="O357">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="P357">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q357">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="R357">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S357">
         <v>2</v>
@@ -33399,7 +33399,7 @@
         <v>1.85</v>
       </c>
       <c r="U357">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V357">
         <v>2.025</v>
@@ -33408,7 +33408,7 @@
         <v>1.825</v>
       </c>
       <c r="X357">
-        <v>1.375</v>
+        <v>0.75</v>
       </c>
       <c r="Y357">
         <v>-1</v>
@@ -33423,10 +33423,10 @@
         <v>-1</v>
       </c>
       <c r="AC357">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AD357">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358" spans="1:30">
@@ -33434,7 +33434,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7750630</v>
+        <v>7750628</v>
       </c>
       <c r="C358" t="s">
         <v>39</v>
@@ -33443,82 +33443,82 @@
         <v>45395.08333333334</v>
       </c>
       <c r="E358" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F358" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J358">
         <v>0</v>
       </c>
       <c r="K358" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L358">
+        <v>2.55</v>
+      </c>
+      <c r="M358">
+        <v>3.1</v>
+      </c>
+      <c r="N358">
+        <v>2.8</v>
+      </c>
+      <c r="O358">
+        <v>2.375</v>
+      </c>
+      <c r="P358">
+        <v>3.1</v>
+      </c>
+      <c r="Q358">
+        <v>3.25</v>
+      </c>
+      <c r="R358">
+        <v>-0.25</v>
+      </c>
+      <c r="S358">
+        <v>2</v>
+      </c>
+      <c r="T358">
         <v>1.85</v>
       </c>
-      <c r="M358">
-        <v>3.5</v>
-      </c>
-      <c r="N358">
-        <v>4.2</v>
-      </c>
-      <c r="O358">
-        <v>1.8</v>
-      </c>
-      <c r="P358">
-        <v>3.6</v>
-      </c>
-      <c r="Q358">
-        <v>4.75</v>
-      </c>
-      <c r="R358">
-        <v>-0.75</v>
-      </c>
-      <c r="S358">
+      <c r="U358">
+        <v>2.25</v>
+      </c>
+      <c r="V358">
         <v>2.025</v>
       </c>
-      <c r="T358">
+      <c r="W358">
         <v>1.825</v>
       </c>
-      <c r="U358">
-        <v>2.5</v>
-      </c>
-      <c r="V358">
-        <v>2.05</v>
-      </c>
-      <c r="W358">
-        <v>1.8</v>
-      </c>
       <c r="X358">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y358">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z358">
         <v>-1</v>
       </c>
       <c r="AA358">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB358">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC358">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD358">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="359" spans="1:30">
@@ -33526,7 +33526,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7750633</v>
+        <v>7750632</v>
       </c>
       <c r="C359" t="s">
         <v>39</v>
@@ -33535,79 +33535,79 @@
         <v>45395.16666666666</v>
       </c>
       <c r="E359" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F359" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G359">
         <v>2</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I359">
         <v>1</v>
       </c>
       <c r="J359">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K359" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L359">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="M359">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N359">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O359">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="P359">
         <v>3.4</v>
       </c>
       <c r="Q359">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="R359">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S359">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T359">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U359">
         <v>2.5</v>
       </c>
       <c r="V359">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W359">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="X359">
         <v>-1</v>
       </c>
       <c r="Y359">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z359">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA359">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB359">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AC359">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AD359">
         <v>-1</v>
@@ -33618,7 +33618,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7750632</v>
+        <v>7750633</v>
       </c>
       <c r="C360" t="s">
         <v>39</v>
@@ -33627,79 +33627,79 @@
         <v>45395.16666666666</v>
       </c>
       <c r="E360" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F360" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G360">
         <v>2</v>
       </c>
       <c r="H360">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I360">
         <v>1</v>
       </c>
       <c r="J360">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K360" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L360">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="M360">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N360">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O360">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="P360">
         <v>3.4</v>
       </c>
       <c r="Q360">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="R360">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S360">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T360">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U360">
         <v>2.5</v>
       </c>
       <c r="V360">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W360">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z360">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB360">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AC360">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AD360">
         <v>-1</v>
@@ -36010,7 +36010,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7750655</v>
+        <v>7750657</v>
       </c>
       <c r="C386" t="s">
         <v>39</v>
@@ -36019,64 +36019,64 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E386" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F386" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G386">
         <v>2</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K386" t="s">
         <v>67</v>
       </c>
       <c r="L386">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="M386">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N386">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O386">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="P386">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q386">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="R386">
         <v>-0.5</v>
       </c>
       <c r="S386">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T386">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U386">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V386">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W386">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X386">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y386">
         <v>-1</v>
@@ -36085,16 +36085,16 @@
         <v>-1</v>
       </c>
       <c r="AA386">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB386">
         <v>-1</v>
       </c>
       <c r="AC386">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AD386">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="387" spans="1:30">
@@ -36194,7 +36194,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7750657</v>
+        <v>7750658</v>
       </c>
       <c r="C388" t="s">
         <v>39</v>
@@ -36203,64 +36203,64 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E388" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F388" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G388">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I388">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K388" t="s">
         <v>67</v>
       </c>
       <c r="L388">
+        <v>1.444</v>
+      </c>
+      <c r="M388">
+        <v>4.25</v>
+      </c>
+      <c r="N388">
+        <v>7.5</v>
+      </c>
+      <c r="O388">
+        <v>1.363</v>
+      </c>
+      <c r="P388">
+        <v>5</v>
+      </c>
+      <c r="Q388">
+        <v>9</v>
+      </c>
+      <c r="R388">
+        <v>-1.5</v>
+      </c>
+      <c r="S388">
+        <v>2.05</v>
+      </c>
+      <c r="T388">
         <v>1.8</v>
       </c>
-      <c r="M388">
-        <v>3.4</v>
-      </c>
-      <c r="N388">
-        <v>4.5</v>
-      </c>
-      <c r="O388">
-        <v>1.8</v>
-      </c>
-      <c r="P388">
-        <v>3.6</v>
-      </c>
-      <c r="Q388">
-        <v>4.5</v>
-      </c>
-      <c r="R388">
-        <v>-0.5</v>
-      </c>
-      <c r="S388">
-        <v>1.8</v>
-      </c>
-      <c r="T388">
-        <v>2.05</v>
-      </c>
       <c r="U388">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V388">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W388">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X388">
-        <v>0.8</v>
+        <v>0.363</v>
       </c>
       <c r="Y388">
         <v>-1</v>
@@ -36269,16 +36269,16 @@
         <v>-1</v>
       </c>
       <c r="AA388">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB388">
         <v>-1</v>
       </c>
       <c r="AC388">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD388">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="389" spans="1:30">
@@ -36286,7 +36286,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7750659</v>
+        <v>7750660</v>
       </c>
       <c r="C389" t="s">
         <v>39</v>
@@ -36295,79 +36295,79 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E389" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F389" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G389">
         <v>2</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I389">
         <v>0</v>
       </c>
       <c r="J389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K389" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L389">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="M389">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N389">
+        <v>3.75</v>
+      </c>
+      <c r="O389">
+        <v>2.4</v>
+      </c>
+      <c r="P389">
         <v>3.2</v>
       </c>
-      <c r="O389">
-        <v>2.15</v>
-      </c>
-      <c r="P389">
-        <v>3.3</v>
-      </c>
       <c r="Q389">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="R389">
         <v>-0.25</v>
       </c>
       <c r="S389">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T389">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U389">
         <v>2.25</v>
       </c>
       <c r="V389">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W389">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X389">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y389">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z389">
         <v>-1</v>
       </c>
       <c r="AA389">
+        <v>-0.5</v>
+      </c>
+      <c r="AB389">
+        <v>0.4</v>
+      </c>
+      <c r="AC389">
         <v>0.875</v>
-      </c>
-      <c r="AB389">
-        <v>-1</v>
-      </c>
-      <c r="AC389">
-        <v>0.925</v>
       </c>
       <c r="AD389">
         <v>-1</v>
@@ -36378,7 +36378,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>7750660</v>
+        <v>7750659</v>
       </c>
       <c r="C390" t="s">
         <v>39</v>
@@ -36387,79 +36387,79 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E390" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F390" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G390">
         <v>2</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390">
         <v>0</v>
       </c>
       <c r="J390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K390" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L390">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="M390">
+        <v>3.4</v>
+      </c>
+      <c r="N390">
         <v>3.2</v>
       </c>
-      <c r="N390">
-        <v>3.75</v>
-      </c>
       <c r="O390">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="P390">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q390">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R390">
         <v>-0.25</v>
       </c>
       <c r="S390">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T390">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U390">
         <v>2.25</v>
       </c>
       <c r="V390">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W390">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X390">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y390">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z390">
         <v>-1</v>
       </c>
       <c r="AA390">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB390">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC390">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AD390">
         <v>-1</v>
@@ -36470,7 +36470,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7750658</v>
+        <v>7750656</v>
       </c>
       <c r="C391" t="s">
         <v>39</v>
@@ -36479,79 +36479,79 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E391" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F391" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G391">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I391">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K391" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L391">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="M391">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="N391">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="O391">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="P391">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q391">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="R391">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="S391">
+        <v>1.8</v>
+      </c>
+      <c r="T391">
         <v>2.05</v>
       </c>
-      <c r="T391">
-        <v>1.8</v>
-      </c>
       <c r="U391">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V391">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W391">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X391">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y391">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z391">
         <v>-1</v>
       </c>
       <c r="AA391">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB391">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC391">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD391">
         <v>-1</v>
@@ -36562,7 +36562,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7750656</v>
+        <v>7749888</v>
       </c>
       <c r="C392" t="s">
         <v>39</v>
@@ -36571,13 +36571,13 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E392" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F392" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G392">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H392">
         <v>2</v>
@@ -36589,61 +36589,61 @@
         <v>0</v>
       </c>
       <c r="K392" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L392">
+        <v>2</v>
+      </c>
+      <c r="M392">
+        <v>3.5</v>
+      </c>
+      <c r="N392">
+        <v>3.6</v>
+      </c>
+      <c r="O392">
+        <v>2.15</v>
+      </c>
+      <c r="P392">
+        <v>3.5</v>
+      </c>
+      <c r="Q392">
+        <v>3.4</v>
+      </c>
+      <c r="R392">
+        <v>-0.25</v>
+      </c>
+      <c r="S392">
+        <v>1.875</v>
+      </c>
+      <c r="T392">
+        <v>1.975</v>
+      </c>
+      <c r="U392">
         <v>2.5</v>
       </c>
-      <c r="M392">
-        <v>3.4</v>
-      </c>
-      <c r="N392">
-        <v>2.7</v>
-      </c>
-      <c r="O392">
-        <v>3</v>
-      </c>
-      <c r="P392">
-        <v>3.4</v>
-      </c>
-      <c r="Q392">
-        <v>2.375</v>
-      </c>
-      <c r="R392">
-        <v>0.25</v>
-      </c>
-      <c r="S392">
-        <v>1.8</v>
-      </c>
-      <c r="T392">
-        <v>2.05</v>
-      </c>
-      <c r="U392">
-        <v>2.25</v>
-      </c>
       <c r="V392">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W392">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X392">
         <v>-1</v>
       </c>
       <c r="Y392">
+        <v>-1</v>
+      </c>
+      <c r="Z392">
         <v>2.4</v>
       </c>
-      <c r="Z392">
-        <v>-1</v>
-      </c>
       <c r="AA392">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB392">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC392">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AD392">
         <v>-1</v>
@@ -36654,7 +36654,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7749888</v>
+        <v>7750655</v>
       </c>
       <c r="C393" t="s">
         <v>39</v>
@@ -36663,79 +36663,79 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E393" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F393" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G393">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K393" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L393">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M393">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N393">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O393">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="P393">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q393">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="R393">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S393">
+        <v>1.975</v>
+      </c>
+      <c r="T393">
         <v>1.875</v>
       </c>
-      <c r="T393">
-        <v>1.975</v>
-      </c>
       <c r="U393">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V393">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W393">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X393">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y393">
         <v>-1</v>
       </c>
       <c r="Z393">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA393">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB393">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC393">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AD393">
         <v>-1</v>
@@ -36838,7 +36838,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7750665</v>
+        <v>7750666</v>
       </c>
       <c r="C395" t="s">
         <v>39</v>
@@ -36847,19 +36847,19 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E395" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F395" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H395">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395">
         <v>1</v>
@@ -36868,40 +36868,40 @@
         <v>66</v>
       </c>
       <c r="L395">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="M395">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N395">
-        <v>1.45</v>
+        <v>5</v>
       </c>
       <c r="O395">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P395">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q395">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="R395">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S395">
         <v>2.05</v>
       </c>
       <c r="T395">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U395">
         <v>2.25</v>
       </c>
       <c r="V395">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W395">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X395">
         <v>-1</v>
@@ -36910,16 +36910,16 @@
         <v>-1</v>
       </c>
       <c r="Z395">
-        <v>0.571</v>
+        <v>2.75</v>
       </c>
       <c r="AA395">
         <v>-1</v>
       </c>
       <c r="AB395">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC395">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AD395">
         <v>-1</v>
@@ -36930,7 +36930,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7750669</v>
+        <v>7750664</v>
       </c>
       <c r="C396" t="s">
         <v>39</v>
@@ -36939,10 +36939,10 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E396" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F396" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G396">
         <v>0</v>
@@ -36954,25 +36954,25 @@
         <v>0</v>
       </c>
       <c r="J396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K396" t="s">
         <v>66</v>
       </c>
       <c r="L396">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="M396">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N396">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O396">
         <v>2.8</v>
       </c>
       <c r="P396">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q396">
         <v>2.55</v>
@@ -36981,19 +36981,19 @@
         <v>0</v>
       </c>
       <c r="S396">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T396">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U396">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V396">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W396">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="X396">
         <v>-1</v>
@@ -37008,13 +37008,13 @@
         <v>-1</v>
       </c>
       <c r="AB396">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC396">
         <v>-1</v>
       </c>
       <c r="AD396">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="397" spans="1:30">
@@ -37022,7 +37022,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7750664</v>
+        <v>7750663</v>
       </c>
       <c r="C397" t="s">
         <v>39</v>
@@ -37031,16 +37031,16 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E397" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F397" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397">
         <v>0</v>
@@ -37049,64 +37049,64 @@
         <v>0</v>
       </c>
       <c r="K397" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L397">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M397">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N397">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O397">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="P397">
+        <v>3</v>
+      </c>
+      <c r="Q397">
         <v>3.1</v>
       </c>
-      <c r="Q397">
-        <v>2.55</v>
-      </c>
       <c r="R397">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S397">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T397">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U397">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V397">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W397">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="X397">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA397">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB397">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC397">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD397">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="398" spans="1:30">
@@ -37114,7 +37114,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7750666</v>
+        <v>7750669</v>
       </c>
       <c r="C398" t="s">
         <v>39</v>
@@ -37123,19 +37123,19 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E398" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F398" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J398">
         <v>1</v>
@@ -37144,25 +37144,25 @@
         <v>66</v>
       </c>
       <c r="L398">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="M398">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N398">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="O398">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="P398">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q398">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="R398">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S398">
         <v>2.05</v>
@@ -37174,10 +37174,10 @@
         <v>2.25</v>
       </c>
       <c r="V398">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W398">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="X398">
         <v>-1</v>
@@ -37186,7 +37186,7 @@
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="AA398">
         <v>-1</v>
@@ -37195,10 +37195,10 @@
         <v>0.8</v>
       </c>
       <c r="AC398">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD398">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="399" spans="1:30">
@@ -37206,7 +37206,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>7750663</v>
+        <v>7750665</v>
       </c>
       <c r="C399" t="s">
         <v>39</v>
@@ -37215,82 +37215,82 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E399" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F399" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G399">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I399">
         <v>0</v>
       </c>
       <c r="J399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K399" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L399">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="M399">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N399">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O399">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="P399">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q399">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="R399">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S399">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T399">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U399">
         <v>2.25</v>
       </c>
       <c r="V399">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W399">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="X399">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y399">
         <v>-1</v>
       </c>
       <c r="Z399">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="AA399">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB399">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC399">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD399">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="400" spans="1:30">
@@ -37758,7 +37758,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>7750672</v>
+        <v>7750673</v>
       </c>
       <c r="C405" t="s">
         <v>39</v>
@@ -37767,16 +37767,16 @@
         <v>45423.08333333334</v>
       </c>
       <c r="E405" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F405" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G405">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405">
         <v>2</v>
@@ -37788,43 +37788,43 @@
         <v>67</v>
       </c>
       <c r="L405">
-        <v>1.727</v>
+        <v>1.55</v>
       </c>
       <c r="M405">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N405">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="O405">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="P405">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q405">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="R405">
         <v>-1</v>
       </c>
       <c r="S405">
+        <v>1.9</v>
+      </c>
+      <c r="T405">
         <v>1.95</v>
       </c>
-      <c r="T405">
-        <v>1.9</v>
-      </c>
       <c r="U405">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V405">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W405">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="X405">
-        <v>0.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y405">
         <v>-1</v>
@@ -37833,13 +37833,13 @@
         <v>-1</v>
       </c>
       <c r="AA405">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB405">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC405">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AD405">
         <v>-1</v>
@@ -37850,7 +37850,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>7750673</v>
+        <v>7750672</v>
       </c>
       <c r="C406" t="s">
         <v>39</v>
@@ -37859,16 +37859,16 @@
         <v>45423.08333333334</v>
       </c>
       <c r="E406" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F406" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G406">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I406">
         <v>2</v>
@@ -37880,43 +37880,43 @@
         <v>67</v>
       </c>
       <c r="L406">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="M406">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N406">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="O406">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="P406">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q406">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="R406">
         <v>-1</v>
       </c>
       <c r="S406">
+        <v>1.95</v>
+      </c>
+      <c r="T406">
         <v>1.9</v>
       </c>
-      <c r="T406">
-        <v>1.95</v>
-      </c>
       <c r="U406">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V406">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W406">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X406">
-        <v>0.5329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Y406">
         <v>-1</v>
@@ -37925,13 +37925,13 @@
         <v>-1</v>
       </c>
       <c r="AA406">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB406">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC406">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD406">
         <v>-1</v>
@@ -38770,7 +38770,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>7750683</v>
+        <v>7750682</v>
       </c>
       <c r="C416" t="s">
         <v>39</v>
@@ -38779,13 +38779,13 @@
         <v>45430.08333333334</v>
       </c>
       <c r="E416" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F416" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H416">
         <v>1</v>
@@ -38794,37 +38794,37 @@
         <v>0</v>
       </c>
       <c r="J416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K416" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L416">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="M416">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N416">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O416">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="P416">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q416">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="R416">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S416">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T416">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U416">
         <v>2.25</v>
@@ -38839,22 +38839,22 @@
         <v>-1</v>
       </c>
       <c r="Y416">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z416">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA416">
         <v>-0.5</v>
       </c>
       <c r="AB416">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
       <c r="AC416">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD416">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="417" spans="1:30">
@@ -38862,7 +38862,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>7750682</v>
+        <v>7750684</v>
       </c>
       <c r="C417" t="s">
         <v>39</v>
@@ -38871,55 +38871,55 @@
         <v>45430.08333333334</v>
       </c>
       <c r="E417" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F417" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G417">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H417">
         <v>1</v>
       </c>
       <c r="I417">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K417" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L417">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="M417">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="N417">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O417">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="P417">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q417">
-        <v>3.1</v>
+        <v>6.25</v>
       </c>
       <c r="R417">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S417">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T417">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U417">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="V417">
         <v>2.025</v>
@@ -38928,25 +38928,25 @@
         <v>1.825</v>
       </c>
       <c r="X417">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y417">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z417">
         <v>-1</v>
       </c>
       <c r="AA417">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB417">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC417">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AD417">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418" spans="1:30">
@@ -38954,7 +38954,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>7750684</v>
+        <v>7750681</v>
       </c>
       <c r="C418" t="s">
         <v>39</v>
@@ -38963,82 +38963,82 @@
         <v>45430.08333333334</v>
       </c>
       <c r="E418" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F418" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G418">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J418">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K418" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L418">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="M418">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="N418">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O418">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="P418">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q418">
-        <v>6.25</v>
+        <v>2.75</v>
       </c>
       <c r="R418">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S418">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T418">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U418">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="V418">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W418">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X418">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y418">
         <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA418">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC418">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AD418">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="419" spans="1:30">
@@ -39046,7 +39046,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7750681</v>
+        <v>7750683</v>
       </c>
       <c r="C419" t="s">
         <v>39</v>
@@ -39055,61 +39055,61 @@
         <v>45430.08333333334</v>
       </c>
       <c r="E419" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F419" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G419">
         <v>0</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419">
         <v>0</v>
       </c>
       <c r="J419">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K419" t="s">
         <v>66</v>
       </c>
       <c r="L419">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="M419">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N419">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O419">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="P419">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q419">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="R419">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S419">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T419">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U419">
         <v>2.25</v>
       </c>
       <c r="V419">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W419">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X419">
         <v>-1</v>
@@ -39118,19 +39118,19 @@
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>1.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA419">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB419">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC419">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD419">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="420" spans="1:30">
@@ -39322,7 +39322,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7750688</v>
+        <v>7749891</v>
       </c>
       <c r="C422" t="s">
         <v>39</v>
@@ -39331,16 +39331,16 @@
         <v>45431.08333333334</v>
       </c>
       <c r="E422" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F422" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G422">
         <v>2</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422">
         <v>1</v>
@@ -39352,61 +39352,61 @@
         <v>67</v>
       </c>
       <c r="L422">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="M422">
+        <v>3.3</v>
+      </c>
+      <c r="N422">
+        <v>2.9</v>
+      </c>
+      <c r="O422">
+        <v>2</v>
+      </c>
+      <c r="P422">
         <v>3.4</v>
       </c>
-      <c r="N422">
-        <v>3.7</v>
-      </c>
-      <c r="O422">
-        <v>1.9</v>
-      </c>
-      <c r="P422">
+      <c r="Q422">
         <v>3.5</v>
       </c>
-      <c r="Q422">
-        <v>3.9</v>
-      </c>
       <c r="R422">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S422">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T422">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U422">
         <v>2.5</v>
       </c>
       <c r="V422">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W422">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X422">
+        <v>1</v>
+      </c>
+      <c r="Y422">
+        <v>-1</v>
+      </c>
+      <c r="Z422">
+        <v>-1</v>
+      </c>
+      <c r="AA422">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB422">
+        <v>-1</v>
+      </c>
+      <c r="AC422">
+        <v>-1</v>
+      </c>
+      <c r="AD422">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Y422">
-        <v>-1</v>
-      </c>
-      <c r="Z422">
-        <v>-1</v>
-      </c>
-      <c r="AA422">
-        <v>0.95</v>
-      </c>
-      <c r="AB422">
-        <v>-1</v>
-      </c>
-      <c r="AC422">
-        <v>1</v>
-      </c>
-      <c r="AD422">
-        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:30">
@@ -39414,7 +39414,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7749891</v>
+        <v>7750688</v>
       </c>
       <c r="C423" t="s">
         <v>39</v>
@@ -39423,16 +39423,16 @@
         <v>45431.08333333334</v>
       </c>
       <c r="E423" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F423" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G423">
         <v>2</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I423">
         <v>1</v>
@@ -39444,43 +39444,43 @@
         <v>67</v>
       </c>
       <c r="L423">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="M423">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N423">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="O423">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P423">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q423">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="R423">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S423">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T423">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U423">
         <v>2.5</v>
       </c>
       <c r="V423">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W423">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X423">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Y423">
         <v>-1</v>
@@ -39489,16 +39489,16 @@
         <v>-1</v>
       </c>
       <c r="AA423">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB423">
         <v>-1</v>
       </c>
       <c r="AC423">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD423">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:30">
@@ -39966,7 +39966,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>7750696</v>
+        <v>7750693</v>
       </c>
       <c r="C429" t="s">
         <v>39</v>
@@ -39975,73 +39975,73 @@
         <v>45438.08333333334</v>
       </c>
       <c r="E429" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F429" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G429">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K429" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L429">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="M429">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N429">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="O429">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="P429">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q429">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R429">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S429">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T429">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U429">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V429">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W429">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X429">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y429">
         <v>-1</v>
       </c>
       <c r="Z429">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA429">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB429">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC429">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AD429">
         <v>-1</v>
@@ -40396,7 +40396,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>7750693</v>
+        <v>7750696</v>
       </c>
       <c r="C434" t="s">
         <v>39</v>
@@ -40405,73 +40405,73 @@
         <v>45438.08333333334</v>
       </c>
       <c r="E434" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F434" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H434">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K434" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L434">
+        <v>1.65</v>
+      </c>
+      <c r="M434">
+        <v>3.5</v>
+      </c>
+      <c r="N434">
+        <v>5</v>
+      </c>
+      <c r="O434">
+        <v>1.666</v>
+      </c>
+      <c r="P434">
+        <v>3.7</v>
+      </c>
+      <c r="Q434">
+        <v>5</v>
+      </c>
+      <c r="R434">
+        <v>-0.75</v>
+      </c>
+      <c r="S434">
+        <v>1.9</v>
+      </c>
+      <c r="T434">
+        <v>1.95</v>
+      </c>
+      <c r="U434">
         <v>2.5</v>
       </c>
-      <c r="M434">
-        <v>2.875</v>
-      </c>
-      <c r="N434">
-        <v>2.9</v>
-      </c>
-      <c r="O434">
-        <v>2.5</v>
-      </c>
-      <c r="P434">
-        <v>2.9</v>
-      </c>
-      <c r="Q434">
-        <v>3</v>
-      </c>
-      <c r="R434">
-        <v>0</v>
-      </c>
-      <c r="S434">
-        <v>1.775</v>
-      </c>
-      <c r="T434">
-        <v>2.1</v>
-      </c>
-      <c r="U434">
-        <v>2.25</v>
-      </c>
       <c r="V434">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W434">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X434">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y434">
         <v>-1</v>
       </c>
       <c r="Z434">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA434">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB434">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC434">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AD434">
         <v>-1</v>
@@ -40482,7 +40482,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>7750699</v>
+        <v>7749893</v>
       </c>
       <c r="C435" t="s">
         <v>39</v>
@@ -40491,73 +40491,73 @@
         <v>45444.08333333334</v>
       </c>
       <c r="E435" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F435" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G435">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K435" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L435">
+        <v>3</v>
+      </c>
+      <c r="M435">
+        <v>3.4</v>
+      </c>
+      <c r="N435">
+        <v>2.15</v>
+      </c>
+      <c r="O435">
+        <v>2.875</v>
+      </c>
+      <c r="P435">
+        <v>3.3</v>
+      </c>
+      <c r="Q435">
         <v>2.375</v>
       </c>
-      <c r="M435">
-        <v>3.2</v>
-      </c>
-      <c r="N435">
-        <v>2.8</v>
-      </c>
-      <c r="O435">
-        <v>2.6</v>
-      </c>
-      <c r="P435">
-        <v>3.2</v>
-      </c>
-      <c r="Q435">
-        <v>2.625</v>
-      </c>
       <c r="R435">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S435">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T435">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="U435">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V435">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W435">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="X435">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y435">
         <v>-1</v>
       </c>
       <c r="Z435">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA435">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB435">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC435">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AD435">
         <v>-1</v>
@@ -40568,7 +40568,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>7749893</v>
+        <v>7750699</v>
       </c>
       <c r="C436" t="s">
         <v>39</v>
@@ -40577,73 +40577,73 @@
         <v>45444.08333333334</v>
       </c>
       <c r="E436" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F436" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G436">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K436" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L436">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="M436">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N436">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O436">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="P436">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q436">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="R436">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S436">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T436">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="U436">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V436">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W436">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="X436">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y436">
         <v>-1</v>
       </c>
       <c r="Z436">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA436">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB436">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC436">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AD436">
         <v>-1</v>
@@ -40850,31 +40850,31 @@
         <v>2.5</v>
       </c>
       <c r="O439">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="P439">
         <v>3.1</v>
       </c>
       <c r="Q439">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R439">
         <v>0</v>
       </c>
       <c r="S439">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T439">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U439">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V439">
+        <v>2.05</v>
+      </c>
+      <c r="W439">
         <v>1.8</v>
-      </c>
-      <c r="W439">
-        <v>2.05</v>
       </c>
       <c r="X439">
         <v>0</v>
@@ -40915,31 +40915,31 @@
         <v>5.5</v>
       </c>
       <c r="O440">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="P440">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q440">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="R440">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S440">
+        <v>2.05</v>
+      </c>
+      <c r="T440">
         <v>1.8</v>
       </c>
-      <c r="T440">
-        <v>2.05</v>
-      </c>
       <c r="U440">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V440">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W440">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="X440">
         <v>0</v>
@@ -40992,19 +40992,19 @@
         <v>-0.75</v>
       </c>
       <c r="S441">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T441">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U441">
         <v>2.75</v>
       </c>
       <c r="V441">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W441">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X441">
         <v>0</v>
@@ -41057,10 +41057,10 @@
         <v>0</v>
       </c>
       <c r="S442">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T442">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U442">
         <v>2.25</v>
@@ -41122,10 +41122,10 @@
         <v>0</v>
       </c>
       <c r="S443">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T443">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U443">
         <v>2.25</v>
@@ -41187,19 +41187,19 @@
         <v>-1</v>
       </c>
       <c r="S444">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T444">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U444">
         <v>2.25</v>
       </c>
       <c r="V444">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W444">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X444">
         <v>0</v>
@@ -41326,10 +41326,10 @@
         <v>2.75</v>
       </c>
       <c r="V446">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W446">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X446">
         <v>0</v>

--- a/Japan J2League/Japan J2League.xlsx
+++ b/Japan J2League/Japan J2League.xlsx
@@ -103,34 +103,34 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7750725</t>
+    <t>7750735</t>
   </si>
   <si>
-    <t>7750726</t>
+    <t>7750736</t>
   </si>
   <si>
-    <t>7749896</t>
+    <t>7750737</t>
   </si>
   <si>
-    <t>7750731</t>
+    <t>7750740</t>
   </si>
   <si>
-    <t>7750729</t>
+    <t>7750739</t>
   </si>
   <si>
-    <t>7750728</t>
+    <t>7750738</t>
   </si>
   <si>
-    <t>7750727</t>
+    <t>7749897</t>
   </si>
   <si>
-    <t>7750730</t>
+    <t>7750741</t>
   </si>
   <si>
-    <t>7750732</t>
+    <t>7750742</t>
   </si>
   <si>
-    <t>7750733</t>
+    <t>7750743</t>
   </si>
   <si>
     <t>Japan J2League</t>
@@ -2338,7 +2338,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6189123</v>
+        <v>6189124</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -2347,61 +2347,61 @@
         <v>45088.25</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" t="s">
         <v>66</v>
       </c>
       <c r="L20">
+        <v>2.3</v>
+      </c>
+      <c r="M20">
+        <v>3.3</v>
+      </c>
+      <c r="N20">
+        <v>2.75</v>
+      </c>
+      <c r="O20">
+        <v>2.375</v>
+      </c>
+      <c r="P20">
+        <v>3.6</v>
+      </c>
+      <c r="Q20">
+        <v>2.875</v>
+      </c>
+      <c r="R20">
+        <v>-0.25</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>1.85</v>
+      </c>
+      <c r="U20">
         <v>3</v>
       </c>
-      <c r="M20">
-        <v>3.2</v>
-      </c>
-      <c r="N20">
-        <v>2.2</v>
-      </c>
-      <c r="O20">
-        <v>2.7</v>
-      </c>
-      <c r="P20">
-        <v>3.1</v>
-      </c>
-      <c r="Q20">
-        <v>2.75</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>1.85</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>2.25</v>
-      </c>
       <c r="V20">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2410,19 +2410,19 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2430,7 +2430,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6189124</v>
+        <v>6189123</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -2439,61 +2439,61 @@
         <v>45088.25</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
         <v>66</v>
       </c>
       <c r="L21">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N21">
+        <v>2.2</v>
+      </c>
+      <c r="O21">
+        <v>2.7</v>
+      </c>
+      <c r="P21">
+        <v>3.1</v>
+      </c>
+      <c r="Q21">
         <v>2.75</v>
       </c>
-      <c r="O21">
-        <v>2.375</v>
-      </c>
-      <c r="P21">
-        <v>3.6</v>
-      </c>
-      <c r="Q21">
-        <v>2.875</v>
-      </c>
       <c r="R21">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2502,19 +2502,19 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -5006,7 +5006,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6189154</v>
+        <v>6189156</v>
       </c>
       <c r="C49" t="s">
         <v>39</v>
@@ -5015,10 +5015,10 @@
         <v>45108.29166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5036,46 +5036,46 @@
         <v>68</v>
       </c>
       <c r="L49">
+        <v>2.15</v>
+      </c>
+      <c r="M49">
+        <v>3.1</v>
+      </c>
+      <c r="N49">
+        <v>3.3</v>
+      </c>
+      <c r="O49">
         <v>1.95</v>
       </c>
-      <c r="M49">
-        <v>3.3</v>
-      </c>
-      <c r="N49">
-        <v>3.5</v>
-      </c>
-      <c r="O49">
-        <v>1.65</v>
-      </c>
       <c r="P49">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q49">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="R49">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S49">
+        <v>2.025</v>
+      </c>
+      <c r="T49">
         <v>1.825</v>
       </c>
-      <c r="T49">
-        <v>2.025</v>
-      </c>
       <c r="U49">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Z49">
         <v>-1</v>
@@ -5084,13 +5084,13 @@
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
         <v>-1</v>
       </c>
       <c r="AD49">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -5098,7 +5098,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6189153</v>
+        <v>6189154</v>
       </c>
       <c r="C50" t="s">
         <v>39</v>
@@ -5107,40 +5107,40 @@
         <v>45108.29166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="s">
         <v>68</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M50">
+        <v>3.3</v>
+      </c>
+      <c r="N50">
         <v>3.5</v>
       </c>
-      <c r="N50">
-        <v>3.6</v>
-      </c>
       <c r="O50">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="P50">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q50">
         <v>4.75</v>
@@ -5149,25 +5149,25 @@
         <v>-0.75</v>
       </c>
       <c r="S50">
+        <v>1.825</v>
+      </c>
+      <c r="T50">
         <v>2.025</v>
       </c>
-      <c r="T50">
+      <c r="U50">
+        <v>2.75</v>
+      </c>
+      <c r="V50">
         <v>1.825</v>
       </c>
-      <c r="U50">
-        <v>2.5</v>
-      </c>
-      <c r="V50">
-        <v>2</v>
-      </c>
       <c r="W50">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z50">
         <v>-1</v>
@@ -5176,13 +5176,13 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC50">
         <v>-1</v>
       </c>
       <c r="AD50">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5190,7 +5190,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6189152</v>
+        <v>6189153</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
@@ -5199,13 +5199,13 @@
         <v>45108.29166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5217,64 +5217,64 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L51">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O51">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q51">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="R51">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S51">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T51">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z51">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC51">
         <v>-1</v>
       </c>
       <c r="AD51">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5282,7 +5282,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6189156</v>
+        <v>6189152</v>
       </c>
       <c r="C52" t="s">
         <v>39</v>
@@ -5291,82 +5291,82 @@
         <v>45108.29166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L52">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="M52">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>2.45</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
         <v>3.3</v>
       </c>
-      <c r="O52">
-        <v>1.95</v>
-      </c>
-      <c r="P52">
-        <v>3.4</v>
-      </c>
-      <c r="Q52">
-        <v>4</v>
-      </c>
       <c r="R52">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T52">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U52">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
         <v>-1</v>
       </c>
       <c r="AD52">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -5742,7 +5742,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6189160</v>
+        <v>6189161</v>
       </c>
       <c r="C57" t="s">
         <v>39</v>
@@ -5751,82 +5751,82 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="M57">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O57">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="P57">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q57">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="R57">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T57">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W57">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -5834,7 +5834,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6189173</v>
+        <v>6189160</v>
       </c>
       <c r="C58" t="s">
         <v>39</v>
@@ -5843,82 +5843,82 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L58">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O58">
+        <v>4.5</v>
+      </c>
+      <c r="P58">
         <v>3.8</v>
       </c>
-      <c r="P58">
-        <v>3.6</v>
-      </c>
       <c r="Q58">
+        <v>1.75</v>
+      </c>
+      <c r="R58">
+        <v>0.75</v>
+      </c>
+      <c r="S58">
+        <v>1.9</v>
+      </c>
+      <c r="T58">
         <v>1.95</v>
       </c>
-      <c r="R58">
-        <v>0.5</v>
-      </c>
-      <c r="S58">
+      <c r="U58">
+        <v>3</v>
+      </c>
+      <c r="V58">
         <v>1.875</v>
       </c>
-      <c r="T58">
+      <c r="W58">
         <v>1.975</v>
       </c>
-      <c r="U58">
-        <v>2.5</v>
-      </c>
-      <c r="V58">
-        <v>1.825</v>
-      </c>
-      <c r="W58">
-        <v>2.025</v>
-      </c>
       <c r="X58">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD58">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -5926,7 +5926,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6189170</v>
+        <v>6189173</v>
       </c>
       <c r="C59" t="s">
         <v>39</v>
@@ -5935,19 +5935,19 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -5956,43 +5956,43 @@
         <v>67</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N59">
+        <v>2.2</v>
+      </c>
+      <c r="O59">
         <v>3.8</v>
       </c>
-      <c r="O59">
-        <v>1.727</v>
-      </c>
       <c r="P59">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q59">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="R59">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S59">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X59">
-        <v>0.7270000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="Y59">
         <v>-1</v>
@@ -6001,16 +6001,16 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD59">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -6018,7 +6018,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6189171</v>
+        <v>6189170</v>
       </c>
       <c r="C60" t="s">
         <v>39</v>
@@ -6027,19 +6027,19 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -6048,19 +6048,19 @@
         <v>67</v>
       </c>
       <c r="L60">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M60">
+        <v>3.1</v>
+      </c>
+      <c r="N60">
         <v>3.8</v>
       </c>
-      <c r="N60">
-        <v>6</v>
-      </c>
       <c r="O60">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="P60">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q60">
         <v>5.25</v>
@@ -6069,22 +6069,22 @@
         <v>-0.75</v>
       </c>
       <c r="S60">
+        <v>2.05</v>
+      </c>
+      <c r="T60">
         <v>1.8</v>
       </c>
-      <c r="T60">
-        <v>2.05</v>
-      </c>
       <c r="U60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V60">
+        <v>1.875</v>
+      </c>
+      <c r="W60">
         <v>1.975</v>
       </c>
-      <c r="W60">
-        <v>1.875</v>
-      </c>
       <c r="X60">
-        <v>0.615</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y60">
         <v>-1</v>
@@ -6093,16 +6093,16 @@
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -6110,7 +6110,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6189161</v>
+        <v>6189171</v>
       </c>
       <c r="C61" t="s">
         <v>39</v>
@@ -6119,19 +6119,19 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -6140,43 +6140,43 @@
         <v>67</v>
       </c>
       <c r="L61">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="M61">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N61">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O61">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="P61">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q61">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="R61">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S61">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T61">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V61">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W61">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X61">
-        <v>1.45</v>
+        <v>0.615</v>
       </c>
       <c r="Y61">
         <v>-1</v>
@@ -6185,16 +6185,16 @@
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD61">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:30">
@@ -6294,7 +6294,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6189174</v>
+        <v>6189164</v>
       </c>
       <c r="C63" t="s">
         <v>39</v>
@@ -6303,79 +6303,79 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
         <v>3</v>
       </c>
       <c r="N63">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P63">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="Q63">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="R63">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AD63">
         <v>-1</v>
@@ -6386,7 +6386,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6189164</v>
+        <v>6189172</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
@@ -6395,79 +6395,79 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L64">
+        <v>1.909</v>
+      </c>
+      <c r="M64">
+        <v>3.3</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>2.25</v>
+      </c>
+      <c r="P64">
         <v>3.4</v>
       </c>
-      <c r="M64">
-        <v>3</v>
-      </c>
-      <c r="N64">
-        <v>2.2</v>
-      </c>
-      <c r="O64">
-        <v>4.333</v>
-      </c>
-      <c r="P64">
-        <v>3.3</v>
-      </c>
       <c r="Q64">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="R64">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S64">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U64">
         <v>2.5</v>
       </c>
       <c r="V64">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X64">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC64">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AD64">
         <v>-1</v>
@@ -6662,7 +6662,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6189172</v>
+        <v>6189174</v>
       </c>
       <c r="C67" t="s">
         <v>39</v>
@@ -6671,13 +6671,13 @@
         <v>45112.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6692,40 +6692,40 @@
         <v>66</v>
       </c>
       <c r="L67">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O67">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="P67">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q67">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="R67">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U67">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6734,16 +6734,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC67">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AD67">
         <v>-1</v>
@@ -6938,7 +6938,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6189178</v>
+        <v>6189177</v>
       </c>
       <c r="C70" t="s">
         <v>39</v>
@@ -6947,10 +6947,10 @@
         <v>45116.25</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6959,7 +6959,7 @@
         <v>2</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -6968,58 +6968,58 @@
         <v>68</v>
       </c>
       <c r="L70">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="M70">
         <v>3</v>
       </c>
       <c r="N70">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O70">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD70">
         <v>-1</v>
@@ -7214,7 +7214,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6189177</v>
+        <v>6189178</v>
       </c>
       <c r="C73" t="s">
         <v>39</v>
@@ -7223,10 +7223,10 @@
         <v>45116.25</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -7235,7 +7235,7 @@
         <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -7244,58 +7244,58 @@
         <v>68</v>
       </c>
       <c r="L73">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="M73">
         <v>3</v>
       </c>
       <c r="N73">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P73">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q73">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="R73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S73">
+        <v>1.775</v>
+      </c>
+      <c r="T73">
+        <v>2.1</v>
+      </c>
+      <c r="U73">
+        <v>1.75</v>
+      </c>
+      <c r="V73">
         <v>1.85</v>
       </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>2</v>
-      </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
       <c r="W73">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD73">
         <v>-1</v>
@@ -7306,7 +7306,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6189185</v>
+        <v>6189181</v>
       </c>
       <c r="C74" t="s">
         <v>39</v>
@@ -7315,16 +7315,16 @@
         <v>45116.29166666666</v>
       </c>
       <c r="E74" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -7336,40 +7336,40 @@
         <v>66</v>
       </c>
       <c r="L74">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
         <v>3.4</v>
       </c>
       <c r="N74">
+        <v>2.1</v>
+      </c>
+      <c r="O74">
+        <v>4</v>
+      </c>
+      <c r="P74">
+        <v>3.6</v>
+      </c>
+      <c r="Q74">
         <v>1.909</v>
       </c>
-      <c r="O74">
-        <v>4.5</v>
-      </c>
-      <c r="P74">
-        <v>3.8</v>
-      </c>
-      <c r="Q74">
-        <v>1.727</v>
-      </c>
       <c r="R74">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U74">
         <v>2.75</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7378,19 +7378,19 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AD74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7490,7 +7490,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6189181</v>
+        <v>6189185</v>
       </c>
       <c r="C76" t="s">
         <v>39</v>
@@ -7499,16 +7499,16 @@
         <v>45116.29166666666</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7520,40 +7520,40 @@
         <v>66</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M76">
         <v>3.4</v>
       </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P76">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q76">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="R76">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U76">
         <v>2.75</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7562,19 +7562,19 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC76">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AD76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -10894,7 +10894,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6189221</v>
+        <v>6189223</v>
       </c>
       <c r="C113" t="s">
         <v>39</v>
@@ -10903,82 +10903,82 @@
         <v>45144.25</v>
       </c>
       <c r="E113" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F113" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L113">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="M113">
         <v>3.3</v>
       </c>
       <c r="N113">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="O113">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="P113">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q113">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="R113">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S113">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="U113">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z113">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB113">
-        <v>1.1</v>
+        <v>0.45</v>
       </c>
       <c r="AC113">
         <v>-1</v>
       </c>
       <c r="AD113">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:30">
@@ -10986,7 +10986,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6189223</v>
+        <v>6189222</v>
       </c>
       <c r="C114" t="s">
         <v>39</v>
@@ -10995,82 +10995,82 @@
         <v>45144.25</v>
       </c>
       <c r="E114" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L114">
+        <v>1.85</v>
+      </c>
+      <c r="M114">
+        <v>3.5</v>
+      </c>
+      <c r="N114">
+        <v>3.75</v>
+      </c>
+      <c r="O114">
         <v>2.2</v>
       </c>
-      <c r="M114">
-        <v>3.3</v>
-      </c>
-      <c r="N114">
-        <v>3</v>
-      </c>
-      <c r="O114">
-        <v>2.15</v>
-      </c>
       <c r="P114">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q114">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R114">
         <v>-0.25</v>
       </c>
       <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
         <v>1.95</v>
-      </c>
-      <c r="T114">
-        <v>1.9</v>
       </c>
       <c r="U114">
         <v>2.75</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
         <v>-1</v>
       </c>
       <c r="AD114">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -11078,7 +11078,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6189222</v>
+        <v>6189221</v>
       </c>
       <c r="C115" t="s">
         <v>39</v>
@@ -11087,55 +11087,55 @@
         <v>45144.25</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K115" t="s">
         <v>66</v>
       </c>
       <c r="L115">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="M115">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N115">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O115">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="P115">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q115">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="R115">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U115">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V115">
         <v>1.9</v>
@@ -11150,13 +11150,13 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -11170,7 +11170,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6189226</v>
+        <v>6189228</v>
       </c>
       <c r="C116" t="s">
         <v>39</v>
@@ -11179,79 +11179,79 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F116" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L116">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N116">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="O116">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q116">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="R116">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
+        <v>1.95</v>
+      </c>
+      <c r="U116">
+        <v>2.25</v>
+      </c>
+      <c r="V116">
         <v>2.05</v>
       </c>
-      <c r="T116">
+      <c r="W116">
         <v>1.8</v>
       </c>
-      <c r="U116">
-        <v>2.75</v>
-      </c>
-      <c r="V116">
-        <v>1.85</v>
-      </c>
-      <c r="W116">
-        <v>2</v>
-      </c>
       <c r="X116">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
+        <v>0.45</v>
+      </c>
+      <c r="AB116">
+        <v>-0.5</v>
+      </c>
+      <c r="AC116">
         <v>1.05</v>
-      </c>
-      <c r="AB116">
-        <v>-1</v>
-      </c>
-      <c r="AC116">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AD116">
         <v>-1</v>
@@ -11262,7 +11262,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6189228</v>
+        <v>6189227</v>
       </c>
       <c r="C117" t="s">
         <v>39</v>
@@ -11271,16 +11271,16 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -11292,58 +11292,58 @@
         <v>68</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N117">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
+        <v>2.05</v>
+      </c>
+      <c r="R117">
+        <v>0.5</v>
+      </c>
+      <c r="S117">
+        <v>1.875</v>
+      </c>
+      <c r="T117">
+        <v>1.975</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
+        <v>1.8</v>
+      </c>
+      <c r="W117">
+        <v>2.05</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
         <v>2.25</v>
       </c>
-      <c r="R117">
-        <v>0.25</v>
-      </c>
-      <c r="S117">
-        <v>1.9</v>
-      </c>
-      <c r="T117">
-        <v>1.95</v>
-      </c>
-      <c r="U117">
-        <v>2.25</v>
-      </c>
-      <c r="V117">
-        <v>2.05</v>
-      </c>
-      <c r="W117">
-        <v>1.8</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>2.2</v>
-      </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AD117">
         <v>-1</v>
@@ -11354,7 +11354,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6189227</v>
+        <v>6189229</v>
       </c>
       <c r="C118" t="s">
         <v>39</v>
@@ -11363,46 +11363,46 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" t="s">
         <v>68</v>
       </c>
       <c r="L118">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="M118">
+        <v>3.4</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118">
+        <v>2.2</v>
+      </c>
+      <c r="P118">
+        <v>3.4</v>
+      </c>
+      <c r="Q118">
         <v>3.2</v>
       </c>
-      <c r="N118">
-        <v>2.2</v>
-      </c>
-      <c r="O118">
-        <v>4</v>
-      </c>
-      <c r="P118">
-        <v>3.25</v>
-      </c>
-      <c r="Q118">
-        <v>2.05</v>
-      </c>
       <c r="R118">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S118">
         <v>1.875</v>
@@ -11411,34 +11411,34 @@
         <v>1.975</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -11446,7 +11446,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6189229</v>
+        <v>6189226</v>
       </c>
       <c r="C119" t="s">
         <v>39</v>
@@ -11455,82 +11455,82 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E119" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L119">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="M119">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O119">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="P119">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="R119">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S119">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U119">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y119">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB119">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -12826,7 +12826,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6291572</v>
+        <v>6291573</v>
       </c>
       <c r="C134" t="s">
         <v>39</v>
@@ -12835,82 +12835,82 @@
         <v>45157.25</v>
       </c>
       <c r="E134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F134" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L134">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="M134">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N134">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O134">
+        <v>4.333</v>
+      </c>
+      <c r="P134">
+        <v>3.6</v>
+      </c>
+      <c r="Q134">
+        <v>1.833</v>
+      </c>
+      <c r="R134">
+        <v>0.75</v>
+      </c>
+      <c r="S134">
+        <v>1.8</v>
+      </c>
+      <c r="T134">
+        <v>2.05</v>
+      </c>
+      <c r="U134">
         <v>2.5</v>
       </c>
-      <c r="P134">
-        <v>3.1</v>
-      </c>
-      <c r="Q134">
-        <v>3.1</v>
-      </c>
-      <c r="R134">
-        <v>-0.25</v>
-      </c>
-      <c r="S134">
-        <v>2.075</v>
-      </c>
-      <c r="T134">
-        <v>1.725</v>
-      </c>
-      <c r="U134">
-        <v>2</v>
-      </c>
       <c r="V134">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA134">
         <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>0.3625</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:30">
@@ -12918,7 +12918,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6291573</v>
+        <v>6291572</v>
       </c>
       <c r="C135" t="s">
         <v>39</v>
@@ -12927,82 +12927,82 @@
         <v>45157.25</v>
       </c>
       <c r="E135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L135">
+        <v>2.45</v>
+      </c>
+      <c r="M135">
+        <v>2.9</v>
+      </c>
+      <c r="N135">
+        <v>2.8</v>
+      </c>
+      <c r="O135">
+        <v>2.5</v>
+      </c>
+      <c r="P135">
         <v>3.1</v>
       </c>
-      <c r="M135">
-        <v>3.3</v>
-      </c>
-      <c r="N135">
+      <c r="Q135">
+        <v>3.1</v>
+      </c>
+      <c r="R135">
+        <v>-0.25</v>
+      </c>
+      <c r="S135">
+        <v>2.075</v>
+      </c>
+      <c r="T135">
+        <v>1.725</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
+        <v>2.05</v>
+      </c>
+      <c r="W135">
+        <v>1.8</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
         <v>2.1</v>
       </c>
-      <c r="O135">
-        <v>4.333</v>
-      </c>
-      <c r="P135">
-        <v>3.6</v>
-      </c>
-      <c r="Q135">
-        <v>1.833</v>
-      </c>
-      <c r="R135">
-        <v>0.75</v>
-      </c>
-      <c r="S135">
-        <v>1.8</v>
-      </c>
-      <c r="T135">
-        <v>2.05</v>
-      </c>
-      <c r="U135">
-        <v>2.5</v>
-      </c>
-      <c r="V135">
-        <v>1.85</v>
-      </c>
-      <c r="W135">
-        <v>2</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
       <c r="Z135">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
         <v>-0.5</v>
       </c>
       <c r="AB135">
-        <v>0.5249999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -31318,7 +31318,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7750610</v>
+        <v>7750613</v>
       </c>
       <c r="C335" t="s">
         <v>39</v>
@@ -31327,61 +31327,61 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E335" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F335" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H335">
         <v>2</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K335" t="s">
         <v>66</v>
       </c>
       <c r="L335">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="M335">
         <v>3.25</v>
       </c>
       <c r="N335">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O335">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="P335">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q335">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="R335">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S335">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T335">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U335">
         <v>2.25</v>
       </c>
       <c r="V335">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W335">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X335">
         <v>-1</v>
@@ -31390,19 +31390,19 @@
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>3.2</v>
+        <v>0.95</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC335">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD335">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="336" spans="1:30">
@@ -31410,7 +31410,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7750611</v>
+        <v>7750612</v>
       </c>
       <c r="C336" t="s">
         <v>39</v>
@@ -31419,82 +31419,82 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E336" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F336" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G336">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K336" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L336">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M336">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N336">
+        <v>3.5</v>
+      </c>
+      <c r="O336">
+        <v>1.85</v>
+      </c>
+      <c r="P336">
+        <v>3.6</v>
+      </c>
+      <c r="Q336">
         <v>4</v>
       </c>
-      <c r="O336">
-        <v>2.1</v>
-      </c>
-      <c r="P336">
-        <v>2.875</v>
-      </c>
-      <c r="Q336">
-        <v>4.333</v>
-      </c>
       <c r="R336">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S336">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T336">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U336">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V336">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W336">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X336">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y336">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z336">
         <v>-1</v>
       </c>
       <c r="AA336">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB336">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC336">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD336">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:30">
@@ -31502,7 +31502,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7750612</v>
+        <v>7750611</v>
       </c>
       <c r="C337" t="s">
         <v>39</v>
@@ -31511,82 +31511,82 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E337" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F337" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G337">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K337" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L337">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M337">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N337">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O337">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="P337">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q337">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="R337">
+        <v>-0.25</v>
+      </c>
+      <c r="S337">
+        <v>1.8</v>
+      </c>
+      <c r="T337">
+        <v>2.05</v>
+      </c>
+      <c r="U337">
+        <v>1.75</v>
+      </c>
+      <c r="V337">
+        <v>1.925</v>
+      </c>
+      <c r="W337">
+        <v>1.925</v>
+      </c>
+      <c r="X337">
+        <v>-1</v>
+      </c>
+      <c r="Y337">
+        <v>1.875</v>
+      </c>
+      <c r="Z337">
+        <v>-1</v>
+      </c>
+      <c r="AA337">
         <v>-0.5</v>
       </c>
-      <c r="S337">
-        <v>1.85</v>
-      </c>
-      <c r="T337">
-        <v>2</v>
-      </c>
-      <c r="U337">
-        <v>2.5</v>
-      </c>
-      <c r="V337">
-        <v>1.85</v>
-      </c>
-      <c r="W337">
-        <v>2</v>
-      </c>
-      <c r="X337">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y337">
-        <v>-1</v>
-      </c>
-      <c r="Z337">
-        <v>-1</v>
-      </c>
-      <c r="AA337">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC337">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AD337">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="338" spans="1:30">
@@ -31594,7 +31594,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7750613</v>
+        <v>7750610</v>
       </c>
       <c r="C338" t="s">
         <v>39</v>
@@ -31603,61 +31603,61 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E338" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F338" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H338">
         <v>2</v>
       </c>
       <c r="I338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K338" t="s">
         <v>66</v>
       </c>
       <c r="L338">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="M338">
         <v>3.25</v>
       </c>
       <c r="N338">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O338">
+        <v>1.909</v>
+      </c>
+      <c r="P338">
+        <v>3.4</v>
+      </c>
+      <c r="Q338">
         <v>4.2</v>
       </c>
-      <c r="P338">
-        <v>3.3</v>
-      </c>
-      <c r="Q338">
-        <v>1.95</v>
-      </c>
       <c r="R338">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S338">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T338">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U338">
         <v>2.25</v>
       </c>
       <c r="V338">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W338">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X338">
         <v>-1</v>
@@ -31666,19 +31666,19 @@
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>0.95</v>
+        <v>3.2</v>
       </c>
       <c r="AA338">
         <v>-1</v>
       </c>
       <c r="AB338">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC338">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD338">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:30">
@@ -38218,7 +38218,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7750676</v>
+        <v>7750679</v>
       </c>
       <c r="C410" t="s">
         <v>39</v>
@@ -38227,82 +38227,82 @@
         <v>45424.08333333334</v>
       </c>
       <c r="E410" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F410" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G410">
         <v>0</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410">
         <v>0</v>
       </c>
       <c r="J410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K410" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L410">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="M410">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N410">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O410">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="P410">
         <v>3.2</v>
       </c>
       <c r="Q410">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="R410">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S410">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T410">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U410">
         <v>2.25</v>
       </c>
       <c r="V410">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W410">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="X410">
         <v>-1</v>
       </c>
       <c r="Y410">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z410">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA410">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB410">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC410">
         <v>-1</v>
       </c>
       <c r="AD410">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="411" spans="1:30">
@@ -38310,7 +38310,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7750678</v>
+        <v>7750677</v>
       </c>
       <c r="C411" t="s">
         <v>39</v>
@@ -38319,10 +38319,10 @@
         <v>45424.08333333334</v>
       </c>
       <c r="E411" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F411" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G411">
         <v>1</v>
@@ -38331,7 +38331,7 @@
         <v>0</v>
       </c>
       <c r="I411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J411">
         <v>0</v>
@@ -38340,43 +38340,43 @@
         <v>67</v>
       </c>
       <c r="L411">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="M411">
         <v>3.2</v>
       </c>
       <c r="N411">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O411">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="P411">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q411">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="R411">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S411">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T411">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U411">
         <v>2.25</v>
       </c>
       <c r="V411">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W411">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X411">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="Y411">
         <v>-1</v>
@@ -38385,7 +38385,7 @@
         <v>-1</v>
       </c>
       <c r="AA411">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB411">
         <v>-1</v>
@@ -38394,7 +38394,7 @@
         <v>-1</v>
       </c>
       <c r="AD411">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="412" spans="1:30">
@@ -38402,7 +38402,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7750679</v>
+        <v>7750678</v>
       </c>
       <c r="C412" t="s">
         <v>39</v>
@@ -38411,82 +38411,82 @@
         <v>45424.08333333334</v>
       </c>
       <c r="E412" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F412" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H412">
         <v>0</v>
       </c>
       <c r="I412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J412">
         <v>0</v>
       </c>
       <c r="K412" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L412">
-        <v>2.375</v>
+        <v>1.9</v>
       </c>
       <c r="M412">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N412">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O412">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="P412">
         <v>3.2</v>
       </c>
       <c r="Q412">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R412">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S412">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T412">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U412">
         <v>2.25</v>
       </c>
       <c r="V412">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W412">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="X412">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y412">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z412">
         <v>-1</v>
       </c>
       <c r="AA412">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB412">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC412">
         <v>-1</v>
       </c>
       <c r="AD412">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="413" spans="1:30">
@@ -38494,7 +38494,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7750677</v>
+        <v>7750676</v>
       </c>
       <c r="C413" t="s">
         <v>39</v>
@@ -38503,82 +38503,82 @@
         <v>45424.08333333334</v>
       </c>
       <c r="E413" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F413" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I413">
         <v>0</v>
       </c>
       <c r="J413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K413" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L413">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="M413">
+        <v>3.25</v>
+      </c>
+      <c r="N413">
         <v>3.2</v>
       </c>
-      <c r="N413">
-        <v>2.15</v>
-      </c>
       <c r="O413">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="P413">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q413">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="R413">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S413">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T413">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U413">
         <v>2.25</v>
       </c>
       <c r="V413">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W413">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="X413">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y413">
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA413">
+        <v>-1</v>
+      </c>
+      <c r="AB413">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC413">
+        <v>-1</v>
+      </c>
+      <c r="AD413">
         <v>0.925</v>
-      </c>
-      <c r="AB413">
-        <v>-1</v>
-      </c>
-      <c r="AC413">
-        <v>-1</v>
-      </c>
-      <c r="AD413">
-        <v>0.875</v>
       </c>
     </row>
     <row r="414" spans="1:30">
@@ -39966,7 +39966,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>7750696</v>
+        <v>7750693</v>
       </c>
       <c r="C429" t="s">
         <v>39</v>
@@ -39975,73 +39975,73 @@
         <v>45438.08333333334</v>
       </c>
       <c r="E429" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F429" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G429">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K429" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L429">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="M429">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N429">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="O429">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="P429">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q429">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R429">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S429">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T429">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U429">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V429">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W429">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X429">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y429">
         <v>-1</v>
       </c>
       <c r="Z429">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA429">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB429">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC429">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AD429">
         <v>-1</v>
@@ -40224,7 +40224,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>7750694</v>
+        <v>7750695</v>
       </c>
       <c r="C432" t="s">
         <v>39</v>
@@ -40233,10 +40233,10 @@
         <v>45438.08333333334</v>
       </c>
       <c r="E432" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F432" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G432">
         <v>1</v>
@@ -40251,43 +40251,43 @@
         <v>1.7</v>
       </c>
       <c r="M432">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N432">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="O432">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="P432">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q432">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="R432">
         <v>-0.5</v>
       </c>
       <c r="S432">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T432">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U432">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V432">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W432">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X432">
         <v>-1</v>
       </c>
       <c r="Y432">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z432">
         <v>-1</v>
@@ -40296,13 +40296,13 @@
         <v>-1</v>
       </c>
       <c r="AB432">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC432">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD432">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="433" spans="1:30">
@@ -40310,7 +40310,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>7750693</v>
+        <v>7750694</v>
       </c>
       <c r="C433" t="s">
         <v>39</v>
@@ -40319,76 +40319,76 @@
         <v>45438.08333333334</v>
       </c>
       <c r="E433" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F433" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G433">
         <v>1</v>
       </c>
       <c r="H433">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K433" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L433">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="M433">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="N433">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O433">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="P433">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q433">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R433">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S433">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T433">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="U433">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V433">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W433">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X433">
         <v>-1</v>
       </c>
       <c r="Y433">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z433">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA433">
         <v>-1</v>
       </c>
       <c r="AB433">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AC433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD433">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:30">
@@ -40396,7 +40396,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>7750695</v>
+        <v>7750696</v>
       </c>
       <c r="C434" t="s">
         <v>39</v>
@@ -40405,76 +40405,76 @@
         <v>45438.08333333334</v>
       </c>
       <c r="E434" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F434" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H434">
         <v>1</v>
       </c>
       <c r="K434" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L434">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="M434">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N434">
         <v>5</v>
       </c>
       <c r="O434">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="P434">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="Q434">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="R434">
+        <v>-0.75</v>
+      </c>
+      <c r="S434">
+        <v>1.9</v>
+      </c>
+      <c r="T434">
+        <v>1.95</v>
+      </c>
+      <c r="U434">
+        <v>2.5</v>
+      </c>
+      <c r="V434">
+        <v>1.925</v>
+      </c>
+      <c r="W434">
+        <v>1.925</v>
+      </c>
+      <c r="X434">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Y434">
+        <v>-1</v>
+      </c>
+      <c r="Z434">
+        <v>-1</v>
+      </c>
+      <c r="AA434">
+        <v>0.45</v>
+      </c>
+      <c r="AB434">
         <v>-0.5</v>
       </c>
-      <c r="S434">
-        <v>1.95</v>
-      </c>
-      <c r="T434">
-        <v>1.9</v>
-      </c>
-      <c r="U434">
-        <v>2.25</v>
-      </c>
-      <c r="V434">
-        <v>2.025</v>
-      </c>
-      <c r="W434">
-        <v>1.825</v>
-      </c>
-      <c r="X434">
-        <v>-1</v>
-      </c>
-      <c r="Y434">
-        <v>2.1</v>
-      </c>
-      <c r="Z434">
-        <v>-1</v>
-      </c>
-      <c r="AA434">
-        <v>-1</v>
-      </c>
-      <c r="AB434">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC434">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD434">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435" spans="1:30">
@@ -40482,7 +40482,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>7750699</v>
+        <v>7749893</v>
       </c>
       <c r="C435" t="s">
         <v>39</v>
@@ -40491,73 +40491,73 @@
         <v>45444.08333333334</v>
       </c>
       <c r="E435" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F435" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G435">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K435" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L435">
+        <v>3</v>
+      </c>
+      <c r="M435">
+        <v>3.4</v>
+      </c>
+      <c r="N435">
+        <v>2.15</v>
+      </c>
+      <c r="O435">
+        <v>2.875</v>
+      </c>
+      <c r="P435">
+        <v>3.3</v>
+      </c>
+      <c r="Q435">
         <v>2.375</v>
       </c>
-      <c r="M435">
-        <v>3.2</v>
-      </c>
-      <c r="N435">
-        <v>2.8</v>
-      </c>
-      <c r="O435">
-        <v>2.6</v>
-      </c>
-      <c r="P435">
-        <v>3.2</v>
-      </c>
-      <c r="Q435">
-        <v>2.625</v>
-      </c>
       <c r="R435">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S435">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T435">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="U435">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V435">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W435">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="X435">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y435">
         <v>-1</v>
       </c>
       <c r="Z435">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA435">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB435">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC435">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AD435">
         <v>-1</v>
@@ -40568,7 +40568,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>7749893</v>
+        <v>7750699</v>
       </c>
       <c r="C436" t="s">
         <v>39</v>
@@ -40577,73 +40577,73 @@
         <v>45444.08333333334</v>
       </c>
       <c r="E436" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F436" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G436">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K436" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L436">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="M436">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N436">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O436">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="P436">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q436">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="R436">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S436">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T436">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="U436">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V436">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W436">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="X436">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y436">
         <v>-1</v>
       </c>
       <c r="Z436">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA436">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB436">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC436">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AD436">
         <v>-1</v>
@@ -40832,40 +40832,40 @@
         <v>39</v>
       </c>
       <c r="D439" s="2">
-        <v>45465.20833333334</v>
+        <v>45472.25</v>
       </c>
       <c r="E439" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F439" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="L439">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M439">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N439">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O439">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="P439">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q439">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="R439">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S439">
+        <v>2.05</v>
+      </c>
+      <c r="T439">
         <v>1.8</v>
-      </c>
-      <c r="T439">
-        <v>2.05</v>
       </c>
       <c r="U439">
         <v>2.25</v>
@@ -40897,43 +40897,43 @@
         <v>39</v>
       </c>
       <c r="D440" s="2">
-        <v>45465.25</v>
+        <v>45472.25</v>
       </c>
       <c r="E440" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F440" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="L440">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="M440">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N440">
-        <v>5.5</v>
+        <v>2.35</v>
       </c>
       <c r="O440">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="P440">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q440">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="R440">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S440">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T440">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U440">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V440">
         <v>2.025</v>
@@ -40962,49 +40962,49 @@
         <v>39</v>
       </c>
       <c r="D441" s="2">
-        <v>45465.25</v>
+        <v>45472.25</v>
       </c>
       <c r="E441" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F441" t="s">
         <v>63</v>
       </c>
       <c r="L441">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="M441">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N441">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O441">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="P441">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q441">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="R441">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S441">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T441">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U441">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V441">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W441">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X441">
         <v>0</v>
@@ -41027,49 +41027,49 @@
         <v>39</v>
       </c>
       <c r="D442" s="2">
-        <v>45465.29166666666</v>
+        <v>45472.29166666666</v>
       </c>
       <c r="E442" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F442" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L442">
+        <v>3.2</v>
+      </c>
+      <c r="M442">
+        <v>3.3</v>
+      </c>
+      <c r="N442">
+        <v>2.1</v>
+      </c>
+      <c r="O442">
+        <v>3.2</v>
+      </c>
+      <c r="P442">
+        <v>3.4</v>
+      </c>
+      <c r="Q442">
+        <v>2.15</v>
+      </c>
+      <c r="R442">
+        <v>0.25</v>
+      </c>
+      <c r="S442">
+        <v>1.975</v>
+      </c>
+      <c r="T442">
+        <v>1.875</v>
+      </c>
+      <c r="U442">
         <v>2.5</v>
       </c>
-      <c r="M442">
-        <v>3.2</v>
-      </c>
-      <c r="N442">
-        <v>2.75</v>
-      </c>
-      <c r="O442">
-        <v>2.5</v>
-      </c>
-      <c r="P442">
-        <v>3.2</v>
-      </c>
-      <c r="Q442">
-        <v>2.75</v>
-      </c>
-      <c r="R442">
-        <v>0</v>
-      </c>
-      <c r="S442">
-        <v>1.8</v>
-      </c>
-      <c r="T442">
-        <v>2.05</v>
-      </c>
-      <c r="U442">
-        <v>2.25</v>
-      </c>
       <c r="V442">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W442">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X442">
         <v>0</v>
@@ -41092,49 +41092,49 @@
         <v>39</v>
       </c>
       <c r="D443" s="2">
-        <v>45465.29166666666</v>
+        <v>45472.29166666666</v>
       </c>
       <c r="E443" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F443" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L443">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M443">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N443">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O443">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P443">
         <v>3.2</v>
       </c>
       <c r="Q443">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="R443">
         <v>0</v>
       </c>
       <c r="S443">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T443">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U443">
         <v>2.25</v>
       </c>
       <c r="V443">
+        <v>1.975</v>
+      </c>
+      <c r="W443">
         <v>1.875</v>
-      </c>
-      <c r="W443">
-        <v>1.975</v>
       </c>
       <c r="X443">
         <v>0</v>
@@ -41157,49 +41157,49 @@
         <v>39</v>
       </c>
       <c r="D444" s="2">
-        <v>45465.29166666666</v>
+        <v>45472.29166666666</v>
       </c>
       <c r="E444" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F444" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L444">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="M444">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N444">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O444">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="P444">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q444">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="R444">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S444">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T444">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U444">
         <v>2.25</v>
       </c>
       <c r="V444">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W444">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X444">
         <v>0</v>
@@ -41222,40 +41222,40 @@
         <v>39</v>
       </c>
       <c r="D445" s="2">
-        <v>45465.29166666666</v>
+        <v>45472.29166666666</v>
       </c>
       <c r="E445" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F445" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L445">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M445">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N445">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O445">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P445">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q445">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="R445">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S445">
+        <v>1.9</v>
+      </c>
+      <c r="T445">
         <v>1.95</v>
-      </c>
-      <c r="T445">
-        <v>1.9</v>
       </c>
       <c r="U445">
         <v>2.5</v>
@@ -41287,49 +41287,49 @@
         <v>39</v>
       </c>
       <c r="D446" s="2">
-        <v>45465.29166666666</v>
+        <v>45473.04166666666</v>
       </c>
       <c r="E446" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F446" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L446">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="M446">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N446">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="O446">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="P446">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q446">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="R446">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S446">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T446">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="U446">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V446">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W446">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="X446">
         <v>0</v>
@@ -41352,49 +41352,49 @@
         <v>39</v>
       </c>
       <c r="D447" s="2">
-        <v>45466.08333333334</v>
+        <v>45473.25</v>
       </c>
       <c r="E447" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F447" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L447">
+        <v>1.95</v>
+      </c>
+      <c r="M447">
+        <v>3.3</v>
+      </c>
+      <c r="N447">
+        <v>3.6</v>
+      </c>
+      <c r="O447">
+        <v>1.95</v>
+      </c>
+      <c r="P447">
+        <v>3.4</v>
+      </c>
+      <c r="Q447">
         <v>3.75</v>
       </c>
-      <c r="M447">
-        <v>3.25</v>
-      </c>
-      <c r="N447">
-        <v>1.952</v>
-      </c>
-      <c r="O447">
-        <v>4</v>
-      </c>
-      <c r="P447">
-        <v>3.3</v>
-      </c>
-      <c r="Q447">
-        <v>1.85</v>
-      </c>
       <c r="R447">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S447">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T447">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U447">
         <v>2.25</v>
       </c>
       <c r="V447">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W447">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="X447">
         <v>0</v>
@@ -41417,49 +41417,49 @@
         <v>39</v>
       </c>
       <c r="D448" s="2">
-        <v>45466.29166666666</v>
+        <v>45473.29166666666</v>
       </c>
       <c r="E448" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F448" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="L448">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="M448">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N448">
+        <v>5.5</v>
+      </c>
+      <c r="O448">
+        <v>1.55</v>
+      </c>
+      <c r="P448">
+        <v>4</v>
+      </c>
+      <c r="Q448">
+        <v>5.5</v>
+      </c>
+      <c r="R448">
+        <v>-1</v>
+      </c>
+      <c r="S448">
+        <v>1.975</v>
+      </c>
+      <c r="T448">
+        <v>1.875</v>
+      </c>
+      <c r="U448">
         <v>2.75</v>
       </c>
-      <c r="O448">
-        <v>2.4</v>
-      </c>
-      <c r="P448">
-        <v>3</v>
-      </c>
-      <c r="Q448">
-        <v>3</v>
-      </c>
-      <c r="R448">
-        <v>-0.25</v>
-      </c>
-      <c r="S448">
-        <v>2.1</v>
-      </c>
-      <c r="T448">
-        <v>1.775</v>
-      </c>
-      <c r="U448">
-        <v>2.25</v>
-      </c>
       <c r="V448">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W448">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X448">
         <v>0</v>
